--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264D86E-1DDB-441D-BC86-C4EFECB49C06}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ED146E-4841-40CC-9C4C-E3ACD0ED027A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="209">
   <si>
     <t>City</t>
   </si>
@@ -640,6 +640,15 @@
   </si>
   <si>
     <t>1600 Wickersham Ln</t>
+  </si>
+  <si>
+    <t>07000</t>
+  </si>
+  <si>
+    <t>05000</t>
+  </si>
+  <si>
+    <t>04000</t>
   </si>
 </sst>
 </file>
@@ -656,10 +665,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -686,6 +697,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -701,6 +713,7 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5297,7 +5310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -5334,10 +5349,10 @@
       <c r="D2" s="3">
         <v>-77.016400000000004</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>50000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5354,10 +5369,10 @@
       <c r="D3" s="4">
         <v>-73.981399999999994</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>51000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>36</v>
       </c>
     </row>
@@ -5374,10 +5389,10 @@
       <c r="D4" s="4">
         <v>-71.059799999999996</v>
       </c>
-      <c r="E4" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="5">
         <v>25</v>
       </c>
     </row>
@@ -5394,10 +5409,10 @@
       <c r="D5" s="4">
         <v>-87.650099999999995</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>14000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>17</v>
       </c>
     </row>
@@ -5414,7 +5429,7 @@
       <c r="D6" s="4">
         <v>-118.244</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>44000</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -5437,10 +5452,10 @@
       <c r="D7" s="4">
         <v>-78.638599999999997</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>55000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>37</v>
       </c>
     </row>
@@ -5457,10 +5472,10 @@
       <c r="D8" s="4">
         <v>-97.743099999999998</v>
       </c>
-      <c r="E8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="5">
         <v>48</v>
       </c>
     </row>
@@ -5477,10 +5492,10 @@
       <c r="D9" s="4">
         <v>-84.388000000000005</v>
       </c>
-      <c r="E9" s="2">
-        <v>4000</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="5">
         <v>13</v>
       </c>
     </row>
@@ -5493,7 +5508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ED146E-4841-40CC-9C4C-E3ACD0ED027A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A9F62-8658-4ACF-9597-8EC4478A8985}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
   <si>
     <t>City</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>06</t>
-  </si>
-  <si>
-    <t>You may have to use 06</t>
   </si>
   <si>
     <t>Raleigh</t>
@@ -1213,16 +1210,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
@@ -1231,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1240,27 +1237,27 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="G2" s="4">
         <v>20170</v>
@@ -1275,22 +1272,22 @@
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2">
         <v>22202</v>
@@ -1308,16 +1305,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -1338,16 +1335,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -1368,16 +1365,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -1398,16 +1395,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
@@ -1428,16 +1425,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1458,16 +1455,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1488,16 +1485,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1518,13 +1515,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>10</v>
@@ -1533,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="4">
         <v>42.39</v>
@@ -1542,7 +1539,7 @@
         <v>-71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
@@ -1550,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>10</v>
@@ -1565,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="4">
         <v>42.34</v>
@@ -1580,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>10</v>
@@ -1595,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="4">
         <v>42.35</v>
@@ -1610,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>10</v>
@@ -1625,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="4">
         <v>42.34</v>
@@ -1640,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>8</v>
@@ -1670,16 +1667,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
@@ -1700,16 +1697,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
@@ -1730,16 +1727,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
@@ -1760,13 +1757,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
@@ -1790,13 +1787,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>12</v>
@@ -1820,13 +1817,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
@@ -1850,13 +1847,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>162</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
@@ -1880,13 +1877,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
@@ -1910,13 +1907,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>12</v>
@@ -1940,13 +1937,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>12</v>
@@ -1970,13 +1967,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>12</v>
@@ -1997,22 +1994,22 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G27" s="4">
         <v>27701</v>
@@ -2027,22 +2024,22 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G28" s="4">
         <v>27519</v>
@@ -2057,22 +2054,22 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G29" s="4">
         <v>27601</v>
@@ -2087,22 +2084,22 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G30" s="4">
         <v>30303</v>
@@ -2117,22 +2114,22 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G31" s="4">
         <v>30308</v>
@@ -2147,22 +2144,22 @@
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G32" s="4">
         <v>30360</v>
@@ -2177,22 +2174,22 @@
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G33" s="25">
         <v>30328</v>
@@ -2207,22 +2204,22 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G34" s="4">
         <v>78704</v>
@@ -2234,27 +2231,27 @@
         <v>-97.744399999999999</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G35" s="4">
         <v>78721</v>
@@ -2269,22 +2266,22 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G36" s="4">
         <v>78732</v>
@@ -2299,22 +2296,22 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G37" s="4">
         <v>78758</v>
@@ -2329,22 +2326,22 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G38" s="4">
         <v>78758</v>
@@ -2359,22 +2356,22 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G39" s="4">
         <v>78717</v>
@@ -2389,22 +2386,22 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G40" s="4">
         <v>78741</v>
@@ -5311,7 +5308,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5390,7 +5387,7 @@
         <v>-71.059799999999996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" s="5">
         <v>25</v>
@@ -5435,16 +5432,14 @@
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>35.772100000000002</v>
@@ -5461,10 +5456,10 @@
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>30.267150000000001</v>
@@ -5473,7 +5468,7 @@
         <v>-97.743099999999998</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8" s="5">
         <v>48</v>
@@ -5481,10 +5476,10 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>33.749000000000002</v>
@@ -5493,7 +5488,7 @@
         <v>-84.388000000000005</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="5">
         <v>13</v>
@@ -5521,48 +5516,48 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
       <c r="A1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5590,13 +5585,13 @@
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5624,13 +5619,13 @@
     </row>
     <row r="7" spans="1:26" ht="15">
       <c r="A7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5658,13 +5653,13 @@
     </row>
     <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5692,13 +5687,13 @@
     </row>
     <row r="9" spans="1:26" ht="15">
       <c r="A9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="C9" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5726,13 +5721,13 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5760,10 +5755,10 @@
     </row>
     <row r="11" spans="1:26" ht="15">
       <c r="A11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5792,10 +5787,10 @@
     </row>
     <row r="12" spans="1:26" ht="15">
       <c r="A12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>54</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -5824,10 +5819,10 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>56</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5856,10 +5851,10 @@
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>58</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -5888,10 +5883,10 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>60</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -5920,10 +5915,10 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5952,10 +5947,10 @@
     </row>
     <row r="17" spans="1:26" ht="14.25">
       <c r="A17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -5984,10 +5979,10 @@
     </row>
     <row r="18" spans="1:26" ht="12.75">
       <c r="A18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>66</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6016,10 +6011,10 @@
     </row>
     <row r="19" spans="1:26" ht="12.75">
       <c r="A19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>68</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6048,10 +6043,10 @@
     </row>
     <row r="20" spans="1:26" ht="12.75">
       <c r="A20" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>69</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>70</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -6080,10 +6075,10 @@
     </row>
     <row r="21" spans="1:26" ht="12.75">
       <c r="A21" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -6112,10 +6107,10 @@
     </row>
     <row r="22" spans="1:26" ht="12.75">
       <c r="A22" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -6144,10 +6139,10 @@
     </row>
     <row r="23" spans="1:26" ht="12.75">
       <c r="A23" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -6176,10 +6171,10 @@
     </row>
     <row r="24" spans="1:26" ht="12.75">
       <c r="A24" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="37" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>78</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -6208,10 +6203,10 @@
     </row>
     <row r="25" spans="1:26" ht="12.75">
       <c r="A25" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>80</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -6240,13 +6235,13 @@
     </row>
     <row r="26" spans="1:26" ht="12.75">
       <c r="A26" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="C26" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -6274,13 +6269,13 @@
     </row>
     <row r="27" spans="1:26" ht="12.75">
       <c r="A27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="C27" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -6308,13 +6303,13 @@
     </row>
     <row r="28" spans="1:26" ht="12.75">
       <c r="A28" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="C28" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -6342,13 +6337,13 @@
     </row>
     <row r="29" spans="1:26" ht="12.75">
       <c r="A29" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="C29" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -6376,13 +6371,13 @@
     </row>
     <row r="30" spans="1:26" ht="12.75">
       <c r="A30" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="C30" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>

--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A9F62-8658-4ACF-9597-8EC4478A8985}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F7C734-6134-4CFD-B391-DC9FA9F59A76}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
     <sheet name="AmazonCities" sheetId="2" r:id="rId2"/>
     <sheet name="CensusFields" sheetId="3" r:id="rId3"/>
+    <sheet name="AmzonCities_Crime" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="209">
   <si>
     <t>City</t>
   </si>
@@ -129,84 +130,51 @@
     <t>Number of persons, age 16 or older, in the labor force.</t>
   </si>
   <si>
-    <t>employment_employed</t>
-  </si>
-  <si>
     <t>B23025_004E</t>
   </si>
   <si>
     <t>Number of employed, age 16 or older, in the civilian labor force.</t>
   </si>
   <si>
-    <t>employment_civilian_labor_force</t>
-  </si>
-  <si>
     <t>B23025_003E</t>
   </si>
   <si>
     <t>Number of persons, age 16 or older, in the civilian labor force</t>
   </si>
   <si>
-    <t>employment_female_management_occupations</t>
-  </si>
-  <si>
     <t>C24010_041E</t>
   </si>
   <si>
     <t>Number of employed Female 'Management occupations' for the civilian population age 16 and over</t>
   </si>
   <si>
-    <t>employment_male_management_occupations</t>
-  </si>
-  <si>
     <t>C24010_005E</t>
   </si>
   <si>
     <t>Number of employed male 'Management occupations' for the civilian population age 16 and over</t>
   </si>
   <si>
-    <t>education_associates</t>
-  </si>
-  <si>
     <t>B15003_021E</t>
   </si>
   <si>
     <t>The number of persons age 25 and over who hold an Associate's degree.</t>
   </si>
   <si>
-    <t>education_bachelors</t>
-  </si>
-  <si>
     <t>B15003_022E</t>
   </si>
   <si>
-    <t>education_doctorate</t>
-  </si>
-  <si>
     <t>B15003_025E</t>
   </si>
   <si>
-    <t>education_ged</t>
-  </si>
-  <si>
     <t>B15003_018E</t>
   </si>
   <si>
-    <t>education_high_school</t>
-  </si>
-  <si>
     <t>B15003_017E</t>
   </si>
   <si>
-    <t>education_masters</t>
-  </si>
-  <si>
     <t>B15003_023E</t>
   </si>
   <si>
-    <t>education_professional</t>
-  </si>
-  <si>
     <t>B15003_024E</t>
   </si>
   <si>
@@ -216,93 +184,54 @@
     <t>B01003_001E</t>
   </si>
   <si>
-    <t>Population_american_indian_alone</t>
-  </si>
-  <si>
     <t>B02001_004E</t>
   </si>
   <si>
-    <t>Population_asian_alone</t>
-  </si>
-  <si>
     <t>B02001_005E</t>
   </si>
   <si>
-    <t>Population_black_alone</t>
-  </si>
-  <si>
     <t>B02001_003E</t>
   </si>
   <si>
-    <t>Population_hispanic_origin</t>
-  </si>
-  <si>
     <t>B03001_003E</t>
   </si>
   <si>
-    <t>Population_native_hawaiian_alone</t>
-  </si>
-  <si>
     <t>B02001_006E</t>
   </si>
   <si>
-    <t>Population_other_alone</t>
-  </si>
-  <si>
     <t>B02001_007E</t>
   </si>
   <si>
-    <t>Population_two_or_more_races</t>
-  </si>
-  <si>
     <t>B02001_008E</t>
   </si>
   <si>
-    <t>Population_white_alone</t>
-  </si>
-  <si>
     <t>B02001_002E</t>
   </si>
   <si>
-    <t>Commute_time</t>
-  </si>
-  <si>
     <t>B08136_001E</t>
   </si>
   <si>
     <t>(Normalizable) Total time spent commuting (in minutes).</t>
   </si>
   <si>
-    <t>Commute_time_carpool</t>
-  </si>
-  <si>
     <t>B08136_004E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): Car, truck, or van - carpool.</t>
   </si>
   <si>
-    <t>Commute_time_other</t>
-  </si>
-  <si>
     <t>B08136_012E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): Taxicab, motorcycle, bicycle, or other means.</t>
   </si>
   <si>
-    <t>Commute_time_public_transport</t>
-  </si>
-  <si>
     <t>B08136_007E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): public transport (excluding taxis).</t>
   </si>
   <si>
-    <t>Commute_time_solo_automobile</t>
-  </si>
-  <si>
     <t>B08136_003E</t>
   </si>
   <si>
@@ -646,6 +575,81 @@
   </si>
   <si>
     <t>04000</t>
+  </si>
+  <si>
+    <t>Emp_Mgment_Occp_Male</t>
+  </si>
+  <si>
+    <t>Emp_Total</t>
+  </si>
+  <si>
+    <t>Emp_civilian_labor_force</t>
+  </si>
+  <si>
+    <t>Emp_Mgment_Occp_Female</t>
+  </si>
+  <si>
+    <t>Ed_Bachelors</t>
+  </si>
+  <si>
+    <t>Ed_Doctorate</t>
+  </si>
+  <si>
+    <t>Ed_GED</t>
+  </si>
+  <si>
+    <t>Ed_HighSchool</t>
+  </si>
+  <si>
+    <t>Ed_Masters</t>
+  </si>
+  <si>
+    <t>Ed_Professional</t>
+  </si>
+  <si>
+    <t>Population_Asian</t>
+  </si>
+  <si>
+    <t>Pop_American_Indian</t>
+  </si>
+  <si>
+    <t>Pop_Black</t>
+  </si>
+  <si>
+    <t>Pop_Hispanic_Origin</t>
+  </si>
+  <si>
+    <t>Pop_Native_Hawaiian</t>
+  </si>
+  <si>
+    <t>Pop_Other</t>
+  </si>
+  <si>
+    <t>Pop_two_or_more_races</t>
+  </si>
+  <si>
+    <t>Ed_Associates</t>
+  </si>
+  <si>
+    <t>Pop_White</t>
+  </si>
+  <si>
+    <t>Commute_Time_Carpool</t>
+  </si>
+  <si>
+    <t>Commute_Time</t>
+  </si>
+  <si>
+    <t>Commute_Time_Other</t>
+  </si>
+  <si>
+    <t>Commute_Time_Public_Transport</t>
+  </si>
+  <si>
+    <t>Commute_Time_Solo_Automobile</t>
+  </si>
+  <si>
+    <t>CrimeIndex</t>
   </si>
 </sst>
 </file>
@@ -1210,16 +1214,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
@@ -1228,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1237,27 +1241,27 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G2" s="4">
         <v>20170</v>
@@ -1272,22 +1276,22 @@
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2">
         <v>22202</v>
@@ -1305,16 +1309,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -1335,16 +1339,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -1365,16 +1369,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -1395,16 +1399,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
@@ -1425,16 +1429,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1455,16 +1459,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1485,16 +1489,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1515,13 +1519,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>10</v>
@@ -1530,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="H11" s="4">
         <v>42.39</v>
@@ -1539,7 +1543,7 @@
         <v>-71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
@@ -1547,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>10</v>
@@ -1562,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="H12" s="4">
         <v>42.34</v>
@@ -1577,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>10</v>
@@ -1592,7 +1596,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H13" s="4">
         <v>42.35</v>
@@ -1607,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>10</v>
@@ -1622,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="H14" s="4">
         <v>42.34</v>
@@ -1637,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>8</v>
@@ -1667,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
@@ -1697,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
@@ -1727,16 +1731,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
@@ -1757,13 +1761,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
@@ -1787,13 +1791,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>12</v>
@@ -1817,13 +1821,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
@@ -1847,13 +1851,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
@@ -1877,13 +1881,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
@@ -1907,13 +1911,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>12</v>
@@ -1937,13 +1941,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>12</v>
@@ -1967,13 +1971,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>12</v>
@@ -1997,16 +2001,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
@@ -2027,16 +2031,16 @@
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
@@ -2057,13 +2061,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>17</v>
@@ -2087,13 +2091,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>21</v>
@@ -2117,13 +2121,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>21</v>
@@ -2147,13 +2151,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>21</v>
@@ -2177,13 +2181,13 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>21</v>
@@ -2207,13 +2211,13 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>19</v>
@@ -2231,7 +2235,7 @@
         <v>-97.744399999999999</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15">
@@ -2239,13 +2243,13 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>19</v>
@@ -2269,13 +2273,13 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>19</v>
@@ -2299,13 +2303,13 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>19</v>
@@ -2329,13 +2333,13 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>19</v>
@@ -2359,13 +2363,13 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>19</v>
@@ -2389,13 +2393,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>19</v>
@@ -5307,7 +5311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5387,7 +5391,7 @@
         <v>-71.059799999999996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="F4" s="5">
         <v>25</v>
@@ -5468,7 +5472,7 @@
         <v>-97.743099999999998</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F8" s="5">
         <v>48</v>
@@ -5488,7 +5492,7 @@
         <v>-84.388000000000005</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F9" s="5">
         <v>13</v>
@@ -5504,7 +5508,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5585,13 +5589,13 @@
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5619,13 +5623,13 @@
     </row>
     <row r="7" spans="1:26" ht="15">
       <c r="A7" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5653,13 +5657,13 @@
     </row>
     <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="34" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5687,13 +5691,13 @@
     </row>
     <row r="9" spans="1:26" ht="15">
       <c r="A9" s="32" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5721,13 +5725,13 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="35" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5755,10 +5759,10 @@
     </row>
     <row r="11" spans="1:26" ht="15">
       <c r="A11" s="35" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5787,10 +5791,10 @@
     </row>
     <row r="12" spans="1:26" ht="15">
       <c r="A12" s="35" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -5819,10 +5823,10 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="35" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5851,10 +5855,10 @@
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="35" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -5883,10 +5887,10 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="35" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -5915,10 +5919,10 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="35" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5947,10 +5951,10 @@
     </row>
     <row r="17" spans="1:26" ht="14.25">
       <c r="A17" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -5979,10 +5983,10 @@
     </row>
     <row r="18" spans="1:26" ht="12.75">
       <c r="A18" s="37" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6011,10 +6015,10 @@
     </row>
     <row r="19" spans="1:26" ht="12.75">
       <c r="A19" s="37" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6043,10 +6047,10 @@
     </row>
     <row r="20" spans="1:26" ht="12.75">
       <c r="A20" s="40" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -6075,10 +6079,10 @@
     </row>
     <row r="21" spans="1:26" ht="12.75">
       <c r="A21" s="37" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -6107,10 +6111,10 @@
     </row>
     <row r="22" spans="1:26" ht="12.75">
       <c r="A22" s="40" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -6139,10 +6143,10 @@
     </row>
     <row r="23" spans="1:26" ht="12.75">
       <c r="A23" s="39" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -6171,10 +6175,10 @@
     </row>
     <row r="24" spans="1:26" ht="12.75">
       <c r="A24" s="37" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -6203,10 +6207,10 @@
     </row>
     <row r="25" spans="1:26" ht="12.75">
       <c r="A25" s="40" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -6235,13 +6239,13 @@
     </row>
     <row r="26" spans="1:26" ht="12.75">
       <c r="A26" s="41" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -6269,13 +6273,13 @@
     </row>
     <row r="27" spans="1:26" ht="12.75">
       <c r="A27" s="41" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -6303,13 +6307,13 @@
     </row>
     <row r="28" spans="1:26" ht="12.75">
       <c r="A28" s="41" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -6337,13 +6341,13 @@
     </row>
     <row r="29" spans="1:26" ht="12.75">
       <c r="A29" s="41" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -6371,13 +6375,13 @@
     </row>
     <row r="30" spans="1:26" ht="12.75">
       <c r="A30" s="41" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -6406,4 +6410,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1ED728-0DAC-462B-8BCA-D3A63DBEE251}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>568.9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>222.2</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>303.5</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>510.7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>347.1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>259.8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>312.7</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
+        <v>591.79999999999995</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F7C734-6134-4CFD-B391-DC9FA9F59A76}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE89B2-81BF-4C20-9A80-B7150E47FCC2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="210">
   <si>
     <t>City</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>CrimeIndex</t>
+  </si>
+  <si>
+    <t>50000</t>
   </si>
 </sst>
 </file>
@@ -5311,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5350,8 +5353,8 @@
       <c r="D2" s="3">
         <v>-77.016400000000004</v>
       </c>
-      <c r="E2" s="5">
-        <v>50000</v>
+      <c r="E2" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F2" s="5">
         <v>11</v>
@@ -5500,6 +5503,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:F9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -6416,7 +6423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1ED728-0DAC-462B-8BCA-D3A63DBEE251}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE89B2-81BF-4C20-9A80-B7150E47FCC2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEDCB1-BCDF-4D17-BB46-6ECB3D4BCAAB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="217">
   <si>
     <t>City</t>
   </si>
@@ -142,18 +142,6 @@
     <t>Number of persons, age 16 or older, in the civilian labor force</t>
   </si>
   <si>
-    <t>C24010_041E</t>
-  </si>
-  <si>
-    <t>Number of employed Female 'Management occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
-    <t>C24010_005E</t>
-  </si>
-  <si>
-    <t>Number of employed male 'Management occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
     <t>B15003_021E</t>
   </si>
   <si>
@@ -653,13 +641,46 @@
   </si>
   <si>
     <t>50000</t>
+  </si>
+  <si>
+    <t>Median Household Income</t>
+  </si>
+  <si>
+    <t>B19013_001E</t>
+  </si>
+  <si>
+    <t>C24010_044E</t>
+  </si>
+  <si>
+    <t>Number of employed female 'Computer and mathematical occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>Emp_Comp_Math_Female</t>
+  </si>
+  <si>
+    <t>Number of employed male 'Computer and mathematical occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>C24010_008E</t>
+  </si>
+  <si>
+    <t>C24010_040E</t>
+  </si>
+  <si>
+    <t>Number of employed Female 'Management , Business and Financial occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>Number of employed male 'Management, Business and Financial  occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>C24010_006E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -716,6 +737,23 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF31708F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF31708F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -819,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -884,12 +922,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,16 +1259,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
@@ -1235,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1244,27 +1286,27 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G2" s="4">
         <v>20170</v>
@@ -1279,22 +1321,22 @@
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>22202</v>
@@ -1312,16 +1354,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -1342,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -1372,16 +1414,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -1402,16 +1444,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
@@ -1432,16 +1474,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1462,16 +1504,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1492,16 +1534,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1522,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>10</v>
@@ -1537,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H11" s="4">
         <v>42.39</v>
@@ -1546,7 +1588,7 @@
         <v>-71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
@@ -1554,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>10</v>
@@ -1569,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H12" s="4">
         <v>42.34</v>
@@ -1584,13 +1626,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>10</v>
@@ -1599,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H13" s="4">
         <v>42.35</v>
@@ -1614,13 +1656,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>10</v>
@@ -1629,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H14" s="4">
         <v>42.34</v>
@@ -1644,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>8</v>
@@ -1674,16 +1716,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
@@ -1704,16 +1746,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
@@ -1734,16 +1776,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
@@ -1764,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
@@ -1794,13 +1836,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>12</v>
@@ -1824,13 +1866,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
@@ -1854,13 +1896,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
@@ -1884,13 +1926,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
@@ -1914,13 +1956,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>12</v>
@@ -1944,13 +1986,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>12</v>
@@ -1974,13 +2016,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>12</v>
@@ -2004,16 +2046,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
@@ -2034,16 +2076,16 @@
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
@@ -2064,13 +2106,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>17</v>
@@ -2094,13 +2136,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>21</v>
@@ -2124,13 +2166,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>21</v>
@@ -2154,13 +2196,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>21</v>
@@ -2184,13 +2226,13 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>21</v>
@@ -2214,13 +2256,13 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>19</v>
@@ -2238,7 +2280,7 @@
         <v>-97.744399999999999</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15">
@@ -2246,13 +2288,13 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>19</v>
@@ -2276,13 +2318,13 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>19</v>
@@ -2306,13 +2348,13 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>19</v>
@@ -2336,13 +2378,13 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>19</v>
@@ -2366,13 +2408,13 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>19</v>
@@ -2396,13 +2438,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>19</v>
@@ -5314,7 +5356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5354,7 +5396,7 @@
         <v>-77.016400000000004</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F2" s="5">
         <v>11</v>
@@ -5394,7 +5436,7 @@
         <v>-71.059799999999996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F4" s="5">
         <v>25</v>
@@ -5475,7 +5517,7 @@
         <v>-97.743099999999998</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F8" s="5">
         <v>48</v>
@@ -5495,7 +5537,7 @@
         <v>-84.388000000000005</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F9" s="5">
         <v>13</v>
@@ -5512,17 +5554,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
@@ -5544,65 +5586,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25">
+    <row r="3" spans="1:26" ht="15">
       <c r="A3" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25">
+      <c r="A4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="29" t="s">
+    <row r="5" spans="1:26" ht="12.75">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B5" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="16.5">
-      <c r="A5" s="31" t="s">
+    <row r="6" spans="1:26" ht="16.5">
+      <c r="A6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C6" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5630,13 +5646,13 @@
     </row>
     <row r="7" spans="1:26" ht="15">
       <c r="A7" s="32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5662,15 +5678,15 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
-      <c r="A8" s="34" t="s">
-        <v>187</v>
+    <row r="8" spans="1:26" ht="15">
+      <c r="A8" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5696,15 +5712,15 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
+    <row r="9" spans="1:26">
+      <c r="A9" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5730,112 +5746,118 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15">
-      <c r="A10" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-    </row>
-    <row r="11" spans="1:26" ht="15">
-      <c r="A11" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
+    <row r="10" spans="1:26" ht="14.25">
+      <c r="A10" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="A12" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="35" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -5862,10 +5884,10 @@
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="35" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -5894,10 +5916,10 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="35" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -5926,10 +5948,10 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="35" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5956,108 +5978,108 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25">
-      <c r="A17" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="1:26" ht="12.75">
-      <c r="A18" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="1:26" ht="12.75">
-      <c r="A19" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75">
-      <c r="A20" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>55</v>
+    <row r="17" spans="1:26" ht="15">
+      <c r="A17" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="1:26" ht="15">
+      <c r="A18" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" ht="15">
+      <c r="A19" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.25">
+      <c r="A20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -6086,10 +6108,10 @@
     </row>
     <row r="21" spans="1:26" ht="12.75">
       <c r="A21" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>56</v>
+        <v>191</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -6117,11 +6139,11 @@
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" ht="12.75">
-      <c r="A22" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>57</v>
+      <c r="A22" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -6150,10 +6172,10 @@
     </row>
     <row r="23" spans="1:26" ht="12.75">
       <c r="A23" s="39" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -6182,10 +6204,10 @@
     </row>
     <row r="24" spans="1:26" ht="12.75">
       <c r="A24" s="37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -6213,11 +6235,11 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" ht="12.75">
-      <c r="A25" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>60</v>
+      <c r="A25" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -6245,116 +6267,110 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" ht="12.75">
-      <c r="A26" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
+      <c r="A26" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" ht="12.75">
-      <c r="A27" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
+      <c r="A27" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" ht="12.75">
-      <c r="A28" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
+      <c r="A28" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" ht="12.75">
-      <c r="A29" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>67</v>
+      <c r="A29" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -6381,14 +6397,14 @@
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" ht="12.75">
-      <c r="A30" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>69</v>
+      <c r="A30" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -6414,8 +6430,111 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
     </row>
+    <row r="31" spans="1:26" ht="12.75">
+      <c r="A31" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75">
+      <c r="A32" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75">
+      <c r="A33" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6437,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="2"/>

--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEDCB1-BCDF-4D17-BB46-6ECB3D4BCAAB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75B7885-5C81-498A-B2AE-AB5E5AB8EF19}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
@@ -5557,14 +5557,14 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">

--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75B7885-5C81-498A-B2AE-AB5E5AB8EF19}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C3C78-6E81-4F61-BB7D-DCF30E604130}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="223">
   <si>
     <t>City</t>
   </si>
@@ -674,6 +674,24 @@
   </si>
   <si>
     <t>C24010_006E</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Educational Attainment</t>
+  </si>
+  <si>
+    <t>Commute Time</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Housing</t>
   </si>
 </sst>
 </file>
@@ -857,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -932,6 +950,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5554,73 +5573,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75">
+    <row r="1" spans="1:27" ht="12.75">
       <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.75">
+    <row r="2" spans="1:27" ht="12.75">
       <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15">
+    <row r="3" spans="1:27" ht="15">
       <c r="A3" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:27" ht="14.25">
       <c r="A4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75">
+    <row r="5" spans="1:27" ht="12.75">
       <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="16.5">
+    <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5643,18 +5680,21 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="15">
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5677,18 +5717,21 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="15">
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5711,18 +5754,21 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="D9" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5745,18 +5791,21 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25">
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5779,18 +5828,21 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D11" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -5813,18 +5865,21 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="15">
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -5847,18 +5902,21 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="15">
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" ht="15">
       <c r="A13" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -5881,15 +5939,18 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-    </row>
-    <row r="14" spans="1:26" ht="15">
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" ht="15">
       <c r="A14" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5913,15 +5974,18 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-    </row>
-    <row r="15" spans="1:26" ht="15">
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" ht="15">
       <c r="A15" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5945,15 +6009,18 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-    </row>
-    <row r="16" spans="1:26" ht="15">
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" ht="15">
       <c r="A16" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -5977,15 +6044,18 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-    </row>
-    <row r="17" spans="1:26" ht="15">
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="1:27" ht="15">
       <c r="A17" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -6009,15 +6079,18 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="1:26" ht="15">
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="1:27" ht="15">
       <c r="A18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -6041,15 +6114,18 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-    </row>
-    <row r="19" spans="1:26" ht="15">
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="1:27" ht="15">
       <c r="A19" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6073,15 +6149,18 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25">
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" ht="14.25">
       <c r="A20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -6105,15 +6184,18 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-    </row>
-    <row r="21" spans="1:26" ht="12.75">
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" ht="12.75">
       <c r="A21" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6137,15 +6219,18 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75">
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" ht="12.75">
       <c r="A22" s="37" t="s">
         <v>190</v>
       </c>
       <c r="B22" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -6169,15 +6254,18 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75">
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" ht="12.75">
       <c r="A23" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -6201,15 +6289,18 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75">
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" ht="12.75">
       <c r="A24" s="37" t="s">
         <v>193</v>
       </c>
       <c r="B24" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -6233,15 +6324,18 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75">
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" ht="12.75">
       <c r="A25" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -6265,15 +6359,18 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75">
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" ht="12.75">
       <c r="A26" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -6297,15 +6394,18 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75">
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" ht="12.75">
       <c r="A27" s="37" t="s">
         <v>196</v>
       </c>
       <c r="B27" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -6329,15 +6429,18 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75">
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" ht="12.75">
       <c r="A28" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -6361,18 +6464,21 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75">
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" ht="12.75">
       <c r="A29" s="40" t="s">
         <v>200</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -6395,18 +6501,21 @@
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75">
+      <c r="AA29" s="13"/>
+    </row>
+    <row r="30" spans="1:27" ht="12.75">
       <c r="A30" s="40" t="s">
         <v>199</v>
       </c>
       <c r="B30" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -6429,18 +6538,21 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75">
+      <c r="AA30" s="13"/>
+    </row>
+    <row r="31" spans="1:27" ht="12.75">
       <c r="A31" s="40" t="s">
         <v>201</v>
       </c>
       <c r="B31" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -6463,18 +6575,21 @@
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75">
+      <c r="AA31" s="13"/>
+    </row>
+    <row r="32" spans="1:27" ht="12.75">
       <c r="A32" s="40" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -6497,18 +6612,21 @@
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
-    </row>
-    <row r="33" spans="1:26" ht="12.75">
+      <c r="AA32" s="13"/>
+    </row>
+    <row r="33" spans="1:27" ht="12.75">
       <c r="A33" s="40" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -6531,6 +6649,7 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C3C78-6E81-4F61-BB7D-DCF30E604130}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD0158-EE43-4562-8DFE-A4702DF6993C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="224">
   <si>
     <t>City</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>Housing</t>
+  </si>
+  <si>
+    <t>Emp_Comp_Math_Male</t>
   </si>
 </sst>
 </file>
@@ -5576,7 +5579,7 @@
   <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="43" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>218</v>

--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD0158-EE43-4562-8DFE-A4702DF6993C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE953C-0722-427E-A43D-D50CAF306E26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12210" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
     <sheet name="AmazonCities" sheetId="2" r:id="rId2"/>
     <sheet name="CensusFields" sheetId="3" r:id="rId3"/>
     <sheet name="AmzonCities_Crime" sheetId="4" r:id="rId4"/>
+    <sheet name="AmzonCities_DiversityRating" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="234">
   <si>
     <t>City</t>
   </si>
@@ -571,9 +572,6 @@
     <t>Emp_Total</t>
   </si>
   <si>
-    <t>Emp_civilian_labor_force</t>
-  </si>
-  <si>
     <t>Emp_Mgment_Occp_Female</t>
   </si>
   <si>
@@ -695,13 +693,46 @@
   </si>
   <si>
     <t>Emp_Comp_Math_Male</t>
+  </si>
+  <si>
+    <t>Civilian_labor_force</t>
+  </si>
+  <si>
+    <t>DiversityScore</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Washington city, District of Columbia</t>
+  </si>
+  <si>
+    <t>New York city, New York</t>
+  </si>
+  <si>
+    <t>Boston city, Massachusetts</t>
+  </si>
+  <si>
+    <t>Chicago city, Illinois</t>
+  </si>
+  <si>
+    <t>Los Angeles city, California</t>
+  </si>
+  <si>
+    <t>Raleigh city, North Carolina</t>
+  </si>
+  <si>
+    <t>Austin city, Texas</t>
+  </si>
+  <si>
+    <t>Atlanta city, Georgia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -778,8 +809,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF373737"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,8 +859,14 @@
         <bgColor rgb="FF3D85C6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -874,11 +917,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB8C3C8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB8C3C8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB8C3C8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB8C3C8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -954,6 +1012,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5379,7 +5444,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5403,6 +5468,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="47" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="1" t="s">
@@ -5418,10 +5486,13 @@
         <v>-77.016400000000004</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="5">
         <v>11</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -5443,6 +5514,9 @@
       <c r="F3" s="5">
         <v>36</v>
       </c>
+      <c r="G3" s="47" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="1" t="s">
@@ -5463,6 +5537,9 @@
       <c r="F4" s="5">
         <v>25</v>
       </c>
+      <c r="G4" s="47" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="1" t="s">
@@ -5483,6 +5560,9 @@
       <c r="F5" s="5">
         <v>17</v>
       </c>
+      <c r="G5" s="47" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
@@ -5503,7 +5583,9 @@
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="47" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
@@ -5524,6 +5606,9 @@
       <c r="F7" s="5">
         <v>37</v>
       </c>
+      <c r="G7" s="47" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" s="1" t="s">
@@ -5544,6 +5629,9 @@
       <c r="F8" s="5">
         <v>48</v>
       </c>
+      <c r="G8" s="47" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="1" t="s">
@@ -5563,6 +5651,9 @@
       </c>
       <c r="F9" s="5">
         <v>13</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5578,16 +5669,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="12.75">
@@ -5595,7 +5686,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>24</v>
@@ -5609,7 +5700,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>27</v>
@@ -5617,13 +5708,13 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>206</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25">
@@ -5631,7 +5722,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>29</v>
@@ -5642,7 +5733,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>31</v>
@@ -5653,7 +5744,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>33</v>
@@ -5690,7 +5781,7 @@
         <v>181</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
@@ -5724,10 +5815,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="32" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>37</v>
@@ -5761,16 +5852,16 @@
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>208</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>209</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5798,16 +5889,16 @@
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5835,16 +5926,16 @@
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5875,13 +5966,13 @@
         <v>180</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5909,10 +6000,10 @@
     </row>
     <row r="13" spans="1:27" ht="15">
       <c r="A13" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>39</v>
@@ -5946,10 +6037,10 @@
     </row>
     <row r="14" spans="1:27" ht="15">
       <c r="A14" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>41</v>
@@ -5981,10 +6072,10 @@
     </row>
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>42</v>
@@ -6016,10 +6107,10 @@
     </row>
     <row r="16" spans="1:27" ht="15">
       <c r="A16" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>43</v>
@@ -6051,10 +6142,10 @@
     </row>
     <row r="17" spans="1:27" ht="15">
       <c r="A17" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>44</v>
@@ -6086,10 +6177,10 @@
     </row>
     <row r="18" spans="1:27" ht="15">
       <c r="A18" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>45</v>
@@ -6121,10 +6212,10 @@
     </row>
     <row r="19" spans="1:27" ht="15">
       <c r="A19" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>46</v>
@@ -6159,7 +6250,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>48</v>
@@ -6191,10 +6282,10 @@
     </row>
     <row r="21" spans="1:27" ht="12.75">
       <c r="A21" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>49</v>
@@ -6226,10 +6317,10 @@
     </row>
     <row r="22" spans="1:27" ht="12.75">
       <c r="A22" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>50</v>
@@ -6261,10 +6352,10 @@
     </row>
     <row r="23" spans="1:27" ht="12.75">
       <c r="A23" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>51</v>
@@ -6296,10 +6387,10 @@
     </row>
     <row r="24" spans="1:27" ht="12.75">
       <c r="A24" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>52</v>
@@ -6331,10 +6422,10 @@
     </row>
     <row r="25" spans="1:27" ht="12.75">
       <c r="A25" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>53</v>
@@ -6366,10 +6457,10 @@
     </row>
     <row r="26" spans="1:27" ht="12.75">
       <c r="A26" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>54</v>
@@ -6401,10 +6492,10 @@
     </row>
     <row r="27" spans="1:27" ht="12.75">
       <c r="A27" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>55</v>
@@ -6436,10 +6527,10 @@
     </row>
     <row r="28" spans="1:27" ht="12.75">
       <c r="A28" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>56</v>
@@ -6471,10 +6562,10 @@
     </row>
     <row r="29" spans="1:27" ht="12.75">
       <c r="A29" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>57</v>
@@ -6508,10 +6599,10 @@
     </row>
     <row r="30" spans="1:27" ht="12.75">
       <c r="A30" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>59</v>
@@ -6545,10 +6636,10 @@
     </row>
     <row r="31" spans="1:27" ht="12.75">
       <c r="A31" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>61</v>
@@ -6582,10 +6673,10 @@
     </row>
     <row r="32" spans="1:27" ht="12.75">
       <c r="A32" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>63</v>
@@ -6619,10 +6710,10 @@
     </row>
     <row r="33" spans="1:27" ht="12.75">
       <c r="A33" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>65</v>
@@ -6665,10 +6756,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
       <c r="A1" s="26" t="s">
@@ -6678,9 +6772,11 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="26"/>
+        <v>203</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>225</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
@@ -6694,7 +6790,9 @@
       <c r="C2" s="3">
         <v>568.9</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="47" t="s">
+        <v>226</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
@@ -6708,7 +6806,9 @@
       <c r="C3" s="4">
         <v>222.2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="47" t="s">
+        <v>227</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
@@ -6722,7 +6822,9 @@
       <c r="C4" s="4">
         <v>303.5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="47" t="s">
+        <v>228</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
@@ -6736,7 +6838,9 @@
       <c r="C5" s="4">
         <v>510.7</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="47" t="s">
+        <v>229</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
@@ -6750,7 +6854,9 @@
       <c r="C6" s="4">
         <v>347.1</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
@@ -6765,7 +6871,9 @@
       <c r="C7" s="4">
         <v>259.8</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="47" t="s">
+        <v>231</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
@@ -6779,7 +6887,9 @@
       <c r="C8" s="4">
         <v>312.7</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="47" t="s">
+        <v>232</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
@@ -6793,11 +6903,177 @@
       <c r="C9" s="4">
         <v>591.79999999999995</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247902CA-B8DB-4C41-AB71-1C7A190FF973}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="45">
+        <v>69.44</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>71.73</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" thickBot="1">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" thickBot="1">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="46">
+        <v>70.84</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>67.95</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>69.91</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niyatidesai/Google Drive/UC Berkeley Ext._Data Analytics/Week_8_Project_1/BC_Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE953C-0722-427E-A43D-D50CAF306E26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C9FCDE89-2E0E-AF4F-9C54-35A13172327A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="560" windowWidth="13700" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
     <sheet name="AmazonCities" sheetId="2" r:id="rId2"/>
     <sheet name="CensusFields" sheetId="3" r:id="rId3"/>
-    <sheet name="AmzonCities_Crime" sheetId="4" r:id="rId4"/>
-    <sheet name="AmzonCities_DiversityRating" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
   <si>
     <t>City</t>
   </si>
@@ -77,6 +75,9 @@
     <t>06</t>
   </si>
   <si>
+    <t>You may have to use 06</t>
+  </si>
+  <si>
     <t>Raleigh</t>
   </si>
   <si>
@@ -131,39 +132,84 @@
     <t>Number of persons, age 16 or older, in the labor force.</t>
   </si>
   <si>
+    <t>employment_employed</t>
+  </si>
+  <si>
     <t>B23025_004E</t>
   </si>
   <si>
     <t>Number of employed, age 16 or older, in the civilian labor force.</t>
   </si>
   <si>
+    <t>employment_civilian_labor_force</t>
+  </si>
+  <si>
     <t>B23025_003E</t>
   </si>
   <si>
     <t>Number of persons, age 16 or older, in the civilian labor force</t>
   </si>
   <si>
+    <t>employment_female_management_occupations</t>
+  </si>
+  <si>
+    <t>C24010_041E</t>
+  </si>
+  <si>
+    <t>Number of employed Female 'Management occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>employment_male_management_occupations</t>
+  </si>
+  <si>
+    <t>C24010_005E</t>
+  </si>
+  <si>
+    <t>Number of employed male 'Management occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>education_associates</t>
+  </si>
+  <si>
     <t>B15003_021E</t>
   </si>
   <si>
     <t>The number of persons age 25 and over who hold an Associate's degree.</t>
   </si>
   <si>
+    <t>education_bachelors</t>
+  </si>
+  <si>
     <t>B15003_022E</t>
   </si>
   <si>
+    <t>education_doctorate</t>
+  </si>
+  <si>
     <t>B15003_025E</t>
   </si>
   <si>
+    <t>education_ged</t>
+  </si>
+  <si>
     <t>B15003_018E</t>
   </si>
   <si>
+    <t>education_high_school</t>
+  </si>
+  <si>
     <t>B15003_017E</t>
   </si>
   <si>
+    <t>education_masters</t>
+  </si>
+  <si>
     <t>B15003_023E</t>
   </si>
   <si>
+    <t>education_professional</t>
+  </si>
+  <si>
     <t>B15003_024E</t>
   </si>
   <si>
@@ -173,54 +219,93 @@
     <t>B01003_001E</t>
   </si>
   <si>
+    <t>Population_american_indian_alone</t>
+  </si>
+  <si>
     <t>B02001_004E</t>
   </si>
   <si>
+    <t>Population_asian_alone</t>
+  </si>
+  <si>
     <t>B02001_005E</t>
   </si>
   <si>
+    <t>Population_black_alone</t>
+  </si>
+  <si>
     <t>B02001_003E</t>
   </si>
   <si>
+    <t>Population_hispanic_origin</t>
+  </si>
+  <si>
     <t>B03001_003E</t>
   </si>
   <si>
+    <t>Population_native_hawaiian_alone</t>
+  </si>
+  <si>
     <t>B02001_006E</t>
   </si>
   <si>
+    <t>Population_other_alone</t>
+  </si>
+  <si>
     <t>B02001_007E</t>
   </si>
   <si>
+    <t>Population_two_or_more_races</t>
+  </si>
+  <si>
     <t>B02001_008E</t>
   </si>
   <si>
+    <t>Population_white_alone</t>
+  </si>
+  <si>
     <t>B02001_002E</t>
   </si>
   <si>
+    <t>Commute_time</t>
+  </si>
+  <si>
     <t>B08136_001E</t>
   </si>
   <si>
     <t>(Normalizable) Total time spent commuting (in minutes).</t>
   </si>
   <si>
+    <t>Commute_time_carpool</t>
+  </si>
+  <si>
     <t>B08136_004E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): Car, truck, or van - carpool.</t>
   </si>
   <si>
+    <t>Commute_time_other</t>
+  </si>
+  <si>
     <t>B08136_012E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): Taxicab, motorcycle, bicycle, or other means.</t>
   </si>
   <si>
+    <t>Commute_time_public_transport</t>
+  </si>
+  <si>
     <t>B08136_007E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): public transport (excluding taxis).</t>
   </si>
   <si>
+    <t>Commute_time_solo_automobile</t>
+  </si>
+  <si>
     <t>B08136_003E</t>
   </si>
   <si>
@@ -555,184 +640,13 @@
   </si>
   <si>
     <t>1600 Wickersham Ln</t>
-  </si>
-  <si>
-    <t>07000</t>
-  </si>
-  <si>
-    <t>05000</t>
-  </si>
-  <si>
-    <t>04000</t>
-  </si>
-  <si>
-    <t>Emp_Mgment_Occp_Male</t>
-  </si>
-  <si>
-    <t>Emp_Total</t>
-  </si>
-  <si>
-    <t>Emp_Mgment_Occp_Female</t>
-  </si>
-  <si>
-    <t>Ed_Bachelors</t>
-  </si>
-  <si>
-    <t>Ed_Doctorate</t>
-  </si>
-  <si>
-    <t>Ed_GED</t>
-  </si>
-  <si>
-    <t>Ed_HighSchool</t>
-  </si>
-  <si>
-    <t>Ed_Masters</t>
-  </si>
-  <si>
-    <t>Ed_Professional</t>
-  </si>
-  <si>
-    <t>Population_Asian</t>
-  </si>
-  <si>
-    <t>Pop_American_Indian</t>
-  </si>
-  <si>
-    <t>Pop_Black</t>
-  </si>
-  <si>
-    <t>Pop_Hispanic_Origin</t>
-  </si>
-  <si>
-    <t>Pop_Native_Hawaiian</t>
-  </si>
-  <si>
-    <t>Pop_Other</t>
-  </si>
-  <si>
-    <t>Pop_two_or_more_races</t>
-  </si>
-  <si>
-    <t>Ed_Associates</t>
-  </si>
-  <si>
-    <t>Pop_White</t>
-  </si>
-  <si>
-    <t>Commute_Time_Carpool</t>
-  </si>
-  <si>
-    <t>Commute_Time</t>
-  </si>
-  <si>
-    <t>Commute_Time_Other</t>
-  </si>
-  <si>
-    <t>Commute_Time_Public_Transport</t>
-  </si>
-  <si>
-    <t>Commute_Time_Solo_Automobile</t>
-  </si>
-  <si>
-    <t>CrimeIndex</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>Median Household Income</t>
-  </si>
-  <si>
-    <t>B19013_001E</t>
-  </si>
-  <si>
-    <t>C24010_044E</t>
-  </si>
-  <si>
-    <t>Number of employed female 'Computer and mathematical occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
-    <t>Emp_Comp_Math_Female</t>
-  </si>
-  <si>
-    <t>Number of employed male 'Computer and mathematical occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
-    <t>C24010_008E</t>
-  </si>
-  <si>
-    <t>C24010_040E</t>
-  </si>
-  <si>
-    <t>Number of employed Female 'Management , Business and Financial occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
-    <t>Number of employed male 'Management, Business and Financial  occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
-    <t>C24010_006E</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Employment</t>
-  </si>
-  <si>
-    <t>Educational Attainment</t>
-  </si>
-  <si>
-    <t>Commute Time</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Housing</t>
-  </si>
-  <si>
-    <t>Emp_Comp_Math_Male</t>
-  </si>
-  <si>
-    <t>Civilian_labor_force</t>
-  </si>
-  <si>
-    <t>DiversityScore</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>Washington city, District of Columbia</t>
-  </si>
-  <si>
-    <t>New York city, New York</t>
-  </si>
-  <si>
-    <t>Boston city, Massachusetts</t>
-  </si>
-  <si>
-    <t>Chicago city, Illinois</t>
-  </si>
-  <si>
-    <t>Los Angeles city, California</t>
-  </si>
-  <si>
-    <t>Raleigh city, North Carolina</t>
-  </si>
-  <si>
-    <t>Austin city, Texas</t>
-  </si>
-  <si>
-    <t>Atlanta city, Georgia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -742,12 +656,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -774,7 +686,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -790,30 +701,6 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF31708F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF31708F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF373737"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -861,12 +748,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -917,26 +804,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB8C3C8"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB8C3C8"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB8C3C8"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB8C3C8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1001,24 +873,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,29 +1194,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
@@ -1364,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1373,27 +1236,27 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4">
         <v>20170</v>
@@ -1408,22 +1271,22 @@
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2">
         <v>22202</v>
@@ -1441,16 +1304,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -1471,16 +1334,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -1501,16 +1364,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -1531,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
@@ -1561,16 +1424,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1591,16 +1454,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1621,16 +1484,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1651,13 +1514,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>10</v>
@@ -1666,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H11" s="4">
         <v>42.39</v>
@@ -1675,7 +1538,7 @@
         <v>-71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
@@ -1683,13 +1546,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>10</v>
@@ -1698,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="H12" s="4">
         <v>42.34</v>
@@ -1713,13 +1576,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>10</v>
@@ -1728,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="H13" s="4">
         <v>42.35</v>
@@ -1743,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>10</v>
@@ -1758,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="H14" s="4">
         <v>42.34</v>
@@ -1773,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>8</v>
@@ -1803,16 +1666,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
@@ -1828,21 +1691,21 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
@@ -1858,21 +1721,21 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
@@ -1888,18 +1751,18 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:17" ht="15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
@@ -1918,18 +1781,18 @@
       </c>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:17" ht="15">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>12</v>
@@ -1947,19 +1810,25 @@
         <v>-87.64</v>
       </c>
       <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" ht="15">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
@@ -1977,19 +1846,25 @@
         <v>-87.65</v>
       </c>
       <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="15">
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
@@ -2007,19 +1882,25 @@
         <v>-87.63</v>
       </c>
       <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
@@ -2037,19 +1918,25 @@
         <v>-87.62</v>
       </c>
       <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" ht="15">
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>12</v>
@@ -2067,19 +1954,25 @@
         <v>-87.67</v>
       </c>
       <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>12</v>
@@ -2097,19 +1990,25 @@
         <v>-87.66</v>
       </c>
       <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" ht="15">
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>12</v>
@@ -2127,25 +2026,31 @@
         <v>-87.6</v>
       </c>
       <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" ht="15">
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" s="4">
         <v>27701</v>
@@ -2157,25 +2062,31 @@
         <v>-78.87</v>
       </c>
       <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" ht="15">
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="4">
         <v>27519</v>
@@ -2188,24 +2099,24 @@
       </c>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:17" ht="15">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="4">
         <v>27601</v>
@@ -2218,24 +2129,24 @@
       </c>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:17" ht="15">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" s="4">
         <v>30303</v>
@@ -2248,24 +2159,24 @@
       </c>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:17" ht="15">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31" s="4">
         <v>30308</v>
@@ -2278,24 +2189,24 @@
       </c>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:17" ht="15">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="4">
         <v>30360</v>
@@ -2310,22 +2221,22 @@
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="25">
         <v>30328</v>
@@ -2340,22 +2251,22 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" s="4">
         <v>78704</v>
@@ -2367,27 +2278,27 @@
         <v>-97.744399999999999</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="4">
         <v>78721</v>
@@ -2402,22 +2313,22 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4">
         <v>78732</v>
@@ -2432,22 +2343,22 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="4">
         <v>78758</v>
@@ -2462,22 +2373,22 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" s="4">
         <v>78758</v>
@@ -2492,22 +2403,22 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" s="4">
         <v>78717</v>
@@ -2522,22 +2433,22 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G40" s="4">
         <v>78741</v>
@@ -2550,2888 +2461,2888 @@
       </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75">
+    <row r="41" spans="1:10" ht="13">
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75">
+    <row r="42" spans="1:10" ht="13">
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75">
+    <row r="43" spans="1:10" ht="13">
       <c r="E43" s="27"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75">
+    <row r="44" spans="1:10" ht="13">
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75">
+    <row r="45" spans="1:10" ht="13">
       <c r="E45" s="27"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75">
+    <row r="46" spans="1:10" ht="13">
       <c r="E46" s="27"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75">
+    <row r="47" spans="1:10" ht="13">
       <c r="E47" s="27"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75">
+    <row r="48" spans="1:10" ht="13">
       <c r="E48" s="27"/>
     </row>
-    <row r="49" spans="4:5" ht="12.75">
+    <row r="49" spans="4:5" ht="13">
       <c r="E49" s="27"/>
     </row>
-    <row r="50" spans="4:5" ht="12.75">
+    <row r="50" spans="4:5" ht="13">
       <c r="E50" s="27"/>
     </row>
-    <row r="51" spans="4:5" ht="12.75">
+    <row r="51" spans="4:5" ht="13">
       <c r="E51" s="27"/>
     </row>
-    <row r="52" spans="4:5" ht="12.75">
+    <row r="52" spans="4:5" ht="13">
       <c r="E52" s="27"/>
     </row>
-    <row r="53" spans="4:5" ht="12.75">
+    <row r="53" spans="4:5" ht="13">
       <c r="E53" s="27"/>
     </row>
-    <row r="54" spans="4:5" ht="12.75">
+    <row r="54" spans="4:5" ht="13">
       <c r="D54" s="16"/>
       <c r="E54" s="27"/>
     </row>
-    <row r="55" spans="4:5" ht="12.75">
+    <row r="55" spans="4:5" ht="13">
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="4:5" ht="12.75">
+    <row r="56" spans="4:5" ht="13">
       <c r="E56" s="27"/>
     </row>
-    <row r="57" spans="4:5" ht="12.75">
+    <row r="57" spans="4:5" ht="13">
       <c r="E57" s="27"/>
     </row>
-    <row r="58" spans="4:5" ht="12.75">
+    <row r="58" spans="4:5" ht="13">
       <c r="E58" s="27"/>
     </row>
-    <row r="59" spans="4:5" ht="12.75">
+    <row r="59" spans="4:5" ht="13">
       <c r="E59" s="27"/>
     </row>
-    <row r="60" spans="4:5" ht="12.75">
+    <row r="60" spans="4:5" ht="13">
       <c r="E60" s="27"/>
     </row>
-    <row r="61" spans="4:5" ht="12.75">
+    <row r="61" spans="4:5" ht="13">
       <c r="E61" s="27"/>
     </row>
-    <row r="62" spans="4:5" ht="12.75">
+    <row r="62" spans="4:5" ht="13">
       <c r="E62" s="27"/>
     </row>
-    <row r="63" spans="4:5" ht="12.75">
+    <row r="63" spans="4:5" ht="13">
       <c r="E63" s="27"/>
     </row>
-    <row r="64" spans="4:5" ht="12.75">
+    <row r="64" spans="4:5" ht="13">
       <c r="E64" s="27"/>
     </row>
-    <row r="65" spans="5:5" ht="12.75">
+    <row r="65" spans="5:5" ht="13">
       <c r="E65" s="27"/>
     </row>
-    <row r="66" spans="5:5" ht="12.75">
+    <row r="66" spans="5:5" ht="13">
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="5:5" ht="12.75">
+    <row r="67" spans="5:5" ht="13">
       <c r="E67" s="27"/>
     </row>
-    <row r="68" spans="5:5" ht="12.75">
+    <row r="68" spans="5:5" ht="13">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="5:5" ht="12.75">
+    <row r="69" spans="5:5" ht="13">
       <c r="E69" s="27"/>
     </row>
-    <row r="70" spans="5:5" ht="12.75">
+    <row r="70" spans="5:5" ht="13">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="5:5" ht="12.75">
+    <row r="71" spans="5:5" ht="13">
       <c r="E71" s="27"/>
     </row>
-    <row r="72" spans="5:5" ht="12.75">
+    <row r="72" spans="5:5" ht="13">
       <c r="E72" s="27"/>
     </row>
-    <row r="73" spans="5:5" ht="12.75">
+    <row r="73" spans="5:5" ht="13">
       <c r="E73" s="27"/>
     </row>
-    <row r="74" spans="5:5" ht="12.75">
+    <row r="74" spans="5:5" ht="13">
       <c r="E74" s="27"/>
     </row>
-    <row r="75" spans="5:5" ht="12.75">
+    <row r="75" spans="5:5" ht="13">
       <c r="E75" s="27"/>
     </row>
-    <row r="76" spans="5:5" ht="12.75">
+    <row r="76" spans="5:5" ht="13">
       <c r="E76" s="27"/>
     </row>
-    <row r="77" spans="5:5" ht="12.75">
+    <row r="77" spans="5:5" ht="13">
       <c r="E77" s="27"/>
     </row>
-    <row r="78" spans="5:5" ht="12.75">
+    <row r="78" spans="5:5" ht="13">
       <c r="E78" s="27"/>
     </row>
-    <row r="79" spans="5:5" ht="12.75">
+    <row r="79" spans="5:5" ht="13">
       <c r="E79" s="27"/>
     </row>
-    <row r="80" spans="5:5" ht="12.75">
+    <row r="80" spans="5:5" ht="13">
       <c r="E80" s="27"/>
     </row>
-    <row r="81" spans="5:5" ht="12.75">
+    <row r="81" spans="5:5" ht="13">
       <c r="E81" s="27"/>
     </row>
-    <row r="82" spans="5:5" ht="12.75">
+    <row r="82" spans="5:5" ht="13">
       <c r="E82" s="27"/>
     </row>
-    <row r="83" spans="5:5" ht="12.75">
+    <row r="83" spans="5:5" ht="13">
       <c r="E83" s="27"/>
     </row>
-    <row r="84" spans="5:5" ht="12.75">
+    <row r="84" spans="5:5" ht="13">
       <c r="E84" s="27"/>
     </row>
-    <row r="85" spans="5:5" ht="12.75">
+    <row r="85" spans="5:5" ht="13">
       <c r="E85" s="27"/>
     </row>
-    <row r="86" spans="5:5" ht="12.75">
+    <row r="86" spans="5:5" ht="13">
       <c r="E86" s="27"/>
     </row>
-    <row r="87" spans="5:5" ht="12.75">
+    <row r="87" spans="5:5" ht="13">
       <c r="E87" s="27"/>
     </row>
-    <row r="88" spans="5:5" ht="12.75">
+    <row r="88" spans="5:5" ht="13">
       <c r="E88" s="27"/>
     </row>
-    <row r="89" spans="5:5" ht="12.75">
+    <row r="89" spans="5:5" ht="13">
       <c r="E89" s="27"/>
     </row>
-    <row r="90" spans="5:5" ht="12.75">
+    <row r="90" spans="5:5" ht="13">
       <c r="E90" s="27"/>
     </row>
-    <row r="91" spans="5:5" ht="12.75">
+    <row r="91" spans="5:5" ht="13">
       <c r="E91" s="27"/>
     </row>
-    <row r="92" spans="5:5" ht="12.75">
+    <row r="92" spans="5:5" ht="13">
       <c r="E92" s="27"/>
     </row>
-    <row r="93" spans="5:5" ht="12.75">
+    <row r="93" spans="5:5" ht="13">
       <c r="E93" s="27"/>
     </row>
-    <row r="94" spans="5:5" ht="12.75">
+    <row r="94" spans="5:5" ht="13">
       <c r="E94" s="27"/>
     </row>
-    <row r="95" spans="5:5" ht="12.75">
+    <row r="95" spans="5:5" ht="13">
       <c r="E95" s="27"/>
     </row>
-    <row r="96" spans="5:5" ht="12.75">
+    <row r="96" spans="5:5" ht="13">
       <c r="E96" s="27"/>
     </row>
-    <row r="97" spans="5:5" ht="12.75">
+    <row r="97" spans="5:5" ht="13">
       <c r="E97" s="27"/>
     </row>
-    <row r="98" spans="5:5" ht="12.75">
+    <row r="98" spans="5:5" ht="13">
       <c r="E98" s="27"/>
     </row>
-    <row r="99" spans="5:5" ht="12.75">
+    <row r="99" spans="5:5" ht="13">
       <c r="E99" s="27"/>
     </row>
-    <row r="100" spans="5:5" ht="12.75">
+    <row r="100" spans="5:5" ht="13">
       <c r="E100" s="27"/>
     </row>
-    <row r="101" spans="5:5" ht="12.75">
+    <row r="101" spans="5:5" ht="13">
       <c r="E101" s="27"/>
     </row>
-    <row r="102" spans="5:5" ht="12.75">
+    <row r="102" spans="5:5" ht="13">
       <c r="E102" s="27"/>
     </row>
-    <row r="103" spans="5:5" ht="12.75">
+    <row r="103" spans="5:5" ht="13">
       <c r="E103" s="27"/>
     </row>
-    <row r="104" spans="5:5" ht="12.75">
+    <row r="104" spans="5:5" ht="13">
       <c r="E104" s="27"/>
     </row>
-    <row r="105" spans="5:5" ht="12.75">
+    <row r="105" spans="5:5" ht="13">
       <c r="E105" s="27"/>
     </row>
-    <row r="106" spans="5:5" ht="12.75">
+    <row r="106" spans="5:5" ht="13">
       <c r="E106" s="27"/>
     </row>
-    <row r="107" spans="5:5" ht="12.75">
+    <row r="107" spans="5:5" ht="13">
       <c r="E107" s="27"/>
     </row>
-    <row r="108" spans="5:5" ht="12.75">
+    <row r="108" spans="5:5" ht="13">
       <c r="E108" s="27"/>
     </row>
-    <row r="109" spans="5:5" ht="12.75">
+    <row r="109" spans="5:5" ht="13">
       <c r="E109" s="27"/>
     </row>
-    <row r="110" spans="5:5" ht="12.75">
+    <row r="110" spans="5:5" ht="13">
       <c r="E110" s="27"/>
     </row>
-    <row r="111" spans="5:5" ht="12.75">
+    <row r="111" spans="5:5" ht="13">
       <c r="E111" s="27"/>
     </row>
-    <row r="112" spans="5:5" ht="12.75">
+    <row r="112" spans="5:5" ht="13">
       <c r="E112" s="27"/>
     </row>
-    <row r="113" spans="5:5" ht="12.75">
+    <row r="113" spans="5:5" ht="13">
       <c r="E113" s="27"/>
     </row>
-    <row r="114" spans="5:5" ht="12.75">
+    <row r="114" spans="5:5" ht="13">
       <c r="E114" s="27"/>
     </row>
-    <row r="115" spans="5:5" ht="12.75">
+    <row r="115" spans="5:5" ht="13">
       <c r="E115" s="27"/>
     </row>
-    <row r="116" spans="5:5" ht="12.75">
+    <row r="116" spans="5:5" ht="13">
       <c r="E116" s="27"/>
     </row>
-    <row r="117" spans="5:5" ht="12.75">
+    <row r="117" spans="5:5" ht="13">
       <c r="E117" s="27"/>
     </row>
-    <row r="118" spans="5:5" ht="12.75">
+    <row r="118" spans="5:5" ht="13">
       <c r="E118" s="27"/>
     </row>
-    <row r="119" spans="5:5" ht="12.75">
+    <row r="119" spans="5:5" ht="13">
       <c r="E119" s="27"/>
     </row>
-    <row r="120" spans="5:5" ht="12.75">
+    <row r="120" spans="5:5" ht="13">
       <c r="E120" s="27"/>
     </row>
-    <row r="121" spans="5:5" ht="12.75">
+    <row r="121" spans="5:5" ht="13">
       <c r="E121" s="27"/>
     </row>
-    <row r="122" spans="5:5" ht="12.75">
+    <row r="122" spans="5:5" ht="13">
       <c r="E122" s="27"/>
     </row>
-    <row r="123" spans="5:5" ht="12.75">
+    <row r="123" spans="5:5" ht="13">
       <c r="E123" s="27"/>
     </row>
-    <row r="124" spans="5:5" ht="12.75">
+    <row r="124" spans="5:5" ht="13">
       <c r="E124" s="27"/>
     </row>
-    <row r="125" spans="5:5" ht="12.75">
+    <row r="125" spans="5:5" ht="13">
       <c r="E125" s="27"/>
     </row>
-    <row r="126" spans="5:5" ht="12.75">
+    <row r="126" spans="5:5" ht="13">
       <c r="E126" s="27"/>
     </row>
-    <row r="127" spans="5:5" ht="12.75">
+    <row r="127" spans="5:5" ht="13">
       <c r="E127" s="27"/>
     </row>
-    <row r="128" spans="5:5" ht="12.75">
+    <row r="128" spans="5:5" ht="13">
       <c r="E128" s="27"/>
     </row>
-    <row r="129" spans="5:5" ht="12.75">
+    <row r="129" spans="5:5" ht="13">
       <c r="E129" s="27"/>
     </row>
-    <row r="130" spans="5:5" ht="12.75">
+    <row r="130" spans="5:5" ht="13">
       <c r="E130" s="27"/>
     </row>
-    <row r="131" spans="5:5" ht="12.75">
+    <row r="131" spans="5:5" ht="13">
       <c r="E131" s="27"/>
     </row>
-    <row r="132" spans="5:5" ht="12.75">
+    <row r="132" spans="5:5" ht="13">
       <c r="E132" s="27"/>
     </row>
-    <row r="133" spans="5:5" ht="12.75">
+    <row r="133" spans="5:5" ht="13">
       <c r="E133" s="27"/>
     </row>
-    <row r="134" spans="5:5" ht="12.75">
+    <row r="134" spans="5:5" ht="13">
       <c r="E134" s="27"/>
     </row>
-    <row r="135" spans="5:5" ht="12.75">
+    <row r="135" spans="5:5" ht="13">
       <c r="E135" s="27"/>
     </row>
-    <row r="136" spans="5:5" ht="12.75">
+    <row r="136" spans="5:5" ht="13">
       <c r="E136" s="27"/>
     </row>
-    <row r="137" spans="5:5" ht="12.75">
+    <row r="137" spans="5:5" ht="13">
       <c r="E137" s="27"/>
     </row>
-    <row r="138" spans="5:5" ht="12.75">
+    <row r="138" spans="5:5" ht="13">
       <c r="E138" s="27"/>
     </row>
-    <row r="139" spans="5:5" ht="12.75">
+    <row r="139" spans="5:5" ht="13">
       <c r="E139" s="27"/>
     </row>
-    <row r="140" spans="5:5" ht="12.75">
+    <row r="140" spans="5:5" ht="13">
       <c r="E140" s="27"/>
     </row>
-    <row r="141" spans="5:5" ht="12.75">
+    <row r="141" spans="5:5" ht="13">
       <c r="E141" s="27"/>
     </row>
-    <row r="142" spans="5:5" ht="12.75">
+    <row r="142" spans="5:5" ht="13">
       <c r="E142" s="27"/>
     </row>
-    <row r="143" spans="5:5" ht="12.75">
+    <row r="143" spans="5:5" ht="13">
       <c r="E143" s="27"/>
     </row>
-    <row r="144" spans="5:5" ht="12.75">
+    <row r="144" spans="5:5" ht="13">
       <c r="E144" s="27"/>
     </row>
-    <row r="145" spans="5:5" ht="12.75">
+    <row r="145" spans="5:5" ht="13">
       <c r="E145" s="27"/>
     </row>
-    <row r="146" spans="5:5" ht="12.75">
+    <row r="146" spans="5:5" ht="13">
       <c r="E146" s="27"/>
     </row>
-    <row r="147" spans="5:5" ht="12.75">
+    <row r="147" spans="5:5" ht="13">
       <c r="E147" s="27"/>
     </row>
-    <row r="148" spans="5:5" ht="12.75">
+    <row r="148" spans="5:5" ht="13">
       <c r="E148" s="27"/>
     </row>
-    <row r="149" spans="5:5" ht="12.75">
+    <row r="149" spans="5:5" ht="13">
       <c r="E149" s="27"/>
     </row>
-    <row r="150" spans="5:5" ht="12.75">
+    <row r="150" spans="5:5" ht="13">
       <c r="E150" s="27"/>
     </row>
-    <row r="151" spans="5:5" ht="12.75">
+    <row r="151" spans="5:5" ht="13">
       <c r="E151" s="27"/>
     </row>
-    <row r="152" spans="5:5" ht="12.75">
+    <row r="152" spans="5:5" ht="13">
       <c r="E152" s="27"/>
     </row>
-    <row r="153" spans="5:5" ht="12.75">
+    <row r="153" spans="5:5" ht="13">
       <c r="E153" s="27"/>
     </row>
-    <row r="154" spans="5:5" ht="12.75">
+    <row r="154" spans="5:5" ht="13">
       <c r="E154" s="27"/>
     </row>
-    <row r="155" spans="5:5" ht="12.75">
+    <row r="155" spans="5:5" ht="13">
       <c r="E155" s="27"/>
     </row>
-    <row r="156" spans="5:5" ht="12.75">
+    <row r="156" spans="5:5" ht="13">
       <c r="E156" s="27"/>
     </row>
-    <row r="157" spans="5:5" ht="12.75">
+    <row r="157" spans="5:5" ht="13">
       <c r="E157" s="27"/>
     </row>
-    <row r="158" spans="5:5" ht="12.75">
+    <row r="158" spans="5:5" ht="13">
       <c r="E158" s="27"/>
     </row>
-    <row r="159" spans="5:5" ht="12.75">
+    <row r="159" spans="5:5" ht="13">
       <c r="E159" s="27"/>
     </row>
-    <row r="160" spans="5:5" ht="12.75">
+    <row r="160" spans="5:5" ht="13">
       <c r="E160" s="27"/>
     </row>
-    <row r="161" spans="5:5" ht="12.75">
+    <row r="161" spans="5:5" ht="13">
       <c r="E161" s="27"/>
     </row>
-    <row r="162" spans="5:5" ht="12.75">
+    <row r="162" spans="5:5" ht="13">
       <c r="E162" s="27"/>
     </row>
-    <row r="163" spans="5:5" ht="12.75">
+    <row r="163" spans="5:5" ht="13">
       <c r="E163" s="27"/>
     </row>
-    <row r="164" spans="5:5" ht="12.75">
+    <row r="164" spans="5:5" ht="13">
       <c r="E164" s="27"/>
     </row>
-    <row r="165" spans="5:5" ht="12.75">
+    <row r="165" spans="5:5" ht="13">
       <c r="E165" s="27"/>
     </row>
-    <row r="166" spans="5:5" ht="12.75">
+    <row r="166" spans="5:5" ht="13">
       <c r="E166" s="27"/>
     </row>
-    <row r="167" spans="5:5" ht="12.75">
+    <row r="167" spans="5:5" ht="13">
       <c r="E167" s="27"/>
     </row>
-    <row r="168" spans="5:5" ht="12.75">
+    <row r="168" spans="5:5" ht="13">
       <c r="E168" s="27"/>
     </row>
-    <row r="169" spans="5:5" ht="12.75">
+    <row r="169" spans="5:5" ht="13">
       <c r="E169" s="27"/>
     </row>
-    <row r="170" spans="5:5" ht="12.75">
+    <row r="170" spans="5:5" ht="13">
       <c r="E170" s="27"/>
     </row>
-    <row r="171" spans="5:5" ht="12.75">
+    <row r="171" spans="5:5" ht="13">
       <c r="E171" s="27"/>
     </row>
-    <row r="172" spans="5:5" ht="12.75">
+    <row r="172" spans="5:5" ht="13">
       <c r="E172" s="27"/>
     </row>
-    <row r="173" spans="5:5" ht="12.75">
+    <row r="173" spans="5:5" ht="13">
       <c r="E173" s="27"/>
     </row>
-    <row r="174" spans="5:5" ht="12.75">
+    <row r="174" spans="5:5" ht="13">
       <c r="E174" s="27"/>
     </row>
-    <row r="175" spans="5:5" ht="12.75">
+    <row r="175" spans="5:5" ht="13">
       <c r="E175" s="27"/>
     </row>
-    <row r="176" spans="5:5" ht="12.75">
+    <row r="176" spans="5:5" ht="13">
       <c r="E176" s="27"/>
     </row>
-    <row r="177" spans="5:5" ht="12.75">
+    <row r="177" spans="5:5" ht="13">
       <c r="E177" s="27"/>
     </row>
-    <row r="178" spans="5:5" ht="12.75">
+    <row r="178" spans="5:5" ht="13">
       <c r="E178" s="27"/>
     </row>
-    <row r="179" spans="5:5" ht="12.75">
+    <row r="179" spans="5:5" ht="13">
       <c r="E179" s="27"/>
     </row>
-    <row r="180" spans="5:5" ht="12.75">
+    <row r="180" spans="5:5" ht="13">
       <c r="E180" s="27"/>
     </row>
-    <row r="181" spans="5:5" ht="12.75">
+    <row r="181" spans="5:5" ht="13">
       <c r="E181" s="27"/>
     </row>
-    <row r="182" spans="5:5" ht="12.75">
+    <row r="182" spans="5:5" ht="13">
       <c r="E182" s="27"/>
     </row>
-    <row r="183" spans="5:5" ht="12.75">
+    <row r="183" spans="5:5" ht="13">
       <c r="E183" s="27"/>
     </row>
-    <row r="184" spans="5:5" ht="12.75">
+    <row r="184" spans="5:5" ht="13">
       <c r="E184" s="27"/>
     </row>
-    <row r="185" spans="5:5" ht="12.75">
+    <row r="185" spans="5:5" ht="13">
       <c r="E185" s="27"/>
     </row>
-    <row r="186" spans="5:5" ht="12.75">
+    <row r="186" spans="5:5" ht="13">
       <c r="E186" s="27"/>
     </row>
-    <row r="187" spans="5:5" ht="12.75">
+    <row r="187" spans="5:5" ht="13">
       <c r="E187" s="27"/>
     </row>
-    <row r="188" spans="5:5" ht="12.75">
+    <row r="188" spans="5:5" ht="13">
       <c r="E188" s="27"/>
     </row>
-    <row r="189" spans="5:5" ht="12.75">
+    <row r="189" spans="5:5" ht="13">
       <c r="E189" s="27"/>
     </row>
-    <row r="190" spans="5:5" ht="12.75">
+    <row r="190" spans="5:5" ht="13">
       <c r="E190" s="27"/>
     </row>
-    <row r="191" spans="5:5" ht="12.75">
+    <row r="191" spans="5:5" ht="13">
       <c r="E191" s="27"/>
     </row>
-    <row r="192" spans="5:5" ht="12.75">
+    <row r="192" spans="5:5" ht="13">
       <c r="E192" s="27"/>
     </row>
-    <row r="193" spans="5:5" ht="12.75">
+    <row r="193" spans="5:5" ht="13">
       <c r="E193" s="27"/>
     </row>
-    <row r="194" spans="5:5" ht="12.75">
+    <row r="194" spans="5:5" ht="13">
       <c r="E194" s="27"/>
     </row>
-    <row r="195" spans="5:5" ht="12.75">
+    <row r="195" spans="5:5" ht="13">
       <c r="E195" s="27"/>
     </row>
-    <row r="196" spans="5:5" ht="12.75">
+    <row r="196" spans="5:5" ht="13">
       <c r="E196" s="27"/>
     </row>
-    <row r="197" spans="5:5" ht="12.75">
+    <row r="197" spans="5:5" ht="13">
       <c r="E197" s="27"/>
     </row>
-    <row r="198" spans="5:5" ht="12.75">
+    <row r="198" spans="5:5" ht="13">
       <c r="E198" s="27"/>
     </row>
-    <row r="199" spans="5:5" ht="12.75">
+    <row r="199" spans="5:5" ht="13">
       <c r="E199" s="27"/>
     </row>
-    <row r="200" spans="5:5" ht="12.75">
+    <row r="200" spans="5:5" ht="13">
       <c r="E200" s="27"/>
     </row>
-    <row r="201" spans="5:5" ht="12.75">
+    <row r="201" spans="5:5" ht="13">
       <c r="E201" s="27"/>
     </row>
-    <row r="202" spans="5:5" ht="12.75">
+    <row r="202" spans="5:5" ht="13">
       <c r="E202" s="27"/>
     </row>
-    <row r="203" spans="5:5" ht="12.75">
+    <row r="203" spans="5:5" ht="13">
       <c r="E203" s="27"/>
     </row>
-    <row r="204" spans="5:5" ht="12.75">
+    <row r="204" spans="5:5" ht="13">
       <c r="E204" s="27"/>
     </row>
-    <row r="205" spans="5:5" ht="12.75">
+    <row r="205" spans="5:5" ht="13">
       <c r="E205" s="27"/>
     </row>
-    <row r="206" spans="5:5" ht="12.75">
+    <row r="206" spans="5:5" ht="13">
       <c r="E206" s="27"/>
     </row>
-    <row r="207" spans="5:5" ht="12.75">
+    <row r="207" spans="5:5" ht="13">
       <c r="E207" s="27"/>
     </row>
-    <row r="208" spans="5:5" ht="12.75">
+    <row r="208" spans="5:5" ht="13">
       <c r="E208" s="27"/>
     </row>
-    <row r="209" spans="5:5" ht="12.75">
+    <row r="209" spans="5:5" ht="13">
       <c r="E209" s="27"/>
     </row>
-    <row r="210" spans="5:5" ht="12.75">
+    <row r="210" spans="5:5" ht="13">
       <c r="E210" s="27"/>
     </row>
-    <row r="211" spans="5:5" ht="12.75">
+    <row r="211" spans="5:5" ht="13">
       <c r="E211" s="27"/>
     </row>
-    <row r="212" spans="5:5" ht="12.75">
+    <row r="212" spans="5:5" ht="13">
       <c r="E212" s="27"/>
     </row>
-    <row r="213" spans="5:5" ht="12.75">
+    <row r="213" spans="5:5" ht="13">
       <c r="E213" s="27"/>
     </row>
-    <row r="214" spans="5:5" ht="12.75">
+    <row r="214" spans="5:5" ht="13">
       <c r="E214" s="27"/>
     </row>
-    <row r="215" spans="5:5" ht="12.75">
+    <row r="215" spans="5:5" ht="13">
       <c r="E215" s="27"/>
     </row>
-    <row r="216" spans="5:5" ht="12.75">
+    <row r="216" spans="5:5" ht="13">
       <c r="E216" s="27"/>
     </row>
-    <row r="217" spans="5:5" ht="12.75">
+    <row r="217" spans="5:5" ht="13">
       <c r="E217" s="27"/>
     </row>
-    <row r="218" spans="5:5" ht="12.75">
+    <row r="218" spans="5:5" ht="13">
       <c r="E218" s="27"/>
     </row>
-    <row r="219" spans="5:5" ht="12.75">
+    <row r="219" spans="5:5" ht="13">
       <c r="E219" s="27"/>
     </row>
-    <row r="220" spans="5:5" ht="12.75">
+    <row r="220" spans="5:5" ht="13">
       <c r="E220" s="27"/>
     </row>
-    <row r="221" spans="5:5" ht="12.75">
+    <row r="221" spans="5:5" ht="13">
       <c r="E221" s="27"/>
     </row>
-    <row r="222" spans="5:5" ht="12.75">
+    <row r="222" spans="5:5" ht="13">
       <c r="E222" s="27"/>
     </row>
-    <row r="223" spans="5:5" ht="12.75">
+    <row r="223" spans="5:5" ht="13">
       <c r="E223" s="27"/>
     </row>
-    <row r="224" spans="5:5" ht="12.75">
+    <row r="224" spans="5:5" ht="13">
       <c r="E224" s="27"/>
     </row>
-    <row r="225" spans="5:5" ht="12.75">
+    <row r="225" spans="5:5" ht="13">
       <c r="E225" s="27"/>
     </row>
-    <row r="226" spans="5:5" ht="12.75">
+    <row r="226" spans="5:5" ht="13">
       <c r="E226" s="27"/>
     </row>
-    <row r="227" spans="5:5" ht="12.75">
+    <row r="227" spans="5:5" ht="13">
       <c r="E227" s="27"/>
     </row>
-    <row r="228" spans="5:5" ht="12.75">
+    <row r="228" spans="5:5" ht="13">
       <c r="E228" s="27"/>
     </row>
-    <row r="229" spans="5:5" ht="12.75">
+    <row r="229" spans="5:5" ht="13">
       <c r="E229" s="27"/>
     </row>
-    <row r="230" spans="5:5" ht="12.75">
+    <row r="230" spans="5:5" ht="13">
       <c r="E230" s="27"/>
     </row>
-    <row r="231" spans="5:5" ht="12.75">
+    <row r="231" spans="5:5" ht="13">
       <c r="E231" s="27"/>
     </row>
-    <row r="232" spans="5:5" ht="12.75">
+    <row r="232" spans="5:5" ht="13">
       <c r="E232" s="27"/>
     </row>
-    <row r="233" spans="5:5" ht="12.75">
+    <row r="233" spans="5:5" ht="13">
       <c r="E233" s="27"/>
     </row>
-    <row r="234" spans="5:5" ht="12.75">
+    <row r="234" spans="5:5" ht="13">
       <c r="E234" s="27"/>
     </row>
-    <row r="235" spans="5:5" ht="12.75">
+    <row r="235" spans="5:5" ht="13">
       <c r="E235" s="27"/>
     </row>
-    <row r="236" spans="5:5" ht="12.75">
+    <row r="236" spans="5:5" ht="13">
       <c r="E236" s="27"/>
     </row>
-    <row r="237" spans="5:5" ht="12.75">
+    <row r="237" spans="5:5" ht="13">
       <c r="E237" s="27"/>
     </row>
-    <row r="238" spans="5:5" ht="12.75">
+    <row r="238" spans="5:5" ht="13">
       <c r="E238" s="27"/>
     </row>
-    <row r="239" spans="5:5" ht="12.75">
+    <row r="239" spans="5:5" ht="13">
       <c r="E239" s="27"/>
     </row>
-    <row r="240" spans="5:5" ht="12.75">
+    <row r="240" spans="5:5" ht="13">
       <c r="E240" s="27"/>
     </row>
-    <row r="241" spans="5:5" ht="12.75">
+    <row r="241" spans="5:5" ht="13">
       <c r="E241" s="27"/>
     </row>
-    <row r="242" spans="5:5" ht="12.75">
+    <row r="242" spans="5:5" ht="13">
       <c r="E242" s="27"/>
     </row>
-    <row r="243" spans="5:5" ht="12.75">
+    <row r="243" spans="5:5" ht="13">
       <c r="E243" s="27"/>
     </row>
-    <row r="244" spans="5:5" ht="12.75">
+    <row r="244" spans="5:5" ht="13">
       <c r="E244" s="27"/>
     </row>
-    <row r="245" spans="5:5" ht="12.75">
+    <row r="245" spans="5:5" ht="13">
       <c r="E245" s="27"/>
     </row>
-    <row r="246" spans="5:5" ht="12.75">
+    <row r="246" spans="5:5" ht="13">
       <c r="E246" s="27"/>
     </row>
-    <row r="247" spans="5:5" ht="12.75">
+    <row r="247" spans="5:5" ht="13">
       <c r="E247" s="27"/>
     </row>
-    <row r="248" spans="5:5" ht="12.75">
+    <row r="248" spans="5:5" ht="13">
       <c r="E248" s="27"/>
     </row>
-    <row r="249" spans="5:5" ht="12.75">
+    <row r="249" spans="5:5" ht="13">
       <c r="E249" s="27"/>
     </row>
-    <row r="250" spans="5:5" ht="12.75">
+    <row r="250" spans="5:5" ht="13">
       <c r="E250" s="27"/>
     </row>
-    <row r="251" spans="5:5" ht="12.75">
+    <row r="251" spans="5:5" ht="13">
       <c r="E251" s="27"/>
     </row>
-    <row r="252" spans="5:5" ht="12.75">
+    <row r="252" spans="5:5" ht="13">
       <c r="E252" s="27"/>
     </row>
-    <row r="253" spans="5:5" ht="12.75">
+    <row r="253" spans="5:5" ht="13">
       <c r="E253" s="27"/>
     </row>
-    <row r="254" spans="5:5" ht="12.75">
+    <row r="254" spans="5:5" ht="13">
       <c r="E254" s="27"/>
     </row>
-    <row r="255" spans="5:5" ht="12.75">
+    <row r="255" spans="5:5" ht="13">
       <c r="E255" s="27"/>
     </row>
-    <row r="256" spans="5:5" ht="12.75">
+    <row r="256" spans="5:5" ht="13">
       <c r="E256" s="27"/>
     </row>
-    <row r="257" spans="5:5" ht="12.75">
+    <row r="257" spans="5:5" ht="13">
       <c r="E257" s="27"/>
     </row>
-    <row r="258" spans="5:5" ht="12.75">
+    <row r="258" spans="5:5" ht="13">
       <c r="E258" s="27"/>
     </row>
-    <row r="259" spans="5:5" ht="12.75">
+    <row r="259" spans="5:5" ht="13">
       <c r="E259" s="27"/>
     </row>
-    <row r="260" spans="5:5" ht="12.75">
+    <row r="260" spans="5:5" ht="13">
       <c r="E260" s="27"/>
     </row>
-    <row r="261" spans="5:5" ht="12.75">
+    <row r="261" spans="5:5" ht="13">
       <c r="E261" s="27"/>
     </row>
-    <row r="262" spans="5:5" ht="12.75">
+    <row r="262" spans="5:5" ht="13">
       <c r="E262" s="27"/>
     </row>
-    <row r="263" spans="5:5" ht="12.75">
+    <row r="263" spans="5:5" ht="13">
       <c r="E263" s="27"/>
     </row>
-    <row r="264" spans="5:5" ht="12.75">
+    <row r="264" spans="5:5" ht="13">
       <c r="E264" s="27"/>
     </row>
-    <row r="265" spans="5:5" ht="12.75">
+    <row r="265" spans="5:5" ht="13">
       <c r="E265" s="27"/>
     </row>
-    <row r="266" spans="5:5" ht="12.75">
+    <row r="266" spans="5:5" ht="13">
       <c r="E266" s="27"/>
     </row>
-    <row r="267" spans="5:5" ht="12.75">
+    <row r="267" spans="5:5" ht="13">
       <c r="E267" s="27"/>
     </row>
-    <row r="268" spans="5:5" ht="12.75">
+    <row r="268" spans="5:5" ht="13">
       <c r="E268" s="27"/>
     </row>
-    <row r="269" spans="5:5" ht="12.75">
+    <row r="269" spans="5:5" ht="13">
       <c r="E269" s="27"/>
     </row>
-    <row r="270" spans="5:5" ht="12.75">
+    <row r="270" spans="5:5" ht="13">
       <c r="E270" s="27"/>
     </row>
-    <row r="271" spans="5:5" ht="12.75">
+    <row r="271" spans="5:5" ht="13">
       <c r="E271" s="27"/>
     </row>
-    <row r="272" spans="5:5" ht="12.75">
+    <row r="272" spans="5:5" ht="13">
       <c r="E272" s="27"/>
     </row>
-    <row r="273" spans="5:5" ht="12.75">
+    <row r="273" spans="5:5" ht="13">
       <c r="E273" s="27"/>
     </row>
-    <row r="274" spans="5:5" ht="12.75">
+    <row r="274" spans="5:5" ht="13">
       <c r="E274" s="27"/>
     </row>
-    <row r="275" spans="5:5" ht="12.75">
+    <row r="275" spans="5:5" ht="13">
       <c r="E275" s="27"/>
     </row>
-    <row r="276" spans="5:5" ht="12.75">
+    <row r="276" spans="5:5" ht="13">
       <c r="E276" s="27"/>
     </row>
-    <row r="277" spans="5:5" ht="12.75">
+    <row r="277" spans="5:5" ht="13">
       <c r="E277" s="27"/>
     </row>
-    <row r="278" spans="5:5" ht="12.75">
+    <row r="278" spans="5:5" ht="13">
       <c r="E278" s="27"/>
     </row>
-    <row r="279" spans="5:5" ht="12.75">
+    <row r="279" spans="5:5" ht="13">
       <c r="E279" s="27"/>
     </row>
-    <row r="280" spans="5:5" ht="12.75">
+    <row r="280" spans="5:5" ht="13">
       <c r="E280" s="27"/>
     </row>
-    <row r="281" spans="5:5" ht="12.75">
+    <row r="281" spans="5:5" ht="13">
       <c r="E281" s="27"/>
     </row>
-    <row r="282" spans="5:5" ht="12.75">
+    <row r="282" spans="5:5" ht="13">
       <c r="E282" s="27"/>
     </row>
-    <row r="283" spans="5:5" ht="12.75">
+    <row r="283" spans="5:5" ht="13">
       <c r="E283" s="27"/>
     </row>
-    <row r="284" spans="5:5" ht="12.75">
+    <row r="284" spans="5:5" ht="13">
       <c r="E284" s="27"/>
     </row>
-    <row r="285" spans="5:5" ht="12.75">
+    <row r="285" spans="5:5" ht="13">
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="5:5" ht="12.75">
+    <row r="286" spans="5:5" ht="13">
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="5:5" ht="12.75">
+    <row r="287" spans="5:5" ht="13">
       <c r="E287" s="27"/>
     </row>
-    <row r="288" spans="5:5" ht="12.75">
+    <row r="288" spans="5:5" ht="13">
       <c r="E288" s="27"/>
     </row>
-    <row r="289" spans="5:5" ht="12.75">
+    <row r="289" spans="5:5" ht="13">
       <c r="E289" s="27"/>
     </row>
-    <row r="290" spans="5:5" ht="12.75">
+    <row r="290" spans="5:5" ht="13">
       <c r="E290" s="27"/>
     </row>
-    <row r="291" spans="5:5" ht="12.75">
+    <row r="291" spans="5:5" ht="13">
       <c r="E291" s="27"/>
     </row>
-    <row r="292" spans="5:5" ht="12.75">
+    <row r="292" spans="5:5" ht="13">
       <c r="E292" s="27"/>
     </row>
-    <row r="293" spans="5:5" ht="12.75">
+    <row r="293" spans="5:5" ht="13">
       <c r="E293" s="27"/>
     </row>
-    <row r="294" spans="5:5" ht="12.75">
+    <row r="294" spans="5:5" ht="13">
       <c r="E294" s="27"/>
     </row>
-    <row r="295" spans="5:5" ht="12.75">
+    <row r="295" spans="5:5" ht="13">
       <c r="E295" s="27"/>
     </row>
-    <row r="296" spans="5:5" ht="12.75">
+    <row r="296" spans="5:5" ht="13">
       <c r="E296" s="27"/>
     </row>
-    <row r="297" spans="5:5" ht="12.75">
+    <row r="297" spans="5:5" ht="13">
       <c r="E297" s="27"/>
     </row>
-    <row r="298" spans="5:5" ht="12.75">
+    <row r="298" spans="5:5" ht="13">
       <c r="E298" s="27"/>
     </row>
-    <row r="299" spans="5:5" ht="12.75">
+    <row r="299" spans="5:5" ht="13">
       <c r="E299" s="27"/>
     </row>
-    <row r="300" spans="5:5" ht="12.75">
+    <row r="300" spans="5:5" ht="13">
       <c r="E300" s="27"/>
     </row>
-    <row r="301" spans="5:5" ht="12.75">
+    <row r="301" spans="5:5" ht="13">
       <c r="E301" s="27"/>
     </row>
-    <row r="302" spans="5:5" ht="12.75">
+    <row r="302" spans="5:5" ht="13">
       <c r="E302" s="27"/>
     </row>
-    <row r="303" spans="5:5" ht="12.75">
+    <row r="303" spans="5:5" ht="13">
       <c r="E303" s="27"/>
     </row>
-    <row r="304" spans="5:5" ht="12.75">
+    <row r="304" spans="5:5" ht="13">
       <c r="E304" s="27"/>
     </row>
-    <row r="305" spans="5:5" ht="12.75">
+    <row r="305" spans="5:5" ht="13">
       <c r="E305" s="27"/>
     </row>
-    <row r="306" spans="5:5" ht="12.75">
+    <row r="306" spans="5:5" ht="13">
       <c r="E306" s="27"/>
     </row>
-    <row r="307" spans="5:5" ht="12.75">
+    <row r="307" spans="5:5" ht="13">
       <c r="E307" s="27"/>
     </row>
-    <row r="308" spans="5:5" ht="12.75">
+    <row r="308" spans="5:5" ht="13">
       <c r="E308" s="27"/>
     </row>
-    <row r="309" spans="5:5" ht="12.75">
+    <row r="309" spans="5:5" ht="13">
       <c r="E309" s="27"/>
     </row>
-    <row r="310" spans="5:5" ht="12.75">
+    <row r="310" spans="5:5" ht="13">
       <c r="E310" s="27"/>
     </row>
-    <row r="311" spans="5:5" ht="12.75">
+    <row r="311" spans="5:5" ht="13">
       <c r="E311" s="27"/>
     </row>
-    <row r="312" spans="5:5" ht="12.75">
+    <row r="312" spans="5:5" ht="13">
       <c r="E312" s="27"/>
     </row>
-    <row r="313" spans="5:5" ht="12.75">
+    <row r="313" spans="5:5" ht="13">
       <c r="E313" s="27"/>
     </row>
-    <row r="314" spans="5:5" ht="12.75">
+    <row r="314" spans="5:5" ht="13">
       <c r="E314" s="27"/>
     </row>
-    <row r="315" spans="5:5" ht="12.75">
+    <row r="315" spans="5:5" ht="13">
       <c r="E315" s="27"/>
     </row>
-    <row r="316" spans="5:5" ht="12.75">
+    <row r="316" spans="5:5" ht="13">
       <c r="E316" s="27"/>
     </row>
-    <row r="317" spans="5:5" ht="12.75">
+    <row r="317" spans="5:5" ht="13">
       <c r="E317" s="27"/>
     </row>
-    <row r="318" spans="5:5" ht="12.75">
+    <row r="318" spans="5:5" ht="13">
       <c r="E318" s="27"/>
     </row>
-    <row r="319" spans="5:5" ht="12.75">
+    <row r="319" spans="5:5" ht="13">
       <c r="E319" s="27"/>
     </row>
-    <row r="320" spans="5:5" ht="12.75">
+    <row r="320" spans="5:5" ht="13">
       <c r="E320" s="27"/>
     </row>
-    <row r="321" spans="5:5" ht="12.75">
+    <row r="321" spans="5:5" ht="13">
       <c r="E321" s="27"/>
     </row>
-    <row r="322" spans="5:5" ht="12.75">
+    <row r="322" spans="5:5" ht="13">
       <c r="E322" s="27"/>
     </row>
-    <row r="323" spans="5:5" ht="12.75">
+    <row r="323" spans="5:5" ht="13">
       <c r="E323" s="27"/>
     </row>
-    <row r="324" spans="5:5" ht="12.75">
+    <row r="324" spans="5:5" ht="13">
       <c r="E324" s="27"/>
     </row>
-    <row r="325" spans="5:5" ht="12.75">
+    <row r="325" spans="5:5" ht="13">
       <c r="E325" s="27"/>
     </row>
-    <row r="326" spans="5:5" ht="12.75">
+    <row r="326" spans="5:5" ht="13">
       <c r="E326" s="27"/>
     </row>
-    <row r="327" spans="5:5" ht="12.75">
+    <row r="327" spans="5:5" ht="13">
       <c r="E327" s="27"/>
     </row>
-    <row r="328" spans="5:5" ht="12.75">
+    <row r="328" spans="5:5" ht="13">
       <c r="E328" s="27"/>
     </row>
-    <row r="329" spans="5:5" ht="12.75">
+    <row r="329" spans="5:5" ht="13">
       <c r="E329" s="27"/>
     </row>
-    <row r="330" spans="5:5" ht="12.75">
+    <row r="330" spans="5:5" ht="13">
       <c r="E330" s="27"/>
     </row>
-    <row r="331" spans="5:5" ht="12.75">
+    <row r="331" spans="5:5" ht="13">
       <c r="E331" s="27"/>
     </row>
-    <row r="332" spans="5:5" ht="12.75">
+    <row r="332" spans="5:5" ht="13">
       <c r="E332" s="27"/>
     </row>
-    <row r="333" spans="5:5" ht="12.75">
+    <row r="333" spans="5:5" ht="13">
       <c r="E333" s="27"/>
     </row>
-    <row r="334" spans="5:5" ht="12.75">
+    <row r="334" spans="5:5" ht="13">
       <c r="E334" s="27"/>
     </row>
-    <row r="335" spans="5:5" ht="12.75">
+    <row r="335" spans="5:5" ht="13">
       <c r="E335" s="27"/>
     </row>
-    <row r="336" spans="5:5" ht="12.75">
+    <row r="336" spans="5:5" ht="13">
       <c r="E336" s="27"/>
     </row>
-    <row r="337" spans="5:5" ht="12.75">
+    <row r="337" spans="5:5" ht="13">
       <c r="E337" s="27"/>
     </row>
-    <row r="338" spans="5:5" ht="12.75">
+    <row r="338" spans="5:5" ht="13">
       <c r="E338" s="27"/>
     </row>
-    <row r="339" spans="5:5" ht="12.75">
+    <row r="339" spans="5:5" ht="13">
       <c r="E339" s="27"/>
     </row>
-    <row r="340" spans="5:5" ht="12.75">
+    <row r="340" spans="5:5" ht="13">
       <c r="E340" s="27"/>
     </row>
-    <row r="341" spans="5:5" ht="12.75">
+    <row r="341" spans="5:5" ht="13">
       <c r="E341" s="27"/>
     </row>
-    <row r="342" spans="5:5" ht="12.75">
+    <row r="342" spans="5:5" ht="13">
       <c r="E342" s="27"/>
     </row>
-    <row r="343" spans="5:5" ht="12.75">
+    <row r="343" spans="5:5" ht="13">
       <c r="E343" s="27"/>
     </row>
-    <row r="344" spans="5:5" ht="12.75">
+    <row r="344" spans="5:5" ht="13">
       <c r="E344" s="27"/>
     </row>
-    <row r="345" spans="5:5" ht="12.75">
+    <row r="345" spans="5:5" ht="13">
       <c r="E345" s="27"/>
     </row>
-    <row r="346" spans="5:5" ht="12.75">
+    <row r="346" spans="5:5" ht="13">
       <c r="E346" s="27"/>
     </row>
-    <row r="347" spans="5:5" ht="12.75">
+    <row r="347" spans="5:5" ht="13">
       <c r="E347" s="27"/>
     </row>
-    <row r="348" spans="5:5" ht="12.75">
+    <row r="348" spans="5:5" ht="13">
       <c r="E348" s="27"/>
     </row>
-    <row r="349" spans="5:5" ht="12.75">
+    <row r="349" spans="5:5" ht="13">
       <c r="E349" s="27"/>
     </row>
-    <row r="350" spans="5:5" ht="12.75">
+    <row r="350" spans="5:5" ht="13">
       <c r="E350" s="27"/>
     </row>
-    <row r="351" spans="5:5" ht="12.75">
+    <row r="351" spans="5:5" ht="13">
       <c r="E351" s="27"/>
     </row>
-    <row r="352" spans="5:5" ht="12.75">
+    <row r="352" spans="5:5" ht="13">
       <c r="E352" s="27"/>
     </row>
-    <row r="353" spans="5:5" ht="12.75">
+    <row r="353" spans="5:5" ht="13">
       <c r="E353" s="27"/>
     </row>
-    <row r="354" spans="5:5" ht="12.75">
+    <row r="354" spans="5:5" ht="13">
       <c r="E354" s="27"/>
     </row>
-    <row r="355" spans="5:5" ht="12.75">
+    <row r="355" spans="5:5" ht="13">
       <c r="E355" s="27"/>
     </row>
-    <row r="356" spans="5:5" ht="12.75">
+    <row r="356" spans="5:5" ht="13">
       <c r="E356" s="27"/>
     </row>
-    <row r="357" spans="5:5" ht="12.75">
+    <row r="357" spans="5:5" ht="13">
       <c r="E357" s="27"/>
     </row>
-    <row r="358" spans="5:5" ht="12.75">
+    <row r="358" spans="5:5" ht="13">
       <c r="E358" s="27"/>
     </row>
-    <row r="359" spans="5:5" ht="12.75">
+    <row r="359" spans="5:5" ht="13">
       <c r="E359" s="27"/>
     </row>
-    <row r="360" spans="5:5" ht="12.75">
+    <row r="360" spans="5:5" ht="13">
       <c r="E360" s="27"/>
     </row>
-    <row r="361" spans="5:5" ht="12.75">
+    <row r="361" spans="5:5" ht="13">
       <c r="E361" s="27"/>
     </row>
-    <row r="362" spans="5:5" ht="12.75">
+    <row r="362" spans="5:5" ht="13">
       <c r="E362" s="27"/>
     </row>
-    <row r="363" spans="5:5" ht="12.75">
+    <row r="363" spans="5:5" ht="13">
       <c r="E363" s="27"/>
     </row>
-    <row r="364" spans="5:5" ht="12.75">
+    <row r="364" spans="5:5" ht="13">
       <c r="E364" s="27"/>
     </row>
-    <row r="365" spans="5:5" ht="12.75">
+    <row r="365" spans="5:5" ht="13">
       <c r="E365" s="27"/>
     </row>
-    <row r="366" spans="5:5" ht="12.75">
+    <row r="366" spans="5:5" ht="13">
       <c r="E366" s="27"/>
     </row>
-    <row r="367" spans="5:5" ht="12.75">
+    <row r="367" spans="5:5" ht="13">
       <c r="E367" s="27"/>
     </row>
-    <row r="368" spans="5:5" ht="12.75">
+    <row r="368" spans="5:5" ht="13">
       <c r="E368" s="27"/>
     </row>
-    <row r="369" spans="5:5" ht="12.75">
+    <row r="369" spans="5:5" ht="13">
       <c r="E369" s="27"/>
     </row>
-    <row r="370" spans="5:5" ht="12.75">
+    <row r="370" spans="5:5" ht="13">
       <c r="E370" s="27"/>
     </row>
-    <row r="371" spans="5:5" ht="12.75">
+    <row r="371" spans="5:5" ht="13">
       <c r="E371" s="27"/>
     </row>
-    <row r="372" spans="5:5" ht="12.75">
+    <row r="372" spans="5:5" ht="13">
       <c r="E372" s="27"/>
     </row>
-    <row r="373" spans="5:5" ht="12.75">
+    <row r="373" spans="5:5" ht="13">
       <c r="E373" s="27"/>
     </row>
-    <row r="374" spans="5:5" ht="12.75">
+    <row r="374" spans="5:5" ht="13">
       <c r="E374" s="27"/>
     </row>
-    <row r="375" spans="5:5" ht="12.75">
+    <row r="375" spans="5:5" ht="13">
       <c r="E375" s="27"/>
     </row>
-    <row r="376" spans="5:5" ht="12.75">
+    <row r="376" spans="5:5" ht="13">
       <c r="E376" s="27"/>
     </row>
-    <row r="377" spans="5:5" ht="12.75">
+    <row r="377" spans="5:5" ht="13">
       <c r="E377" s="27"/>
     </row>
-    <row r="378" spans="5:5" ht="12.75">
+    <row r="378" spans="5:5" ht="13">
       <c r="E378" s="27"/>
     </row>
-    <row r="379" spans="5:5" ht="12.75">
+    <row r="379" spans="5:5" ht="13">
       <c r="E379" s="27"/>
     </row>
-    <row r="380" spans="5:5" ht="12.75">
+    <row r="380" spans="5:5" ht="13">
       <c r="E380" s="27"/>
     </row>
-    <row r="381" spans="5:5" ht="12.75">
+    <row r="381" spans="5:5" ht="13">
       <c r="E381" s="27"/>
     </row>
-    <row r="382" spans="5:5" ht="12.75">
+    <row r="382" spans="5:5" ht="13">
       <c r="E382" s="27"/>
     </row>
-    <row r="383" spans="5:5" ht="12.75">
+    <row r="383" spans="5:5" ht="13">
       <c r="E383" s="27"/>
     </row>
-    <row r="384" spans="5:5" ht="12.75">
+    <row r="384" spans="5:5" ht="13">
       <c r="E384" s="27"/>
     </row>
-    <row r="385" spans="5:5" ht="12.75">
+    <row r="385" spans="5:5" ht="13">
       <c r="E385" s="27"/>
     </row>
-    <row r="386" spans="5:5" ht="12.75">
+    <row r="386" spans="5:5" ht="13">
       <c r="E386" s="27"/>
     </row>
-    <row r="387" spans="5:5" ht="12.75">
+    <row r="387" spans="5:5" ht="13">
       <c r="E387" s="27"/>
     </row>
-    <row r="388" spans="5:5" ht="12.75">
+    <row r="388" spans="5:5" ht="13">
       <c r="E388" s="27"/>
     </row>
-    <row r="389" spans="5:5" ht="12.75">
+    <row r="389" spans="5:5" ht="13">
       <c r="E389" s="27"/>
     </row>
-    <row r="390" spans="5:5" ht="12.75">
+    <row r="390" spans="5:5" ht="13">
       <c r="E390" s="27"/>
     </row>
-    <row r="391" spans="5:5" ht="12.75">
+    <row r="391" spans="5:5" ht="13">
       <c r="E391" s="27"/>
     </row>
-    <row r="392" spans="5:5" ht="12.75">
+    <row r="392" spans="5:5" ht="13">
       <c r="E392" s="27"/>
     </row>
-    <row r="393" spans="5:5" ht="12.75">
+    <row r="393" spans="5:5" ht="13">
       <c r="E393" s="27"/>
     </row>
-    <row r="394" spans="5:5" ht="12.75">
+    <row r="394" spans="5:5" ht="13">
       <c r="E394" s="27"/>
     </row>
-    <row r="395" spans="5:5" ht="12.75">
+    <row r="395" spans="5:5" ht="13">
       <c r="E395" s="27"/>
     </row>
-    <row r="396" spans="5:5" ht="12.75">
+    <row r="396" spans="5:5" ht="13">
       <c r="E396" s="27"/>
     </row>
-    <row r="397" spans="5:5" ht="12.75">
+    <row r="397" spans="5:5" ht="13">
       <c r="E397" s="27"/>
     </row>
-    <row r="398" spans="5:5" ht="12.75">
+    <row r="398" spans="5:5" ht="13">
       <c r="E398" s="27"/>
     </row>
-    <row r="399" spans="5:5" ht="12.75">
+    <row r="399" spans="5:5" ht="13">
       <c r="E399" s="27"/>
     </row>
-    <row r="400" spans="5:5" ht="12.75">
+    <row r="400" spans="5:5" ht="13">
       <c r="E400" s="27"/>
     </row>
-    <row r="401" spans="5:5" ht="12.75">
+    <row r="401" spans="5:5" ht="13">
       <c r="E401" s="27"/>
     </row>
-    <row r="402" spans="5:5" ht="12.75">
+    <row r="402" spans="5:5" ht="13">
       <c r="E402" s="27"/>
     </row>
-    <row r="403" spans="5:5" ht="12.75">
+    <row r="403" spans="5:5" ht="13">
       <c r="E403" s="27"/>
     </row>
-    <row r="404" spans="5:5" ht="12.75">
+    <row r="404" spans="5:5" ht="13">
       <c r="E404" s="27"/>
     </row>
-    <row r="405" spans="5:5" ht="12.75">
+    <row r="405" spans="5:5" ht="13">
       <c r="E405" s="27"/>
     </row>
-    <row r="406" spans="5:5" ht="12.75">
+    <row r="406" spans="5:5" ht="13">
       <c r="E406" s="27"/>
     </row>
-    <row r="407" spans="5:5" ht="12.75">
+    <row r="407" spans="5:5" ht="13">
       <c r="E407" s="27"/>
     </row>
-    <row r="408" spans="5:5" ht="12.75">
+    <row r="408" spans="5:5" ht="13">
       <c r="E408" s="27"/>
     </row>
-    <row r="409" spans="5:5" ht="12.75">
+    <row r="409" spans="5:5" ht="13">
       <c r="E409" s="27"/>
     </row>
-    <row r="410" spans="5:5" ht="12.75">
+    <row r="410" spans="5:5" ht="13">
       <c r="E410" s="27"/>
     </row>
-    <row r="411" spans="5:5" ht="12.75">
+    <row r="411" spans="5:5" ht="13">
       <c r="E411" s="27"/>
     </row>
-    <row r="412" spans="5:5" ht="12.75">
+    <row r="412" spans="5:5" ht="13">
       <c r="E412" s="27"/>
     </row>
-    <row r="413" spans="5:5" ht="12.75">
+    <row r="413" spans="5:5" ht="13">
       <c r="E413" s="27"/>
     </row>
-    <row r="414" spans="5:5" ht="12.75">
+    <row r="414" spans="5:5" ht="13">
       <c r="E414" s="27"/>
     </row>
-    <row r="415" spans="5:5" ht="12.75">
+    <row r="415" spans="5:5" ht="13">
       <c r="E415" s="27"/>
     </row>
-    <row r="416" spans="5:5" ht="12.75">
+    <row r="416" spans="5:5" ht="13">
       <c r="E416" s="27"/>
     </row>
-    <row r="417" spans="5:5" ht="12.75">
+    <row r="417" spans="5:5" ht="13">
       <c r="E417" s="27"/>
     </row>
-    <row r="418" spans="5:5" ht="12.75">
+    <row r="418" spans="5:5" ht="13">
       <c r="E418" s="27"/>
     </row>
-    <row r="419" spans="5:5" ht="12.75">
+    <row r="419" spans="5:5" ht="13">
       <c r="E419" s="27"/>
     </row>
-    <row r="420" spans="5:5" ht="12.75">
+    <row r="420" spans="5:5" ht="13">
       <c r="E420" s="27"/>
     </row>
-    <row r="421" spans="5:5" ht="12.75">
+    <row r="421" spans="5:5" ht="13">
       <c r="E421" s="27"/>
     </row>
-    <row r="422" spans="5:5" ht="12.75">
+    <row r="422" spans="5:5" ht="13">
       <c r="E422" s="27"/>
     </row>
-    <row r="423" spans="5:5" ht="12.75">
+    <row r="423" spans="5:5" ht="13">
       <c r="E423" s="27"/>
     </row>
-    <row r="424" spans="5:5" ht="12.75">
+    <row r="424" spans="5:5" ht="13">
       <c r="E424" s="27"/>
     </row>
-    <row r="425" spans="5:5" ht="12.75">
+    <row r="425" spans="5:5" ht="13">
       <c r="E425" s="27"/>
     </row>
-    <row r="426" spans="5:5" ht="12.75">
+    <row r="426" spans="5:5" ht="13">
       <c r="E426" s="27"/>
     </row>
-    <row r="427" spans="5:5" ht="12.75">
+    <row r="427" spans="5:5" ht="13">
       <c r="E427" s="27"/>
     </row>
-    <row r="428" spans="5:5" ht="12.75">
+    <row r="428" spans="5:5" ht="13">
       <c r="E428" s="27"/>
     </row>
-    <row r="429" spans="5:5" ht="12.75">
+    <row r="429" spans="5:5" ht="13">
       <c r="E429" s="27"/>
     </row>
-    <row r="430" spans="5:5" ht="12.75">
+    <row r="430" spans="5:5" ht="13">
       <c r="E430" s="27"/>
     </row>
-    <row r="431" spans="5:5" ht="12.75">
+    <row r="431" spans="5:5" ht="13">
       <c r="E431" s="27"/>
     </row>
-    <row r="432" spans="5:5" ht="12.75">
+    <row r="432" spans="5:5" ht="13">
       <c r="E432" s="27"/>
     </row>
-    <row r="433" spans="5:5" ht="12.75">
+    <row r="433" spans="5:5" ht="13">
       <c r="E433" s="27"/>
     </row>
-    <row r="434" spans="5:5" ht="12.75">
+    <row r="434" spans="5:5" ht="13">
       <c r="E434" s="27"/>
     </row>
-    <row r="435" spans="5:5" ht="12.75">
+    <row r="435" spans="5:5" ht="13">
       <c r="E435" s="27"/>
     </row>
-    <row r="436" spans="5:5" ht="12.75">
+    <row r="436" spans="5:5" ht="13">
       <c r="E436" s="27"/>
     </row>
-    <row r="437" spans="5:5" ht="12.75">
+    <row r="437" spans="5:5" ht="13">
       <c r="E437" s="27"/>
     </row>
-    <row r="438" spans="5:5" ht="12.75">
+    <row r="438" spans="5:5" ht="13">
       <c r="E438" s="27"/>
     </row>
-    <row r="439" spans="5:5" ht="12.75">
+    <row r="439" spans="5:5" ht="13">
       <c r="E439" s="27"/>
     </row>
-    <row r="440" spans="5:5" ht="12.75">
+    <row r="440" spans="5:5" ht="13">
       <c r="E440" s="27"/>
     </row>
-    <row r="441" spans="5:5" ht="12.75">
+    <row r="441" spans="5:5" ht="13">
       <c r="E441" s="27"/>
     </row>
-    <row r="442" spans="5:5" ht="12.75">
+    <row r="442" spans="5:5" ht="13">
       <c r="E442" s="27"/>
     </row>
-    <row r="443" spans="5:5" ht="12.75">
+    <row r="443" spans="5:5" ht="13">
       <c r="E443" s="27"/>
     </row>
-    <row r="444" spans="5:5" ht="12.75">
+    <row r="444" spans="5:5" ht="13">
       <c r="E444" s="27"/>
     </row>
-    <row r="445" spans="5:5" ht="12.75">
+    <row r="445" spans="5:5" ht="13">
       <c r="E445" s="27"/>
     </row>
-    <row r="446" spans="5:5" ht="12.75">
+    <row r="446" spans="5:5" ht="13">
       <c r="E446" s="27"/>
     </row>
-    <row r="447" spans="5:5" ht="12.75">
+    <row r="447" spans="5:5" ht="13">
       <c r="E447" s="27"/>
     </row>
-    <row r="448" spans="5:5" ht="12.75">
+    <row r="448" spans="5:5" ht="13">
       <c r="E448" s="27"/>
     </row>
-    <row r="449" spans="5:5" ht="12.75">
+    <row r="449" spans="5:5" ht="13">
       <c r="E449" s="27"/>
     </row>
-    <row r="450" spans="5:5" ht="12.75">
+    <row r="450" spans="5:5" ht="13">
       <c r="E450" s="27"/>
     </row>
-    <row r="451" spans="5:5" ht="12.75">
+    <row r="451" spans="5:5" ht="13">
       <c r="E451" s="27"/>
     </row>
-    <row r="452" spans="5:5" ht="12.75">
+    <row r="452" spans="5:5" ht="13">
       <c r="E452" s="27"/>
     </row>
-    <row r="453" spans="5:5" ht="12.75">
+    <row r="453" spans="5:5" ht="13">
       <c r="E453" s="27"/>
     </row>
-    <row r="454" spans="5:5" ht="12.75">
+    <row r="454" spans="5:5" ht="13">
       <c r="E454" s="27"/>
     </row>
-    <row r="455" spans="5:5" ht="12.75">
+    <row r="455" spans="5:5" ht="13">
       <c r="E455" s="27"/>
     </row>
-    <row r="456" spans="5:5" ht="12.75">
+    <row r="456" spans="5:5" ht="13">
       <c r="E456" s="27"/>
     </row>
-    <row r="457" spans="5:5" ht="12.75">
+    <row r="457" spans="5:5" ht="13">
       <c r="E457" s="27"/>
     </row>
-    <row r="458" spans="5:5" ht="12.75">
+    <row r="458" spans="5:5" ht="13">
       <c r="E458" s="27"/>
     </row>
-    <row r="459" spans="5:5" ht="12.75">
+    <row r="459" spans="5:5" ht="13">
       <c r="E459" s="27"/>
     </row>
-    <row r="460" spans="5:5" ht="12.75">
+    <row r="460" spans="5:5" ht="13">
       <c r="E460" s="27"/>
     </row>
-    <row r="461" spans="5:5" ht="12.75">
+    <row r="461" spans="5:5" ht="13">
       <c r="E461" s="27"/>
     </row>
-    <row r="462" spans="5:5" ht="12.75">
+    <row r="462" spans="5:5" ht="13">
       <c r="E462" s="27"/>
     </row>
-    <row r="463" spans="5:5" ht="12.75">
+    <row r="463" spans="5:5" ht="13">
       <c r="E463" s="27"/>
     </row>
-    <row r="464" spans="5:5" ht="12.75">
+    <row r="464" spans="5:5" ht="13">
       <c r="E464" s="27"/>
     </row>
-    <row r="465" spans="5:5" ht="12.75">
+    <row r="465" spans="5:5" ht="13">
       <c r="E465" s="27"/>
     </row>
-    <row r="466" spans="5:5" ht="12.75">
+    <row r="466" spans="5:5" ht="13">
       <c r="E466" s="27"/>
     </row>
-    <row r="467" spans="5:5" ht="12.75">
+    <row r="467" spans="5:5" ht="13">
       <c r="E467" s="27"/>
     </row>
-    <row r="468" spans="5:5" ht="12.75">
+    <row r="468" spans="5:5" ht="13">
       <c r="E468" s="27"/>
     </row>
-    <row r="469" spans="5:5" ht="12.75">
+    <row r="469" spans="5:5" ht="13">
       <c r="E469" s="27"/>
     </row>
-    <row r="470" spans="5:5" ht="12.75">
+    <row r="470" spans="5:5" ht="13">
       <c r="E470" s="27"/>
     </row>
-    <row r="471" spans="5:5" ht="12.75">
+    <row r="471" spans="5:5" ht="13">
       <c r="E471" s="27"/>
     </row>
-    <row r="472" spans="5:5" ht="12.75">
+    <row r="472" spans="5:5" ht="13">
       <c r="E472" s="27"/>
     </row>
-    <row r="473" spans="5:5" ht="12.75">
+    <row r="473" spans="5:5" ht="13">
       <c r="E473" s="27"/>
     </row>
-    <row r="474" spans="5:5" ht="12.75">
+    <row r="474" spans="5:5" ht="13">
       <c r="E474" s="27"/>
     </row>
-    <row r="475" spans="5:5" ht="12.75">
+    <row r="475" spans="5:5" ht="13">
       <c r="E475" s="27"/>
     </row>
-    <row r="476" spans="5:5" ht="12.75">
+    <row r="476" spans="5:5" ht="13">
       <c r="E476" s="27"/>
     </row>
-    <row r="477" spans="5:5" ht="12.75">
+    <row r="477" spans="5:5" ht="13">
       <c r="E477" s="27"/>
     </row>
-    <row r="478" spans="5:5" ht="12.75">
+    <row r="478" spans="5:5" ht="13">
       <c r="E478" s="27"/>
     </row>
-    <row r="479" spans="5:5" ht="12.75">
+    <row r="479" spans="5:5" ht="13">
       <c r="E479" s="27"/>
     </row>
-    <row r="480" spans="5:5" ht="12.75">
+    <row r="480" spans="5:5" ht="13">
       <c r="E480" s="27"/>
     </row>
-    <row r="481" spans="5:5" ht="12.75">
+    <row r="481" spans="5:5" ht="13">
       <c r="E481" s="27"/>
     </row>
-    <row r="482" spans="5:5" ht="12.75">
+    <row r="482" spans="5:5" ht="13">
       <c r="E482" s="27"/>
     </row>
-    <row r="483" spans="5:5" ht="12.75">
+    <row r="483" spans="5:5" ht="13">
       <c r="E483" s="27"/>
     </row>
-    <row r="484" spans="5:5" ht="12.75">
+    <row r="484" spans="5:5" ht="13">
       <c r="E484" s="27"/>
     </row>
-    <row r="485" spans="5:5" ht="12.75">
+    <row r="485" spans="5:5" ht="13">
       <c r="E485" s="27"/>
     </row>
-    <row r="486" spans="5:5" ht="12.75">
+    <row r="486" spans="5:5" ht="13">
       <c r="E486" s="27"/>
     </row>
-    <row r="487" spans="5:5" ht="12.75">
+    <row r="487" spans="5:5" ht="13">
       <c r="E487" s="27"/>
     </row>
-    <row r="488" spans="5:5" ht="12.75">
+    <row r="488" spans="5:5" ht="13">
       <c r="E488" s="27"/>
     </row>
-    <row r="489" spans="5:5" ht="12.75">
+    <row r="489" spans="5:5" ht="13">
       <c r="E489" s="27"/>
     </row>
-    <row r="490" spans="5:5" ht="12.75">
+    <row r="490" spans="5:5" ht="13">
       <c r="E490" s="27"/>
     </row>
-    <row r="491" spans="5:5" ht="12.75">
+    <row r="491" spans="5:5" ht="13">
       <c r="E491" s="27"/>
     </row>
-    <row r="492" spans="5:5" ht="12.75">
+    <row r="492" spans="5:5" ht="13">
       <c r="E492" s="27"/>
     </row>
-    <row r="493" spans="5:5" ht="12.75">
+    <row r="493" spans="5:5" ht="13">
       <c r="E493" s="27"/>
     </row>
-    <row r="494" spans="5:5" ht="12.75">
+    <row r="494" spans="5:5" ht="13">
       <c r="E494" s="27"/>
     </row>
-    <row r="495" spans="5:5" ht="12.75">
+    <row r="495" spans="5:5" ht="13">
       <c r="E495" s="27"/>
     </row>
-    <row r="496" spans="5:5" ht="12.75">
+    <row r="496" spans="5:5" ht="13">
       <c r="E496" s="27"/>
     </row>
-    <row r="497" spans="5:5" ht="12.75">
+    <row r="497" spans="5:5" ht="13">
       <c r="E497" s="27"/>
     </row>
-    <row r="498" spans="5:5" ht="12.75">
+    <row r="498" spans="5:5" ht="13">
       <c r="E498" s="27"/>
     </row>
-    <row r="499" spans="5:5" ht="12.75">
+    <row r="499" spans="5:5" ht="13">
       <c r="E499" s="27"/>
     </row>
-    <row r="500" spans="5:5" ht="12.75">
+    <row r="500" spans="5:5" ht="13">
       <c r="E500" s="27"/>
     </row>
-    <row r="501" spans="5:5" ht="12.75">
+    <row r="501" spans="5:5" ht="13">
       <c r="E501" s="27"/>
     </row>
-    <row r="502" spans="5:5" ht="12.75">
+    <row r="502" spans="5:5" ht="13">
       <c r="E502" s="27"/>
     </row>
-    <row r="503" spans="5:5" ht="12.75">
+    <row r="503" spans="5:5" ht="13">
       <c r="E503" s="27"/>
     </row>
-    <row r="504" spans="5:5" ht="12.75">
+    <row r="504" spans="5:5" ht="13">
       <c r="E504" s="27"/>
     </row>
-    <row r="505" spans="5:5" ht="12.75">
+    <row r="505" spans="5:5" ht="13">
       <c r="E505" s="27"/>
     </row>
-    <row r="506" spans="5:5" ht="12.75">
+    <row r="506" spans="5:5" ht="13">
       <c r="E506" s="27"/>
     </row>
-    <row r="507" spans="5:5" ht="12.75">
+    <row r="507" spans="5:5" ht="13">
       <c r="E507" s="27"/>
     </row>
-    <row r="508" spans="5:5" ht="12.75">
+    <row r="508" spans="5:5" ht="13">
       <c r="E508" s="27"/>
     </row>
-    <row r="509" spans="5:5" ht="12.75">
+    <row r="509" spans="5:5" ht="13">
       <c r="E509" s="27"/>
     </row>
-    <row r="510" spans="5:5" ht="12.75">
+    <row r="510" spans="5:5" ht="13">
       <c r="E510" s="27"/>
     </row>
-    <row r="511" spans="5:5" ht="12.75">
+    <row r="511" spans="5:5" ht="13">
       <c r="E511" s="27"/>
     </row>
-    <row r="512" spans="5:5" ht="12.75">
+    <row r="512" spans="5:5" ht="13">
       <c r="E512" s="27"/>
     </row>
-    <row r="513" spans="5:5" ht="12.75">
+    <row r="513" spans="5:5" ht="13">
       <c r="E513" s="27"/>
     </row>
-    <row r="514" spans="5:5" ht="12.75">
+    <row r="514" spans="5:5" ht="13">
       <c r="E514" s="27"/>
     </row>
-    <row r="515" spans="5:5" ht="12.75">
+    <row r="515" spans="5:5" ht="13">
       <c r="E515" s="27"/>
     </row>
-    <row r="516" spans="5:5" ht="12.75">
+    <row r="516" spans="5:5" ht="13">
       <c r="E516" s="27"/>
     </row>
-    <row r="517" spans="5:5" ht="12.75">
+    <row r="517" spans="5:5" ht="13">
       <c r="E517" s="27"/>
     </row>
-    <row r="518" spans="5:5" ht="12.75">
+    <row r="518" spans="5:5" ht="13">
       <c r="E518" s="27"/>
     </row>
-    <row r="519" spans="5:5" ht="12.75">
+    <row r="519" spans="5:5" ht="13">
       <c r="E519" s="27"/>
     </row>
-    <row r="520" spans="5:5" ht="12.75">
+    <row r="520" spans="5:5" ht="13">
       <c r="E520" s="27"/>
     </row>
-    <row r="521" spans="5:5" ht="12.75">
+    <row r="521" spans="5:5" ht="13">
       <c r="E521" s="27"/>
     </row>
-    <row r="522" spans="5:5" ht="12.75">
+    <row r="522" spans="5:5" ht="13">
       <c r="E522" s="27"/>
     </row>
-    <row r="523" spans="5:5" ht="12.75">
+    <row r="523" spans="5:5" ht="13">
       <c r="E523" s="27"/>
     </row>
-    <row r="524" spans="5:5" ht="12.75">
+    <row r="524" spans="5:5" ht="13">
       <c r="E524" s="27"/>
     </row>
-    <row r="525" spans="5:5" ht="12.75">
+    <row r="525" spans="5:5" ht="13">
       <c r="E525" s="27"/>
     </row>
-    <row r="526" spans="5:5" ht="12.75">
+    <row r="526" spans="5:5" ht="13">
       <c r="E526" s="27"/>
     </row>
-    <row r="527" spans="5:5" ht="12.75">
+    <row r="527" spans="5:5" ht="13">
       <c r="E527" s="27"/>
     </row>
-    <row r="528" spans="5:5" ht="12.75">
+    <row r="528" spans="5:5" ht="13">
       <c r="E528" s="27"/>
     </row>
-    <row r="529" spans="5:5" ht="12.75">
+    <row r="529" spans="5:5" ht="13">
       <c r="E529" s="27"/>
     </row>
-    <row r="530" spans="5:5" ht="12.75">
+    <row r="530" spans="5:5" ht="13">
       <c r="E530" s="27"/>
     </row>
-    <row r="531" spans="5:5" ht="12.75">
+    <row r="531" spans="5:5" ht="13">
       <c r="E531" s="27"/>
     </row>
-    <row r="532" spans="5:5" ht="12.75">
+    <row r="532" spans="5:5" ht="13">
       <c r="E532" s="27"/>
     </row>
-    <row r="533" spans="5:5" ht="12.75">
+    <row r="533" spans="5:5" ht="13">
       <c r="E533" s="27"/>
     </row>
-    <row r="534" spans="5:5" ht="12.75">
+    <row r="534" spans="5:5" ht="13">
       <c r="E534" s="27"/>
     </row>
-    <row r="535" spans="5:5" ht="12.75">
+    <row r="535" spans="5:5" ht="13">
       <c r="E535" s="27"/>
     </row>
-    <row r="536" spans="5:5" ht="12.75">
+    <row r="536" spans="5:5" ht="13">
       <c r="E536" s="27"/>
     </row>
-    <row r="537" spans="5:5" ht="12.75">
+    <row r="537" spans="5:5" ht="13">
       <c r="E537" s="27"/>
     </row>
-    <row r="538" spans="5:5" ht="12.75">
+    <row r="538" spans="5:5" ht="13">
       <c r="E538" s="27"/>
     </row>
-    <row r="539" spans="5:5" ht="12.75">
+    <row r="539" spans="5:5" ht="13">
       <c r="E539" s="27"/>
     </row>
-    <row r="540" spans="5:5" ht="12.75">
+    <row r="540" spans="5:5" ht="13">
       <c r="E540" s="27"/>
     </row>
-    <row r="541" spans="5:5" ht="12.75">
+    <row r="541" spans="5:5" ht="13">
       <c r="E541" s="27"/>
     </row>
-    <row r="542" spans="5:5" ht="12.75">
+    <row r="542" spans="5:5" ht="13">
       <c r="E542" s="27"/>
     </row>
-    <row r="543" spans="5:5" ht="12.75">
+    <row r="543" spans="5:5" ht="13">
       <c r="E543" s="27"/>
     </row>
-    <row r="544" spans="5:5" ht="12.75">
+    <row r="544" spans="5:5" ht="13">
       <c r="E544" s="27"/>
     </row>
-    <row r="545" spans="5:5" ht="12.75">
+    <row r="545" spans="5:5" ht="13">
       <c r="E545" s="27"/>
     </row>
-    <row r="546" spans="5:5" ht="12.75">
+    <row r="546" spans="5:5" ht="13">
       <c r="E546" s="27"/>
     </row>
-    <row r="547" spans="5:5" ht="12.75">
+    <row r="547" spans="5:5" ht="13">
       <c r="E547" s="27"/>
     </row>
-    <row r="548" spans="5:5" ht="12.75">
+    <row r="548" spans="5:5" ht="13">
       <c r="E548" s="27"/>
     </row>
-    <row r="549" spans="5:5" ht="12.75">
+    <row r="549" spans="5:5" ht="13">
       <c r="E549" s="27"/>
     </row>
-    <row r="550" spans="5:5" ht="12.75">
+    <row r="550" spans="5:5" ht="13">
       <c r="E550" s="27"/>
     </row>
-    <row r="551" spans="5:5" ht="12.75">
+    <row r="551" spans="5:5" ht="13">
       <c r="E551" s="27"/>
     </row>
-    <row r="552" spans="5:5" ht="12.75">
+    <row r="552" spans="5:5" ht="13">
       <c r="E552" s="27"/>
     </row>
-    <row r="553" spans="5:5" ht="12.75">
+    <row r="553" spans="5:5" ht="13">
       <c r="E553" s="27"/>
     </row>
-    <row r="554" spans="5:5" ht="12.75">
+    <row r="554" spans="5:5" ht="13">
       <c r="E554" s="27"/>
     </row>
-    <row r="555" spans="5:5" ht="12.75">
+    <row r="555" spans="5:5" ht="13">
       <c r="E555" s="27"/>
     </row>
-    <row r="556" spans="5:5" ht="12.75">
+    <row r="556" spans="5:5" ht="13">
       <c r="E556" s="27"/>
     </row>
-    <row r="557" spans="5:5" ht="12.75">
+    <row r="557" spans="5:5" ht="13">
       <c r="E557" s="27"/>
     </row>
-    <row r="558" spans="5:5" ht="12.75">
+    <row r="558" spans="5:5" ht="13">
       <c r="E558" s="27"/>
     </row>
-    <row r="559" spans="5:5" ht="12.75">
+    <row r="559" spans="5:5" ht="13">
       <c r="E559" s="27"/>
     </row>
-    <row r="560" spans="5:5" ht="12.75">
+    <row r="560" spans="5:5" ht="13">
       <c r="E560" s="27"/>
     </row>
-    <row r="561" spans="5:5" ht="12.75">
+    <row r="561" spans="5:5" ht="13">
       <c r="E561" s="27"/>
     </row>
-    <row r="562" spans="5:5" ht="12.75">
+    <row r="562" spans="5:5" ht="13">
       <c r="E562" s="27"/>
     </row>
-    <row r="563" spans="5:5" ht="12.75">
+    <row r="563" spans="5:5" ht="13">
       <c r="E563" s="27"/>
     </row>
-    <row r="564" spans="5:5" ht="12.75">
+    <row r="564" spans="5:5" ht="13">
       <c r="E564" s="27"/>
     </row>
-    <row r="565" spans="5:5" ht="12.75">
+    <row r="565" spans="5:5" ht="13">
       <c r="E565" s="27"/>
     </row>
-    <row r="566" spans="5:5" ht="12.75">
+    <row r="566" spans="5:5" ht="13">
       <c r="E566" s="27"/>
     </row>
-    <row r="567" spans="5:5" ht="12.75">
+    <row r="567" spans="5:5" ht="13">
       <c r="E567" s="27"/>
     </row>
-    <row r="568" spans="5:5" ht="12.75">
+    <row r="568" spans="5:5" ht="13">
       <c r="E568" s="27"/>
     </row>
-    <row r="569" spans="5:5" ht="12.75">
+    <row r="569" spans="5:5" ht="13">
       <c r="E569" s="27"/>
     </row>
-    <row r="570" spans="5:5" ht="12.75">
+    <row r="570" spans="5:5" ht="13">
       <c r="E570" s="27"/>
     </row>
-    <row r="571" spans="5:5" ht="12.75">
+    <row r="571" spans="5:5" ht="13">
       <c r="E571" s="27"/>
     </row>
-    <row r="572" spans="5:5" ht="12.75">
+    <row r="572" spans="5:5" ht="13">
       <c r="E572" s="27"/>
     </row>
-    <row r="573" spans="5:5" ht="12.75">
+    <row r="573" spans="5:5" ht="13">
       <c r="E573" s="27"/>
     </row>
-    <row r="574" spans="5:5" ht="12.75">
+    <row r="574" spans="5:5" ht="13">
       <c r="E574" s="27"/>
     </row>
-    <row r="575" spans="5:5" ht="12.75">
+    <row r="575" spans="5:5" ht="13">
       <c r="E575" s="27"/>
     </row>
-    <row r="576" spans="5:5" ht="12.75">
+    <row r="576" spans="5:5" ht="13">
       <c r="E576" s="27"/>
     </row>
-    <row r="577" spans="5:5" ht="12.75">
+    <row r="577" spans="5:5" ht="13">
       <c r="E577" s="27"/>
     </row>
-    <row r="578" spans="5:5" ht="12.75">
+    <row r="578" spans="5:5" ht="13">
       <c r="E578" s="27"/>
     </row>
-    <row r="579" spans="5:5" ht="12.75">
+    <row r="579" spans="5:5" ht="13">
       <c r="E579" s="27"/>
     </row>
-    <row r="580" spans="5:5" ht="12.75">
+    <row r="580" spans="5:5" ht="13">
       <c r="E580" s="27"/>
     </row>
-    <row r="581" spans="5:5" ht="12.75">
+    <row r="581" spans="5:5" ht="13">
       <c r="E581" s="27"/>
     </row>
-    <row r="582" spans="5:5" ht="12.75">
+    <row r="582" spans="5:5" ht="13">
       <c r="E582" s="27"/>
     </row>
-    <row r="583" spans="5:5" ht="12.75">
+    <row r="583" spans="5:5" ht="13">
       <c r="E583" s="27"/>
     </row>
-    <row r="584" spans="5:5" ht="12.75">
+    <row r="584" spans="5:5" ht="13">
       <c r="E584" s="27"/>
     </row>
-    <row r="585" spans="5:5" ht="12.75">
+    <row r="585" spans="5:5" ht="13">
       <c r="E585" s="27"/>
     </row>
-    <row r="586" spans="5:5" ht="12.75">
+    <row r="586" spans="5:5" ht="13">
       <c r="E586" s="27"/>
     </row>
-    <row r="587" spans="5:5" ht="12.75">
+    <row r="587" spans="5:5" ht="13">
       <c r="E587" s="27"/>
     </row>
-    <row r="588" spans="5:5" ht="12.75">
+    <row r="588" spans="5:5" ht="13">
       <c r="E588" s="27"/>
     </row>
-    <row r="589" spans="5:5" ht="12.75">
+    <row r="589" spans="5:5" ht="13">
       <c r="E589" s="27"/>
     </row>
-    <row r="590" spans="5:5" ht="12.75">
+    <row r="590" spans="5:5" ht="13">
       <c r="E590" s="27"/>
     </row>
-    <row r="591" spans="5:5" ht="12.75">
+    <row r="591" spans="5:5" ht="13">
       <c r="E591" s="27"/>
     </row>
-    <row r="592" spans="5:5" ht="12.75">
+    <row r="592" spans="5:5" ht="13">
       <c r="E592" s="27"/>
     </row>
-    <row r="593" spans="5:5" ht="12.75">
+    <row r="593" spans="5:5" ht="13">
       <c r="E593" s="27"/>
     </row>
-    <row r="594" spans="5:5" ht="12.75">
+    <row r="594" spans="5:5" ht="13">
       <c r="E594" s="27"/>
     </row>
-    <row r="595" spans="5:5" ht="12.75">
+    <row r="595" spans="5:5" ht="13">
       <c r="E595" s="27"/>
     </row>
-    <row r="596" spans="5:5" ht="12.75">
+    <row r="596" spans="5:5" ht="13">
       <c r="E596" s="27"/>
     </row>
-    <row r="597" spans="5:5" ht="12.75">
+    <row r="597" spans="5:5" ht="13">
       <c r="E597" s="27"/>
     </row>
-    <row r="598" spans="5:5" ht="12.75">
+    <row r="598" spans="5:5" ht="13">
       <c r="E598" s="27"/>
     </row>
-    <row r="599" spans="5:5" ht="12.75">
+    <row r="599" spans="5:5" ht="13">
       <c r="E599" s="27"/>
     </row>
-    <row r="600" spans="5:5" ht="12.75">
+    <row r="600" spans="5:5" ht="13">
       <c r="E600" s="27"/>
     </row>
-    <row r="601" spans="5:5" ht="12.75">
+    <row r="601" spans="5:5" ht="13">
       <c r="E601" s="27"/>
     </row>
-    <row r="602" spans="5:5" ht="12.75">
+    <row r="602" spans="5:5" ht="13">
       <c r="E602" s="27"/>
     </row>
-    <row r="603" spans="5:5" ht="12.75">
+    <row r="603" spans="5:5" ht="13">
       <c r="E603" s="27"/>
     </row>
-    <row r="604" spans="5:5" ht="12.75">
+    <row r="604" spans="5:5" ht="13">
       <c r="E604" s="27"/>
     </row>
-    <row r="605" spans="5:5" ht="12.75">
+    <row r="605" spans="5:5" ht="13">
       <c r="E605" s="27"/>
     </row>
-    <row r="606" spans="5:5" ht="12.75">
+    <row r="606" spans="5:5" ht="13">
       <c r="E606" s="27"/>
     </row>
-    <row r="607" spans="5:5" ht="12.75">
+    <row r="607" spans="5:5" ht="13">
       <c r="E607" s="27"/>
     </row>
-    <row r="608" spans="5:5" ht="12.75">
+    <row r="608" spans="5:5" ht="13">
       <c r="E608" s="27"/>
     </row>
-    <row r="609" spans="5:5" ht="12.75">
+    <row r="609" spans="5:5" ht="13">
       <c r="E609" s="27"/>
     </row>
-    <row r="610" spans="5:5" ht="12.75">
+    <row r="610" spans="5:5" ht="13">
       <c r="E610" s="27"/>
     </row>
-    <row r="611" spans="5:5" ht="12.75">
+    <row r="611" spans="5:5" ht="13">
       <c r="E611" s="27"/>
     </row>
-    <row r="612" spans="5:5" ht="12.75">
+    <row r="612" spans="5:5" ht="13">
       <c r="E612" s="27"/>
     </row>
-    <row r="613" spans="5:5" ht="12.75">
+    <row r="613" spans="5:5" ht="13">
       <c r="E613" s="27"/>
     </row>
-    <row r="614" spans="5:5" ht="12.75">
+    <row r="614" spans="5:5" ht="13">
       <c r="E614" s="27"/>
     </row>
-    <row r="615" spans="5:5" ht="12.75">
+    <row r="615" spans="5:5" ht="13">
       <c r="E615" s="27"/>
     </row>
-    <row r="616" spans="5:5" ht="12.75">
+    <row r="616" spans="5:5" ht="13">
       <c r="E616" s="27"/>
     </row>
-    <row r="617" spans="5:5" ht="12.75">
+    <row r="617" spans="5:5" ht="13">
       <c r="E617" s="27"/>
     </row>
-    <row r="618" spans="5:5" ht="12.75">
+    <row r="618" spans="5:5" ht="13">
       <c r="E618" s="27"/>
     </row>
-    <row r="619" spans="5:5" ht="12.75">
+    <row r="619" spans="5:5" ht="13">
       <c r="E619" s="27"/>
     </row>
-    <row r="620" spans="5:5" ht="12.75">
+    <row r="620" spans="5:5" ht="13">
       <c r="E620" s="27"/>
     </row>
-    <row r="621" spans="5:5" ht="12.75">
+    <row r="621" spans="5:5" ht="13">
       <c r="E621" s="27"/>
     </row>
-    <row r="622" spans="5:5" ht="12.75">
+    <row r="622" spans="5:5" ht="13">
       <c r="E622" s="27"/>
     </row>
-    <row r="623" spans="5:5" ht="12.75">
+    <row r="623" spans="5:5" ht="13">
       <c r="E623" s="27"/>
     </row>
-    <row r="624" spans="5:5" ht="12.75">
+    <row r="624" spans="5:5" ht="13">
       <c r="E624" s="27"/>
     </row>
-    <row r="625" spans="5:5" ht="12.75">
+    <row r="625" spans="5:5" ht="13">
       <c r="E625" s="27"/>
     </row>
-    <row r="626" spans="5:5" ht="12.75">
+    <row r="626" spans="5:5" ht="13">
       <c r="E626" s="27"/>
     </row>
-    <row r="627" spans="5:5" ht="12.75">
+    <row r="627" spans="5:5" ht="13">
       <c r="E627" s="27"/>
     </row>
-    <row r="628" spans="5:5" ht="12.75">
+    <row r="628" spans="5:5" ht="13">
       <c r="E628" s="27"/>
     </row>
-    <row r="629" spans="5:5" ht="12.75">
+    <row r="629" spans="5:5" ht="13">
       <c r="E629" s="27"/>
     </row>
-    <row r="630" spans="5:5" ht="12.75">
+    <row r="630" spans="5:5" ht="13">
       <c r="E630" s="27"/>
     </row>
-    <row r="631" spans="5:5" ht="12.75">
+    <row r="631" spans="5:5" ht="13">
       <c r="E631" s="27"/>
     </row>
-    <row r="632" spans="5:5" ht="12.75">
+    <row r="632" spans="5:5" ht="13">
       <c r="E632" s="27"/>
     </row>
-    <row r="633" spans="5:5" ht="12.75">
+    <row r="633" spans="5:5" ht="13">
       <c r="E633" s="27"/>
     </row>
-    <row r="634" spans="5:5" ht="12.75">
+    <row r="634" spans="5:5" ht="13">
       <c r="E634" s="27"/>
     </row>
-    <row r="635" spans="5:5" ht="12.75">
+    <row r="635" spans="5:5" ht="13">
       <c r="E635" s="27"/>
     </row>
-    <row r="636" spans="5:5" ht="12.75">
+    <row r="636" spans="5:5" ht="13">
       <c r="E636" s="27"/>
     </row>
-    <row r="637" spans="5:5" ht="12.75">
+    <row r="637" spans="5:5" ht="13">
       <c r="E637" s="27"/>
     </row>
-    <row r="638" spans="5:5" ht="12.75">
+    <row r="638" spans="5:5" ht="13">
       <c r="E638" s="27"/>
     </row>
-    <row r="639" spans="5:5" ht="12.75">
+    <row r="639" spans="5:5" ht="13">
       <c r="E639" s="27"/>
     </row>
-    <row r="640" spans="5:5" ht="12.75">
+    <row r="640" spans="5:5" ht="13">
       <c r="E640" s="27"/>
     </row>
-    <row r="641" spans="5:5" ht="12.75">
+    <row r="641" spans="5:5" ht="13">
       <c r="E641" s="27"/>
     </row>
-    <row r="642" spans="5:5" ht="12.75">
+    <row r="642" spans="5:5" ht="13">
       <c r="E642" s="27"/>
     </row>
-    <row r="643" spans="5:5" ht="12.75">
+    <row r="643" spans="5:5" ht="13">
       <c r="E643" s="27"/>
     </row>
-    <row r="644" spans="5:5" ht="12.75">
+    <row r="644" spans="5:5" ht="13">
       <c r="E644" s="27"/>
     </row>
-    <row r="645" spans="5:5" ht="12.75">
+    <row r="645" spans="5:5" ht="13">
       <c r="E645" s="27"/>
     </row>
-    <row r="646" spans="5:5" ht="12.75">
+    <row r="646" spans="5:5" ht="13">
       <c r="E646" s="27"/>
     </row>
-    <row r="647" spans="5:5" ht="12.75">
+    <row r="647" spans="5:5" ht="13">
       <c r="E647" s="27"/>
     </row>
-    <row r="648" spans="5:5" ht="12.75">
+    <row r="648" spans="5:5" ht="13">
       <c r="E648" s="27"/>
     </row>
-    <row r="649" spans="5:5" ht="12.75">
+    <row r="649" spans="5:5" ht="13">
       <c r="E649" s="27"/>
     </row>
-    <row r="650" spans="5:5" ht="12.75">
+    <row r="650" spans="5:5" ht="13">
       <c r="E650" s="27"/>
     </row>
-    <row r="651" spans="5:5" ht="12.75">
+    <row r="651" spans="5:5" ht="13">
       <c r="E651" s="27"/>
     </row>
-    <row r="652" spans="5:5" ht="12.75">
+    <row r="652" spans="5:5" ht="13">
       <c r="E652" s="27"/>
     </row>
-    <row r="653" spans="5:5" ht="12.75">
+    <row r="653" spans="5:5" ht="13">
       <c r="E653" s="27"/>
     </row>
-    <row r="654" spans="5:5" ht="12.75">
+    <row r="654" spans="5:5" ht="13">
       <c r="E654" s="27"/>
     </row>
-    <row r="655" spans="5:5" ht="12.75">
+    <row r="655" spans="5:5" ht="13">
       <c r="E655" s="27"/>
     </row>
-    <row r="656" spans="5:5" ht="12.75">
+    <row r="656" spans="5:5" ht="13">
       <c r="E656" s="27"/>
     </row>
-    <row r="657" spans="5:5" ht="12.75">
+    <row r="657" spans="5:5" ht="13">
       <c r="E657" s="27"/>
     </row>
-    <row r="658" spans="5:5" ht="12.75">
+    <row r="658" spans="5:5" ht="13">
       <c r="E658" s="27"/>
     </row>
-    <row r="659" spans="5:5" ht="12.75">
+    <row r="659" spans="5:5" ht="13">
       <c r="E659" s="27"/>
     </row>
-    <row r="660" spans="5:5" ht="12.75">
+    <row r="660" spans="5:5" ht="13">
       <c r="E660" s="27"/>
     </row>
-    <row r="661" spans="5:5" ht="12.75">
+    <row r="661" spans="5:5" ht="13">
       <c r="E661" s="27"/>
     </row>
-    <row r="662" spans="5:5" ht="12.75">
+    <row r="662" spans="5:5" ht="13">
       <c r="E662" s="27"/>
     </row>
-    <row r="663" spans="5:5" ht="12.75">
+    <row r="663" spans="5:5" ht="13">
       <c r="E663" s="27"/>
     </row>
-    <row r="664" spans="5:5" ht="12.75">
+    <row r="664" spans="5:5" ht="13">
       <c r="E664" s="27"/>
     </row>
-    <row r="665" spans="5:5" ht="12.75">
+    <row r="665" spans="5:5" ht="13">
       <c r="E665" s="27"/>
     </row>
-    <row r="666" spans="5:5" ht="12.75">
+    <row r="666" spans="5:5" ht="13">
       <c r="E666" s="27"/>
     </row>
-    <row r="667" spans="5:5" ht="12.75">
+    <row r="667" spans="5:5" ht="13">
       <c r="E667" s="27"/>
     </row>
-    <row r="668" spans="5:5" ht="12.75">
+    <row r="668" spans="5:5" ht="13">
       <c r="E668" s="27"/>
     </row>
-    <row r="669" spans="5:5" ht="12.75">
+    <row r="669" spans="5:5" ht="13">
       <c r="E669" s="27"/>
     </row>
-    <row r="670" spans="5:5" ht="12.75">
+    <row r="670" spans="5:5" ht="13">
       <c r="E670" s="27"/>
     </row>
-    <row r="671" spans="5:5" ht="12.75">
+    <row r="671" spans="5:5" ht="13">
       <c r="E671" s="27"/>
     </row>
-    <row r="672" spans="5:5" ht="12.75">
+    <row r="672" spans="5:5" ht="13">
       <c r="E672" s="27"/>
     </row>
-    <row r="673" spans="5:5" ht="12.75">
+    <row r="673" spans="5:5" ht="13">
       <c r="E673" s="27"/>
     </row>
-    <row r="674" spans="5:5" ht="12.75">
+    <row r="674" spans="5:5" ht="13">
       <c r="E674" s="27"/>
     </row>
-    <row r="675" spans="5:5" ht="12.75">
+    <row r="675" spans="5:5" ht="13">
       <c r="E675" s="27"/>
     </row>
-    <row r="676" spans="5:5" ht="12.75">
+    <row r="676" spans="5:5" ht="13">
       <c r="E676" s="27"/>
     </row>
-    <row r="677" spans="5:5" ht="12.75">
+    <row r="677" spans="5:5" ht="13">
       <c r="E677" s="27"/>
     </row>
-    <row r="678" spans="5:5" ht="12.75">
+    <row r="678" spans="5:5" ht="13">
       <c r="E678" s="27"/>
     </row>
-    <row r="679" spans="5:5" ht="12.75">
+    <row r="679" spans="5:5" ht="13">
       <c r="E679" s="27"/>
     </row>
-    <row r="680" spans="5:5" ht="12.75">
+    <row r="680" spans="5:5" ht="13">
       <c r="E680" s="27"/>
     </row>
-    <row r="681" spans="5:5" ht="12.75">
+    <row r="681" spans="5:5" ht="13">
       <c r="E681" s="27"/>
     </row>
-    <row r="682" spans="5:5" ht="12.75">
+    <row r="682" spans="5:5" ht="13">
       <c r="E682" s="27"/>
     </row>
-    <row r="683" spans="5:5" ht="12.75">
+    <row r="683" spans="5:5" ht="13">
       <c r="E683" s="27"/>
     </row>
-    <row r="684" spans="5:5" ht="12.75">
+    <row r="684" spans="5:5" ht="13">
       <c r="E684" s="27"/>
     </row>
-    <row r="685" spans="5:5" ht="12.75">
+    <row r="685" spans="5:5" ht="13">
       <c r="E685" s="27"/>
     </row>
-    <row r="686" spans="5:5" ht="12.75">
+    <row r="686" spans="5:5" ht="13">
       <c r="E686" s="27"/>
     </row>
-    <row r="687" spans="5:5" ht="12.75">
+    <row r="687" spans="5:5" ht="13">
       <c r="E687" s="27"/>
     </row>
-    <row r="688" spans="5:5" ht="12.75">
+    <row r="688" spans="5:5" ht="13">
       <c r="E688" s="27"/>
     </row>
-    <row r="689" spans="5:5" ht="12.75">
+    <row r="689" spans="5:5" ht="13">
       <c r="E689" s="27"/>
     </row>
-    <row r="690" spans="5:5" ht="12.75">
+    <row r="690" spans="5:5" ht="13">
       <c r="E690" s="27"/>
     </row>
-    <row r="691" spans="5:5" ht="12.75">
+    <row r="691" spans="5:5" ht="13">
       <c r="E691" s="27"/>
     </row>
-    <row r="692" spans="5:5" ht="12.75">
+    <row r="692" spans="5:5" ht="13">
       <c r="E692" s="27"/>
     </row>
-    <row r="693" spans="5:5" ht="12.75">
+    <row r="693" spans="5:5" ht="13">
       <c r="E693" s="27"/>
     </row>
-    <row r="694" spans="5:5" ht="12.75">
+    <row r="694" spans="5:5" ht="13">
       <c r="E694" s="27"/>
     </row>
-    <row r="695" spans="5:5" ht="12.75">
+    <row r="695" spans="5:5" ht="13">
       <c r="E695" s="27"/>
     </row>
-    <row r="696" spans="5:5" ht="12.75">
+    <row r="696" spans="5:5" ht="13">
       <c r="E696" s="27"/>
     </row>
-    <row r="697" spans="5:5" ht="12.75">
+    <row r="697" spans="5:5" ht="13">
       <c r="E697" s="27"/>
     </row>
-    <row r="698" spans="5:5" ht="12.75">
+    <row r="698" spans="5:5" ht="13">
       <c r="E698" s="27"/>
     </row>
-    <row r="699" spans="5:5" ht="12.75">
+    <row r="699" spans="5:5" ht="13">
       <c r="E699" s="27"/>
     </row>
-    <row r="700" spans="5:5" ht="12.75">
+    <row r="700" spans="5:5" ht="13">
       <c r="E700" s="27"/>
     </row>
-    <row r="701" spans="5:5" ht="12.75">
+    <row r="701" spans="5:5" ht="13">
       <c r="E701" s="27"/>
     </row>
-    <row r="702" spans="5:5" ht="12.75">
+    <row r="702" spans="5:5" ht="13">
       <c r="E702" s="27"/>
     </row>
-    <row r="703" spans="5:5" ht="12.75">
+    <row r="703" spans="5:5" ht="13">
       <c r="E703" s="27"/>
     </row>
-    <row r="704" spans="5:5" ht="12.75">
+    <row r="704" spans="5:5" ht="13">
       <c r="E704" s="27"/>
     </row>
-    <row r="705" spans="5:5" ht="12.75">
+    <row r="705" spans="5:5" ht="13">
       <c r="E705" s="27"/>
     </row>
-    <row r="706" spans="5:5" ht="12.75">
+    <row r="706" spans="5:5" ht="13">
       <c r="E706" s="27"/>
     </row>
-    <row r="707" spans="5:5" ht="12.75">
+    <row r="707" spans="5:5" ht="13">
       <c r="E707" s="27"/>
     </row>
-    <row r="708" spans="5:5" ht="12.75">
+    <row r="708" spans="5:5" ht="13">
       <c r="E708" s="27"/>
     </row>
-    <row r="709" spans="5:5" ht="12.75">
+    <row r="709" spans="5:5" ht="13">
       <c r="E709" s="27"/>
     </row>
-    <row r="710" spans="5:5" ht="12.75">
+    <row r="710" spans="5:5" ht="13">
       <c r="E710" s="27"/>
     </row>
-    <row r="711" spans="5:5" ht="12.75">
+    <row r="711" spans="5:5" ht="13">
       <c r="E711" s="27"/>
     </row>
-    <row r="712" spans="5:5" ht="12.75">
+    <row r="712" spans="5:5" ht="13">
       <c r="E712" s="27"/>
     </row>
-    <row r="713" spans="5:5" ht="12.75">
+    <row r="713" spans="5:5" ht="13">
       <c r="E713" s="27"/>
     </row>
-    <row r="714" spans="5:5" ht="12.75">
+    <row r="714" spans="5:5" ht="13">
       <c r="E714" s="27"/>
     </row>
-    <row r="715" spans="5:5" ht="12.75">
+    <row r="715" spans="5:5" ht="13">
       <c r="E715" s="27"/>
     </row>
-    <row r="716" spans="5:5" ht="12.75">
+    <row r="716" spans="5:5" ht="13">
       <c r="E716" s="27"/>
     </row>
-    <row r="717" spans="5:5" ht="12.75">
+    <row r="717" spans="5:5" ht="13">
       <c r="E717" s="27"/>
     </row>
-    <row r="718" spans="5:5" ht="12.75">
+    <row r="718" spans="5:5" ht="13">
       <c r="E718" s="27"/>
     </row>
-    <row r="719" spans="5:5" ht="12.75">
+    <row r="719" spans="5:5" ht="13">
       <c r="E719" s="27"/>
     </row>
-    <row r="720" spans="5:5" ht="12.75">
+    <row r="720" spans="5:5" ht="13">
       <c r="E720" s="27"/>
     </row>
-    <row r="721" spans="5:5" ht="12.75">
+    <row r="721" spans="5:5" ht="13">
       <c r="E721" s="27"/>
     </row>
-    <row r="722" spans="5:5" ht="12.75">
+    <row r="722" spans="5:5" ht="13">
       <c r="E722" s="27"/>
     </row>
-    <row r="723" spans="5:5" ht="12.75">
+    <row r="723" spans="5:5" ht="13">
       <c r="E723" s="27"/>
     </row>
-    <row r="724" spans="5:5" ht="12.75">
+    <row r="724" spans="5:5" ht="13">
       <c r="E724" s="27"/>
     </row>
-    <row r="725" spans="5:5" ht="12.75">
+    <row r="725" spans="5:5" ht="13">
       <c r="E725" s="27"/>
     </row>
-    <row r="726" spans="5:5" ht="12.75">
+    <row r="726" spans="5:5" ht="13">
       <c r="E726" s="27"/>
     </row>
-    <row r="727" spans="5:5" ht="12.75">
+    <row r="727" spans="5:5" ht="13">
       <c r="E727" s="27"/>
     </row>
-    <row r="728" spans="5:5" ht="12.75">
+    <row r="728" spans="5:5" ht="13">
       <c r="E728" s="27"/>
     </row>
-    <row r="729" spans="5:5" ht="12.75">
+    <row r="729" spans="5:5" ht="13">
       <c r="E729" s="27"/>
     </row>
-    <row r="730" spans="5:5" ht="12.75">
+    <row r="730" spans="5:5" ht="13">
       <c r="E730" s="27"/>
     </row>
-    <row r="731" spans="5:5" ht="12.75">
+    <row r="731" spans="5:5" ht="13">
       <c r="E731" s="27"/>
     </row>
-    <row r="732" spans="5:5" ht="12.75">
+    <row r="732" spans="5:5" ht="13">
       <c r="E732" s="27"/>
     </row>
-    <row r="733" spans="5:5" ht="12.75">
+    <row r="733" spans="5:5" ht="13">
       <c r="E733" s="27"/>
     </row>
-    <row r="734" spans="5:5" ht="12.75">
+    <row r="734" spans="5:5" ht="13">
       <c r="E734" s="27"/>
     </row>
-    <row r="735" spans="5:5" ht="12.75">
+    <row r="735" spans="5:5" ht="13">
       <c r="E735" s="27"/>
     </row>
-    <row r="736" spans="5:5" ht="12.75">
+    <row r="736" spans="5:5" ht="13">
       <c r="E736" s="27"/>
     </row>
-    <row r="737" spans="5:5" ht="12.75">
+    <row r="737" spans="5:5" ht="13">
       <c r="E737" s="27"/>
     </row>
-    <row r="738" spans="5:5" ht="12.75">
+    <row r="738" spans="5:5" ht="13">
       <c r="E738" s="27"/>
     </row>
-    <row r="739" spans="5:5" ht="12.75">
+    <row r="739" spans="5:5" ht="13">
       <c r="E739" s="27"/>
     </row>
-    <row r="740" spans="5:5" ht="12.75">
+    <row r="740" spans="5:5" ht="13">
       <c r="E740" s="27"/>
     </row>
-    <row r="741" spans="5:5" ht="12.75">
+    <row r="741" spans="5:5" ht="13">
       <c r="E741" s="27"/>
     </row>
-    <row r="742" spans="5:5" ht="12.75">
+    <row r="742" spans="5:5" ht="13">
       <c r="E742" s="27"/>
     </row>
-    <row r="743" spans="5:5" ht="12.75">
+    <row r="743" spans="5:5" ht="13">
       <c r="E743" s="27"/>
     </row>
-    <row r="744" spans="5:5" ht="12.75">
+    <row r="744" spans="5:5" ht="13">
       <c r="E744" s="27"/>
     </row>
-    <row r="745" spans="5:5" ht="12.75">
+    <row r="745" spans="5:5" ht="13">
       <c r="E745" s="27"/>
     </row>
-    <row r="746" spans="5:5" ht="12.75">
+    <row r="746" spans="5:5" ht="13">
       <c r="E746" s="27"/>
     </row>
-    <row r="747" spans="5:5" ht="12.75">
+    <row r="747" spans="5:5" ht="13">
       <c r="E747" s="27"/>
     </row>
-    <row r="748" spans="5:5" ht="12.75">
+    <row r="748" spans="5:5" ht="13">
       <c r="E748" s="27"/>
     </row>
-    <row r="749" spans="5:5" ht="12.75">
+    <row r="749" spans="5:5" ht="13">
       <c r="E749" s="27"/>
     </row>
-    <row r="750" spans="5:5" ht="12.75">
+    <row r="750" spans="5:5" ht="13">
       <c r="E750" s="27"/>
     </row>
-    <row r="751" spans="5:5" ht="12.75">
+    <row r="751" spans="5:5" ht="13">
       <c r="E751" s="27"/>
     </row>
-    <row r="752" spans="5:5" ht="12.75">
+    <row r="752" spans="5:5" ht="13">
       <c r="E752" s="27"/>
     </row>
-    <row r="753" spans="5:5" ht="12.75">
+    <row r="753" spans="5:5" ht="13">
       <c r="E753" s="27"/>
     </row>
-    <row r="754" spans="5:5" ht="12.75">
+    <row r="754" spans="5:5" ht="13">
       <c r="E754" s="27"/>
     </row>
-    <row r="755" spans="5:5" ht="12.75">
+    <row r="755" spans="5:5" ht="13">
       <c r="E755" s="27"/>
     </row>
-    <row r="756" spans="5:5" ht="12.75">
+    <row r="756" spans="5:5" ht="13">
       <c r="E756" s="27"/>
     </row>
-    <row r="757" spans="5:5" ht="12.75">
+    <row r="757" spans="5:5" ht="13">
       <c r="E757" s="27"/>
     </row>
-    <row r="758" spans="5:5" ht="12.75">
+    <row r="758" spans="5:5" ht="13">
       <c r="E758" s="27"/>
     </row>
-    <row r="759" spans="5:5" ht="12.75">
+    <row r="759" spans="5:5" ht="13">
       <c r="E759" s="27"/>
     </row>
-    <row r="760" spans="5:5" ht="12.75">
+    <row r="760" spans="5:5" ht="13">
       <c r="E760" s="27"/>
     </row>
-    <row r="761" spans="5:5" ht="12.75">
+    <row r="761" spans="5:5" ht="13">
       <c r="E761" s="27"/>
     </row>
-    <row r="762" spans="5:5" ht="12.75">
+    <row r="762" spans="5:5" ht="13">
       <c r="E762" s="27"/>
     </row>
-    <row r="763" spans="5:5" ht="12.75">
+    <row r="763" spans="5:5" ht="13">
       <c r="E763" s="27"/>
     </row>
-    <row r="764" spans="5:5" ht="12.75">
+    <row r="764" spans="5:5" ht="13">
       <c r="E764" s="27"/>
     </row>
-    <row r="765" spans="5:5" ht="12.75">
+    <row r="765" spans="5:5" ht="13">
       <c r="E765" s="27"/>
     </row>
-    <row r="766" spans="5:5" ht="12.75">
+    <row r="766" spans="5:5" ht="13">
       <c r="E766" s="27"/>
     </row>
-    <row r="767" spans="5:5" ht="12.75">
+    <row r="767" spans="5:5" ht="13">
       <c r="E767" s="27"/>
     </row>
-    <row r="768" spans="5:5" ht="12.75">
+    <row r="768" spans="5:5" ht="13">
       <c r="E768" s="27"/>
     </row>
-    <row r="769" spans="5:5" ht="12.75">
+    <row r="769" spans="5:5" ht="13">
       <c r="E769" s="27"/>
     </row>
-    <row r="770" spans="5:5" ht="12.75">
+    <row r="770" spans="5:5" ht="13">
       <c r="E770" s="27"/>
     </row>
-    <row r="771" spans="5:5" ht="12.75">
+    <row r="771" spans="5:5" ht="13">
       <c r="E771" s="27"/>
     </row>
-    <row r="772" spans="5:5" ht="12.75">
+    <row r="772" spans="5:5" ht="13">
       <c r="E772" s="27"/>
     </row>
-    <row r="773" spans="5:5" ht="12.75">
+    <row r="773" spans="5:5" ht="13">
       <c r="E773" s="27"/>
     </row>
-    <row r="774" spans="5:5" ht="12.75">
+    <row r="774" spans="5:5" ht="13">
       <c r="E774" s="27"/>
     </row>
-    <row r="775" spans="5:5" ht="12.75">
+    <row r="775" spans="5:5" ht="13">
       <c r="E775" s="27"/>
     </row>
-    <row r="776" spans="5:5" ht="12.75">
+    <row r="776" spans="5:5" ht="13">
       <c r="E776" s="27"/>
     </row>
-    <row r="777" spans="5:5" ht="12.75">
+    <row r="777" spans="5:5" ht="13">
       <c r="E777" s="27"/>
     </row>
-    <row r="778" spans="5:5" ht="12.75">
+    <row r="778" spans="5:5" ht="13">
       <c r="E778" s="27"/>
     </row>
-    <row r="779" spans="5:5" ht="12.75">
+    <row r="779" spans="5:5" ht="13">
       <c r="E779" s="27"/>
     </row>
-    <row r="780" spans="5:5" ht="12.75">
+    <row r="780" spans="5:5" ht="13">
       <c r="E780" s="27"/>
     </row>
-    <row r="781" spans="5:5" ht="12.75">
+    <row r="781" spans="5:5" ht="13">
       <c r="E781" s="27"/>
     </row>
-    <row r="782" spans="5:5" ht="12.75">
+    <row r="782" spans="5:5" ht="13">
       <c r="E782" s="27"/>
     </row>
-    <row r="783" spans="5:5" ht="12.75">
+    <row r="783" spans="5:5" ht="13">
       <c r="E783" s="27"/>
     </row>
-    <row r="784" spans="5:5" ht="12.75">
+    <row r="784" spans="5:5" ht="13">
       <c r="E784" s="27"/>
     </row>
-    <row r="785" spans="5:5" ht="12.75">
+    <row r="785" spans="5:5" ht="13">
       <c r="E785" s="27"/>
     </row>
-    <row r="786" spans="5:5" ht="12.75">
+    <row r="786" spans="5:5" ht="13">
       <c r="E786" s="27"/>
     </row>
-    <row r="787" spans="5:5" ht="12.75">
+    <row r="787" spans="5:5" ht="13">
       <c r="E787" s="27"/>
     </row>
-    <row r="788" spans="5:5" ht="12.75">
+    <row r="788" spans="5:5" ht="13">
       <c r="E788" s="27"/>
     </row>
-    <row r="789" spans="5:5" ht="12.75">
+    <row r="789" spans="5:5" ht="13">
       <c r="E789" s="27"/>
     </row>
-    <row r="790" spans="5:5" ht="12.75">
+    <row r="790" spans="5:5" ht="13">
       <c r="E790" s="27"/>
     </row>
-    <row r="791" spans="5:5" ht="12.75">
+    <row r="791" spans="5:5" ht="13">
       <c r="E791" s="27"/>
     </row>
-    <row r="792" spans="5:5" ht="12.75">
+    <row r="792" spans="5:5" ht="13">
       <c r="E792" s="27"/>
     </row>
-    <row r="793" spans="5:5" ht="12.75">
+    <row r="793" spans="5:5" ht="13">
       <c r="E793" s="27"/>
     </row>
-    <row r="794" spans="5:5" ht="12.75">
+    <row r="794" spans="5:5" ht="13">
       <c r="E794" s="27"/>
     </row>
-    <row r="795" spans="5:5" ht="12.75">
+    <row r="795" spans="5:5" ht="13">
       <c r="E795" s="27"/>
     </row>
-    <row r="796" spans="5:5" ht="12.75">
+    <row r="796" spans="5:5" ht="13">
       <c r="E796" s="27"/>
     </row>
-    <row r="797" spans="5:5" ht="12.75">
+    <row r="797" spans="5:5" ht="13">
       <c r="E797" s="27"/>
     </row>
-    <row r="798" spans="5:5" ht="12.75">
+    <row r="798" spans="5:5" ht="13">
       <c r="E798" s="27"/>
     </row>
-    <row r="799" spans="5:5" ht="12.75">
+    <row r="799" spans="5:5" ht="13">
       <c r="E799" s="27"/>
     </row>
-    <row r="800" spans="5:5" ht="12.75">
+    <row r="800" spans="5:5" ht="13">
       <c r="E800" s="27"/>
     </row>
-    <row r="801" spans="5:5" ht="12.75">
+    <row r="801" spans="5:5" ht="13">
       <c r="E801" s="27"/>
     </row>
-    <row r="802" spans="5:5" ht="12.75">
+    <row r="802" spans="5:5" ht="13">
       <c r="E802" s="27"/>
     </row>
-    <row r="803" spans="5:5" ht="12.75">
+    <row r="803" spans="5:5" ht="13">
       <c r="E803" s="27"/>
     </row>
-    <row r="804" spans="5:5" ht="12.75">
+    <row r="804" spans="5:5" ht="13">
       <c r="E804" s="27"/>
     </row>
-    <row r="805" spans="5:5" ht="12.75">
+    <row r="805" spans="5:5" ht="13">
       <c r="E805" s="27"/>
     </row>
-    <row r="806" spans="5:5" ht="12.75">
+    <row r="806" spans="5:5" ht="13">
       <c r="E806" s="27"/>
     </row>
-    <row r="807" spans="5:5" ht="12.75">
+    <row r="807" spans="5:5" ht="13">
       <c r="E807" s="27"/>
     </row>
-    <row r="808" spans="5:5" ht="12.75">
+    <row r="808" spans="5:5" ht="13">
       <c r="E808" s="27"/>
     </row>
-    <row r="809" spans="5:5" ht="12.75">
+    <row r="809" spans="5:5" ht="13">
       <c r="E809" s="27"/>
     </row>
-    <row r="810" spans="5:5" ht="12.75">
+    <row r="810" spans="5:5" ht="13">
       <c r="E810" s="27"/>
     </row>
-    <row r="811" spans="5:5" ht="12.75">
+    <row r="811" spans="5:5" ht="13">
       <c r="E811" s="27"/>
     </row>
-    <row r="812" spans="5:5" ht="12.75">
+    <row r="812" spans="5:5" ht="13">
       <c r="E812" s="27"/>
     </row>
-    <row r="813" spans="5:5" ht="12.75">
+    <row r="813" spans="5:5" ht="13">
       <c r="E813" s="27"/>
     </row>
-    <row r="814" spans="5:5" ht="12.75">
+    <row r="814" spans="5:5" ht="13">
       <c r="E814" s="27"/>
     </row>
-    <row r="815" spans="5:5" ht="12.75">
+    <row r="815" spans="5:5" ht="13">
       <c r="E815" s="27"/>
     </row>
-    <row r="816" spans="5:5" ht="12.75">
+    <row r="816" spans="5:5" ht="13">
       <c r="E816" s="27"/>
     </row>
-    <row r="817" spans="5:5" ht="12.75">
+    <row r="817" spans="5:5" ht="13">
       <c r="E817" s="27"/>
     </row>
-    <row r="818" spans="5:5" ht="12.75">
+    <row r="818" spans="5:5" ht="13">
       <c r="E818" s="27"/>
     </row>
-    <row r="819" spans="5:5" ht="12.75">
+    <row r="819" spans="5:5" ht="13">
       <c r="E819" s="27"/>
     </row>
-    <row r="820" spans="5:5" ht="12.75">
+    <row r="820" spans="5:5" ht="13">
       <c r="E820" s="27"/>
     </row>
-    <row r="821" spans="5:5" ht="12.75">
+    <row r="821" spans="5:5" ht="13">
       <c r="E821" s="27"/>
     </row>
-    <row r="822" spans="5:5" ht="12.75">
+    <row r="822" spans="5:5" ht="13">
       <c r="E822" s="27"/>
     </row>
-    <row r="823" spans="5:5" ht="12.75">
+    <row r="823" spans="5:5" ht="13">
       <c r="E823" s="27"/>
     </row>
-    <row r="824" spans="5:5" ht="12.75">
+    <row r="824" spans="5:5" ht="13">
       <c r="E824" s="27"/>
     </row>
-    <row r="825" spans="5:5" ht="12.75">
+    <row r="825" spans="5:5" ht="13">
       <c r="E825" s="27"/>
     </row>
-    <row r="826" spans="5:5" ht="12.75">
+    <row r="826" spans="5:5" ht="13">
       <c r="E826" s="27"/>
     </row>
-    <row r="827" spans="5:5" ht="12.75">
+    <row r="827" spans="5:5" ht="13">
       <c r="E827" s="27"/>
     </row>
-    <row r="828" spans="5:5" ht="12.75">
+    <row r="828" spans="5:5" ht="13">
       <c r="E828" s="27"/>
     </row>
-    <row r="829" spans="5:5" ht="12.75">
+    <row r="829" spans="5:5" ht="13">
       <c r="E829" s="27"/>
     </row>
-    <row r="830" spans="5:5" ht="12.75">
+    <row r="830" spans="5:5" ht="13">
       <c r="E830" s="27"/>
     </row>
-    <row r="831" spans="5:5" ht="12.75">
+    <row r="831" spans="5:5" ht="13">
       <c r="E831" s="27"/>
     </row>
-    <row r="832" spans="5:5" ht="12.75">
+    <row r="832" spans="5:5" ht="13">
       <c r="E832" s="27"/>
     </row>
-    <row r="833" spans="5:5" ht="12.75">
+    <row r="833" spans="5:5" ht="13">
       <c r="E833" s="27"/>
     </row>
-    <row r="834" spans="5:5" ht="12.75">
+    <row r="834" spans="5:5" ht="13">
       <c r="E834" s="27"/>
     </row>
-    <row r="835" spans="5:5" ht="12.75">
+    <row r="835" spans="5:5" ht="13">
       <c r="E835" s="27"/>
     </row>
-    <row r="836" spans="5:5" ht="12.75">
+    <row r="836" spans="5:5" ht="13">
       <c r="E836" s="27"/>
     </row>
-    <row r="837" spans="5:5" ht="12.75">
+    <row r="837" spans="5:5" ht="13">
       <c r="E837" s="27"/>
     </row>
-    <row r="838" spans="5:5" ht="12.75">
+    <row r="838" spans="5:5" ht="13">
       <c r="E838" s="27"/>
     </row>
-    <row r="839" spans="5:5" ht="12.75">
+    <row r="839" spans="5:5" ht="13">
       <c r="E839" s="27"/>
     </row>
-    <row r="840" spans="5:5" ht="12.75">
+    <row r="840" spans="5:5" ht="13">
       <c r="E840" s="27"/>
     </row>
-    <row r="841" spans="5:5" ht="12.75">
+    <row r="841" spans="5:5" ht="13">
       <c r="E841" s="27"/>
     </row>
-    <row r="842" spans="5:5" ht="12.75">
+    <row r="842" spans="5:5" ht="13">
       <c r="E842" s="27"/>
     </row>
-    <row r="843" spans="5:5" ht="12.75">
+    <row r="843" spans="5:5" ht="13">
       <c r="E843" s="27"/>
     </row>
-    <row r="844" spans="5:5" ht="12.75">
+    <row r="844" spans="5:5" ht="13">
       <c r="E844" s="27"/>
     </row>
-    <row r="845" spans="5:5" ht="12.75">
+    <row r="845" spans="5:5" ht="13">
       <c r="E845" s="27"/>
     </row>
-    <row r="846" spans="5:5" ht="12.75">
+    <row r="846" spans="5:5" ht="13">
       <c r="E846" s="27"/>
     </row>
-    <row r="847" spans="5:5" ht="12.75">
+    <row r="847" spans="5:5" ht="13">
       <c r="E847" s="27"/>
     </row>
-    <row r="848" spans="5:5" ht="12.75">
+    <row r="848" spans="5:5" ht="13">
       <c r="E848" s="27"/>
     </row>
-    <row r="849" spans="5:5" ht="12.75">
+    <row r="849" spans="5:5" ht="13">
       <c r="E849" s="27"/>
     </row>
-    <row r="850" spans="5:5" ht="12.75">
+    <row r="850" spans="5:5" ht="13">
       <c r="E850" s="27"/>
     </row>
-    <row r="851" spans="5:5" ht="12.75">
+    <row r="851" spans="5:5" ht="13">
       <c r="E851" s="27"/>
     </row>
-    <row r="852" spans="5:5" ht="12.75">
+    <row r="852" spans="5:5" ht="13">
       <c r="E852" s="27"/>
     </row>
-    <row r="853" spans="5:5" ht="12.75">
+    <row r="853" spans="5:5" ht="13">
       <c r="E853" s="27"/>
     </row>
-    <row r="854" spans="5:5" ht="12.75">
+    <row r="854" spans="5:5" ht="13">
       <c r="E854" s="27"/>
     </row>
-    <row r="855" spans="5:5" ht="12.75">
+    <row r="855" spans="5:5" ht="13">
       <c r="E855" s="27"/>
     </row>
-    <row r="856" spans="5:5" ht="12.75">
+    <row r="856" spans="5:5" ht="13">
       <c r="E856" s="27"/>
     </row>
-    <row r="857" spans="5:5" ht="12.75">
+    <row r="857" spans="5:5" ht="13">
       <c r="E857" s="27"/>
     </row>
-    <row r="858" spans="5:5" ht="12.75">
+    <row r="858" spans="5:5" ht="13">
       <c r="E858" s="27"/>
     </row>
-    <row r="859" spans="5:5" ht="12.75">
+    <row r="859" spans="5:5" ht="13">
       <c r="E859" s="27"/>
     </row>
-    <row r="860" spans="5:5" ht="12.75">
+    <row r="860" spans="5:5" ht="13">
       <c r="E860" s="27"/>
     </row>
-    <row r="861" spans="5:5" ht="12.75">
+    <row r="861" spans="5:5" ht="13">
       <c r="E861" s="27"/>
     </row>
-    <row r="862" spans="5:5" ht="12.75">
+    <row r="862" spans="5:5" ht="13">
       <c r="E862" s="27"/>
     </row>
-    <row r="863" spans="5:5" ht="12.75">
+    <row r="863" spans="5:5" ht="13">
       <c r="E863" s="27"/>
     </row>
-    <row r="864" spans="5:5" ht="12.75">
+    <row r="864" spans="5:5" ht="13">
       <c r="E864" s="27"/>
     </row>
-    <row r="865" spans="5:5" ht="12.75">
+    <row r="865" spans="5:5" ht="13">
       <c r="E865" s="27"/>
     </row>
-    <row r="866" spans="5:5" ht="12.75">
+    <row r="866" spans="5:5" ht="13">
       <c r="E866" s="27"/>
     </row>
-    <row r="867" spans="5:5" ht="12.75">
+    <row r="867" spans="5:5" ht="13">
       <c r="E867" s="27"/>
     </row>
-    <row r="868" spans="5:5" ht="12.75">
+    <row r="868" spans="5:5" ht="13">
       <c r="E868" s="27"/>
     </row>
-    <row r="869" spans="5:5" ht="12.75">
+    <row r="869" spans="5:5" ht="13">
       <c r="E869" s="27"/>
     </row>
-    <row r="870" spans="5:5" ht="12.75">
+    <row r="870" spans="5:5" ht="13">
       <c r="E870" s="27"/>
     </row>
-    <row r="871" spans="5:5" ht="12.75">
+    <row r="871" spans="5:5" ht="13">
       <c r="E871" s="27"/>
     </row>
-    <row r="872" spans="5:5" ht="12.75">
+    <row r="872" spans="5:5" ht="13">
       <c r="E872" s="27"/>
     </row>
-    <row r="873" spans="5:5" ht="12.75">
+    <row r="873" spans="5:5" ht="13">
       <c r="E873" s="27"/>
     </row>
-    <row r="874" spans="5:5" ht="12.75">
+    <row r="874" spans="5:5" ht="13">
       <c r="E874" s="27"/>
     </row>
-    <row r="875" spans="5:5" ht="12.75">
+    <row r="875" spans="5:5" ht="13">
       <c r="E875" s="27"/>
     </row>
-    <row r="876" spans="5:5" ht="12.75">
+    <row r="876" spans="5:5" ht="13">
       <c r="E876" s="27"/>
     </row>
-    <row r="877" spans="5:5" ht="12.75">
+    <row r="877" spans="5:5" ht="13">
       <c r="E877" s="27"/>
     </row>
-    <row r="878" spans="5:5" ht="12.75">
+    <row r="878" spans="5:5" ht="13">
       <c r="E878" s="27"/>
     </row>
-    <row r="879" spans="5:5" ht="12.75">
+    <row r="879" spans="5:5" ht="13">
       <c r="E879" s="27"/>
     </row>
-    <row r="880" spans="5:5" ht="12.75">
+    <row r="880" spans="5:5" ht="13">
       <c r="E880" s="27"/>
     </row>
-    <row r="881" spans="5:5" ht="12.75">
+    <row r="881" spans="5:5" ht="13">
       <c r="E881" s="27"/>
     </row>
-    <row r="882" spans="5:5" ht="12.75">
+    <row r="882" spans="5:5" ht="13">
       <c r="E882" s="27"/>
     </row>
-    <row r="883" spans="5:5" ht="12.75">
+    <row r="883" spans="5:5" ht="13">
       <c r="E883" s="27"/>
     </row>
-    <row r="884" spans="5:5" ht="12.75">
+    <row r="884" spans="5:5" ht="13">
       <c r="E884" s="27"/>
     </row>
-    <row r="885" spans="5:5" ht="12.75">
+    <row r="885" spans="5:5" ht="13">
       <c r="E885" s="27"/>
     </row>
-    <row r="886" spans="5:5" ht="12.75">
+    <row r="886" spans="5:5" ht="13">
       <c r="E886" s="27"/>
     </row>
-    <row r="887" spans="5:5" ht="12.75">
+    <row r="887" spans="5:5" ht="13">
       <c r="E887" s="27"/>
     </row>
-    <row r="888" spans="5:5" ht="12.75">
+    <row r="888" spans="5:5" ht="13">
       <c r="E888" s="27"/>
     </row>
-    <row r="889" spans="5:5" ht="12.75">
+    <row r="889" spans="5:5" ht="13">
       <c r="E889" s="27"/>
     </row>
-    <row r="890" spans="5:5" ht="12.75">
+    <row r="890" spans="5:5" ht="13">
       <c r="E890" s="27"/>
     </row>
-    <row r="891" spans="5:5" ht="12.75">
+    <row r="891" spans="5:5" ht="13">
       <c r="E891" s="27"/>
     </row>
-    <row r="892" spans="5:5" ht="12.75">
+    <row r="892" spans="5:5" ht="13">
       <c r="E892" s="27"/>
     </row>
-    <row r="893" spans="5:5" ht="12.75">
+    <row r="893" spans="5:5" ht="13">
       <c r="E893" s="27"/>
     </row>
-    <row r="894" spans="5:5" ht="12.75">
+    <row r="894" spans="5:5" ht="13">
       <c r="E894" s="27"/>
     </row>
-    <row r="895" spans="5:5" ht="12.75">
+    <row r="895" spans="5:5" ht="13">
       <c r="E895" s="27"/>
     </row>
-    <row r="896" spans="5:5" ht="12.75">
+    <row r="896" spans="5:5" ht="13">
       <c r="E896" s="27"/>
     </row>
-    <row r="897" spans="5:5" ht="12.75">
+    <row r="897" spans="5:5" ht="13">
       <c r="E897" s="27"/>
     </row>
-    <row r="898" spans="5:5" ht="12.75">
+    <row r="898" spans="5:5" ht="13">
       <c r="E898" s="27"/>
     </row>
-    <row r="899" spans="5:5" ht="12.75">
+    <row r="899" spans="5:5" ht="13">
       <c r="E899" s="27"/>
     </row>
-    <row r="900" spans="5:5" ht="12.75">
+    <row r="900" spans="5:5" ht="13">
       <c r="E900" s="27"/>
     </row>
-    <row r="901" spans="5:5" ht="12.75">
+    <row r="901" spans="5:5" ht="13">
       <c r="E901" s="27"/>
     </row>
-    <row r="902" spans="5:5" ht="12.75">
+    <row r="902" spans="5:5" ht="13">
       <c r="E902" s="27"/>
     </row>
-    <row r="903" spans="5:5" ht="12.75">
+    <row r="903" spans="5:5" ht="13">
       <c r="E903" s="27"/>
     </row>
-    <row r="904" spans="5:5" ht="12.75">
+    <row r="904" spans="5:5" ht="13">
       <c r="E904" s="27"/>
     </row>
-    <row r="905" spans="5:5" ht="12.75">
+    <row r="905" spans="5:5" ht="13">
       <c r="E905" s="27"/>
     </row>
-    <row r="906" spans="5:5" ht="12.75">
+    <row r="906" spans="5:5" ht="13">
       <c r="E906" s="27"/>
     </row>
-    <row r="907" spans="5:5" ht="12.75">
+    <row r="907" spans="5:5" ht="13">
       <c r="E907" s="27"/>
     </row>
-    <row r="908" spans="5:5" ht="12.75">
+    <row r="908" spans="5:5" ht="13">
       <c r="E908" s="27"/>
     </row>
-    <row r="909" spans="5:5" ht="12.75">
+    <row r="909" spans="5:5" ht="13">
       <c r="E909" s="27"/>
     </row>
-    <row r="910" spans="5:5" ht="12.75">
+    <row r="910" spans="5:5" ht="13">
       <c r="E910" s="27"/>
     </row>
-    <row r="911" spans="5:5" ht="12.75">
+    <row r="911" spans="5:5" ht="13">
       <c r="E911" s="27"/>
     </row>
-    <row r="912" spans="5:5" ht="12.75">
+    <row r="912" spans="5:5" ht="13">
       <c r="E912" s="27"/>
     </row>
-    <row r="913" spans="5:5" ht="12.75">
+    <row r="913" spans="5:5" ht="13">
       <c r="E913" s="27"/>
     </row>
-    <row r="914" spans="5:5" ht="12.75">
+    <row r="914" spans="5:5" ht="13">
       <c r="E914" s="27"/>
     </row>
-    <row r="915" spans="5:5" ht="12.75">
+    <row r="915" spans="5:5" ht="13">
       <c r="E915" s="27"/>
     </row>
-    <row r="916" spans="5:5" ht="12.75">
+    <row r="916" spans="5:5" ht="13">
       <c r="E916" s="27"/>
     </row>
-    <row r="917" spans="5:5" ht="12.75">
+    <row r="917" spans="5:5" ht="13">
       <c r="E917" s="27"/>
     </row>
-    <row r="918" spans="5:5" ht="12.75">
+    <row r="918" spans="5:5" ht="13">
       <c r="E918" s="27"/>
     </row>
-    <row r="919" spans="5:5" ht="12.75">
+    <row r="919" spans="5:5" ht="13">
       <c r="E919" s="27"/>
     </row>
-    <row r="920" spans="5:5" ht="12.75">
+    <row r="920" spans="5:5" ht="13">
       <c r="E920" s="27"/>
     </row>
-    <row r="921" spans="5:5" ht="12.75">
+    <row r="921" spans="5:5" ht="13">
       <c r="E921" s="27"/>
     </row>
-    <row r="922" spans="5:5" ht="12.75">
+    <row r="922" spans="5:5" ht="13">
       <c r="E922" s="27"/>
     </row>
-    <row r="923" spans="5:5" ht="12.75">
+    <row r="923" spans="5:5" ht="13">
       <c r="E923" s="27"/>
     </row>
-    <row r="924" spans="5:5" ht="12.75">
+    <row r="924" spans="5:5" ht="13">
       <c r="E924" s="27"/>
     </row>
-    <row r="925" spans="5:5" ht="12.75">
+    <row r="925" spans="5:5" ht="13">
       <c r="E925" s="27"/>
     </row>
-    <row r="926" spans="5:5" ht="12.75">
+    <row r="926" spans="5:5" ht="13">
       <c r="E926" s="27"/>
     </row>
-    <row r="927" spans="5:5" ht="12.75">
+    <row r="927" spans="5:5" ht="13">
       <c r="E927" s="27"/>
     </row>
-    <row r="928" spans="5:5" ht="12.75">
+    <row r="928" spans="5:5" ht="13">
       <c r="E928" s="27"/>
     </row>
-    <row r="929" spans="5:5" ht="12.75">
+    <row r="929" spans="5:5" ht="13">
       <c r="E929" s="27"/>
     </row>
-    <row r="930" spans="5:5" ht="12.75">
+    <row r="930" spans="5:5" ht="13">
       <c r="E930" s="27"/>
     </row>
-    <row r="931" spans="5:5" ht="12.75">
+    <row r="931" spans="5:5" ht="13">
       <c r="E931" s="27"/>
     </row>
-    <row r="932" spans="5:5" ht="12.75">
+    <row r="932" spans="5:5" ht="13">
       <c r="E932" s="27"/>
     </row>
-    <row r="933" spans="5:5" ht="12.75">
+    <row r="933" spans="5:5" ht="13">
       <c r="E933" s="27"/>
     </row>
-    <row r="934" spans="5:5" ht="12.75">
+    <row r="934" spans="5:5" ht="13">
       <c r="E934" s="27"/>
     </row>
-    <row r="935" spans="5:5" ht="12.75">
+    <row r="935" spans="5:5" ht="13">
       <c r="E935" s="27"/>
     </row>
-    <row r="936" spans="5:5" ht="12.75">
+    <row r="936" spans="5:5" ht="13">
       <c r="E936" s="27"/>
     </row>
-    <row r="937" spans="5:5" ht="12.75">
+    <row r="937" spans="5:5" ht="13">
       <c r="E937" s="27"/>
     </row>
-    <row r="938" spans="5:5" ht="12.75">
+    <row r="938" spans="5:5" ht="13">
       <c r="E938" s="27"/>
     </row>
-    <row r="939" spans="5:5" ht="12.75">
+    <row r="939" spans="5:5" ht="13">
       <c r="E939" s="27"/>
     </row>
-    <row r="940" spans="5:5" ht="12.75">
+    <row r="940" spans="5:5" ht="13">
       <c r="E940" s="27"/>
     </row>
-    <row r="941" spans="5:5" ht="12.75">
+    <row r="941" spans="5:5" ht="13">
       <c r="E941" s="27"/>
     </row>
-    <row r="942" spans="5:5" ht="12.75">
+    <row r="942" spans="5:5" ht="13">
       <c r="E942" s="27"/>
     </row>
-    <row r="943" spans="5:5" ht="12.75">
+    <row r="943" spans="5:5" ht="13">
       <c r="E943" s="27"/>
     </row>
-    <row r="944" spans="5:5" ht="12.75">
+    <row r="944" spans="5:5" ht="13">
       <c r="E944" s="27"/>
     </row>
-    <row r="945" spans="5:5" ht="12.75">
+    <row r="945" spans="5:5" ht="13">
       <c r="E945" s="27"/>
     </row>
-    <row r="946" spans="5:5" ht="12.75">
+    <row r="946" spans="5:5" ht="13">
       <c r="E946" s="27"/>
     </row>
-    <row r="947" spans="5:5" ht="12.75">
+    <row r="947" spans="5:5" ht="13">
       <c r="E947" s="27"/>
     </row>
-    <row r="948" spans="5:5" ht="12.75">
+    <row r="948" spans="5:5" ht="13">
       <c r="E948" s="27"/>
     </row>
-    <row r="949" spans="5:5" ht="12.75">
+    <row r="949" spans="5:5" ht="13">
       <c r="E949" s="27"/>
     </row>
-    <row r="950" spans="5:5" ht="12.75">
+    <row r="950" spans="5:5" ht="13">
       <c r="E950" s="27"/>
     </row>
-    <row r="951" spans="5:5" ht="12.75">
+    <row r="951" spans="5:5" ht="13">
       <c r="E951" s="27"/>
     </row>
-    <row r="952" spans="5:5" ht="12.75">
+    <row r="952" spans="5:5" ht="13">
       <c r="E952" s="27"/>
     </row>
-    <row r="953" spans="5:5" ht="12.75">
+    <row r="953" spans="5:5" ht="13">
       <c r="E953" s="27"/>
     </row>
-    <row r="954" spans="5:5" ht="12.75">
+    <row r="954" spans="5:5" ht="13">
       <c r="E954" s="27"/>
     </row>
-    <row r="955" spans="5:5" ht="12.75">
+    <row r="955" spans="5:5" ht="13">
       <c r="E955" s="27"/>
     </row>
-    <row r="956" spans="5:5" ht="12.75">
+    <row r="956" spans="5:5" ht="13">
       <c r="E956" s="27"/>
     </row>
-    <row r="957" spans="5:5" ht="12.75">
+    <row r="957" spans="5:5" ht="13">
       <c r="E957" s="27"/>
     </row>
-    <row r="958" spans="5:5" ht="12.75">
+    <row r="958" spans="5:5" ht="13">
       <c r="E958" s="27"/>
     </row>
-    <row r="959" spans="5:5" ht="12.75">
+    <row r="959" spans="5:5" ht="13">
       <c r="E959" s="27"/>
     </row>
-    <row r="960" spans="5:5" ht="12.75">
+    <row r="960" spans="5:5" ht="13">
       <c r="E960" s="27"/>
     </row>
-    <row r="961" spans="5:5" ht="12.75">
+    <row r="961" spans="5:5" ht="13">
       <c r="E961" s="27"/>
     </row>
-    <row r="962" spans="5:5" ht="12.75">
+    <row r="962" spans="5:5" ht="13">
       <c r="E962" s="27"/>
     </row>
-    <row r="963" spans="5:5" ht="12.75">
+    <row r="963" spans="5:5" ht="13">
       <c r="E963" s="27"/>
     </row>
-    <row r="964" spans="5:5" ht="12.75">
+    <row r="964" spans="5:5" ht="13">
       <c r="E964" s="27"/>
     </row>
-    <row r="965" spans="5:5" ht="12.75">
+    <row r="965" spans="5:5" ht="13">
       <c r="E965" s="27"/>
     </row>
-    <row r="966" spans="5:5" ht="12.75">
+    <row r="966" spans="5:5" ht="13">
       <c r="E966" s="27"/>
     </row>
-    <row r="967" spans="5:5" ht="12.75">
+    <row r="967" spans="5:5" ht="13">
       <c r="E967" s="27"/>
     </row>
-    <row r="968" spans="5:5" ht="12.75">
+    <row r="968" spans="5:5" ht="13">
       <c r="E968" s="27"/>
     </row>
-    <row r="969" spans="5:5" ht="12.75">
+    <row r="969" spans="5:5" ht="13">
       <c r="E969" s="27"/>
     </row>
-    <row r="970" spans="5:5" ht="12.75">
+    <row r="970" spans="5:5" ht="13">
       <c r="E970" s="27"/>
     </row>
-    <row r="971" spans="5:5" ht="12.75">
+    <row r="971" spans="5:5" ht="13">
       <c r="E971" s="27"/>
     </row>
-    <row r="972" spans="5:5" ht="12.75">
+    <row r="972" spans="5:5" ht="13">
       <c r="E972" s="27"/>
     </row>
-    <row r="973" spans="5:5" ht="12.75">
+    <row r="973" spans="5:5" ht="13">
       <c r="E973" s="27"/>
     </row>
-    <row r="974" spans="5:5" ht="12.75">
+    <row r="974" spans="5:5" ht="13">
       <c r="E974" s="27"/>
     </row>
-    <row r="975" spans="5:5" ht="12.75">
+    <row r="975" spans="5:5" ht="13">
       <c r="E975" s="27"/>
     </row>
-    <row r="976" spans="5:5" ht="12.75">
+    <row r="976" spans="5:5" ht="13">
       <c r="E976" s="27"/>
     </row>
-    <row r="977" spans="5:5" ht="12.75">
+    <row r="977" spans="5:5" ht="13">
       <c r="E977" s="27"/>
     </row>
-    <row r="978" spans="5:5" ht="12.75">
+    <row r="978" spans="5:5" ht="13">
       <c r="E978" s="27"/>
     </row>
-    <row r="979" spans="5:5" ht="12.75">
+    <row r="979" spans="5:5" ht="13">
       <c r="E979" s="27"/>
     </row>
-    <row r="980" spans="5:5" ht="12.75">
+    <row r="980" spans="5:5" ht="13">
       <c r="E980" s="27"/>
     </row>
-    <row r="981" spans="5:5" ht="12.75">
+    <row r="981" spans="5:5" ht="13">
       <c r="E981" s="27"/>
     </row>
-    <row r="982" spans="5:5" ht="12.75">
+    <row r="982" spans="5:5" ht="13">
       <c r="E982" s="27"/>
     </row>
-    <row r="983" spans="5:5" ht="12.75">
+    <row r="983" spans="5:5" ht="13">
       <c r="E983" s="27"/>
     </row>
-    <row r="984" spans="5:5" ht="12.75">
+    <row r="984" spans="5:5" ht="13">
       <c r="E984" s="27"/>
     </row>
-    <row r="985" spans="5:5" ht="12.75">
+    <row r="985" spans="5:5" ht="13">
       <c r="E985" s="27"/>
     </row>
-    <row r="986" spans="5:5" ht="12.75">
+    <row r="986" spans="5:5" ht="13">
       <c r="E986" s="27"/>
     </row>
-    <row r="987" spans="5:5" ht="12.75">
+    <row r="987" spans="5:5" ht="13">
       <c r="E987" s="27"/>
     </row>
-    <row r="988" spans="5:5" ht="12.75">
+    <row r="988" spans="5:5" ht="13">
       <c r="E988" s="27"/>
     </row>
-    <row r="989" spans="5:5" ht="12.75">
+    <row r="989" spans="5:5" ht="13">
       <c r="E989" s="27"/>
     </row>
-    <row r="990" spans="5:5" ht="12.75">
+    <row r="990" spans="5:5" ht="13">
       <c r="E990" s="27"/>
     </row>
-    <row r="991" spans="5:5" ht="12.75">
+    <row r="991" spans="5:5" ht="13">
       <c r="E991" s="27"/>
     </row>
-    <row r="992" spans="5:5" ht="12.75">
+    <row r="992" spans="5:5" ht="13">
       <c r="E992" s="27"/>
     </row>
-    <row r="993" spans="5:5" ht="12.75">
+    <row r="993" spans="5:5" ht="13">
       <c r="E993" s="27"/>
     </row>
-    <row r="994" spans="5:5" ht="12.75">
+    <row r="994" spans="5:5" ht="13">
       <c r="E994" s="27"/>
     </row>
-    <row r="995" spans="5:5" ht="12.75">
+    <row r="995" spans="5:5" ht="13">
       <c r="E995" s="27"/>
     </row>
-    <row r="996" spans="5:5" ht="12.75">
+    <row r="996" spans="5:5" ht="13">
       <c r="E996" s="27"/>
     </row>
-    <row r="997" spans="5:5" ht="12.75">
+    <row r="997" spans="5:5" ht="13">
       <c r="E997" s="27"/>
     </row>
-    <row r="998" spans="5:5" ht="12.75">
+    <row r="998" spans="5:5" ht="13">
       <c r="E998" s="27"/>
     </row>
-    <row r="999" spans="5:5" ht="12.75">
+    <row r="999" spans="5:5" ht="13">
       <c r="E999" s="27"/>
     </row>
-    <row r="1000" spans="5:5" ht="12.75">
+    <row r="1000" spans="5:5" ht="13">
       <c r="E1000" s="27"/>
     </row>
-    <row r="1001" spans="5:5" ht="12.75">
+    <row r="1001" spans="5:5" ht="13">
       <c r="E1001" s="27"/>
     </row>
   </sheetData>
@@ -5444,10 +5355,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
@@ -5468,12 +5379,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5485,18 +5393,15 @@
       <c r="D2" s="3">
         <v>-77.016400000000004</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="2">
         <v>11</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5508,18 +5413,15 @@
       <c r="D3" s="4">
         <v>-73.981399999999994</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>51000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>36</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5531,18 +5433,15 @@
       <c r="D4" s="4">
         <v>-71.059799999999996</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F4" s="2">
         <v>25</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5554,18 +5453,15 @@
       <c r="D5" s="4">
         <v>-87.650099999999995</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>14000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>17</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5577,22 +5473,22 @@
       <c r="D6" s="4">
         <v>-118.244</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>44000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>230</v>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
+      <c r="A7" s="42" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>35.772100000000002</v>
@@ -5600,22 +5496,19 @@
       <c r="D7" s="4">
         <v>-78.638599999999997</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>55000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>37</v>
       </c>
-      <c r="G7" s="47" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
+      <c r="A8" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>30.267150000000001</v>
@@ -5623,22 +5516,19 @@
       <c r="D8" s="4">
         <v>-97.743099999999998</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="2">
         <v>48</v>
       </c>
-      <c r="G8" s="47" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
+      <c r="A9" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>33.749000000000002</v>
@@ -5646,112 +5536,113 @@
       <c r="D9" s="4">
         <v>-84.388000000000005</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="2">
         <v>13</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:F9" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75">
+    <row r="1" spans="1:26" ht="13">
       <c r="A1" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="12.75">
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="13">
       <c r="A2" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14">
       <c r="A3" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="14.25">
+        <v>29</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="13">
       <c r="A4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="12.75">
-      <c r="A5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="16.5">
-      <c r="A6" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="31" t="s">
+    </row>
+    <row r="5" spans="1:26" ht="17">
+      <c r="A5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="B5" s="31" t="s">
         <v>34</v>
       </c>
+      <c r="C5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="14">
+      <c r="A6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5774,21 +5665,18 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" ht="16.5">
+    </row>
+    <row r="7" spans="1:26" ht="14">
       <c r="A7" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5811,21 +5699,18 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" ht="16.5">
-      <c r="A8" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14">
+      <c r="A8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5848,21 +5733,18 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-    </row>
-    <row r="9" spans="1:27" ht="16.5">
-      <c r="A9" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>208</v>
-      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14">
+      <c r="A9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5885,132 +5767,114 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-    </row>
-    <row r="10" spans="1:27" ht="16.5">
-      <c r="A10" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-    </row>
-    <row r="11" spans="1:27" ht="16.5">
-      <c r="A11" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-    </row>
-    <row r="12" spans="1:27" ht="16.5">
-      <c r="A12" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-    </row>
-    <row r="13" spans="1:27" ht="15">
+    </row>
+    <row r="10" spans="1:26" ht="14">
+      <c r="A10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" ht="14">
+      <c r="A11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" ht="14">
+      <c r="A12" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13" spans="1:26" ht="14">
       <c r="A13" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -6033,18 +5897,15 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" ht="15">
+    </row>
+    <row r="14" spans="1:26" ht="14">
       <c r="A14" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>41</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -6068,18 +5929,15 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" ht="15">
+    </row>
+    <row r="15" spans="1:26" ht="14">
       <c r="A15" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>42</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -6103,18 +5961,15 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" ht="15">
+    </row>
+    <row r="16" spans="1:26" ht="14">
       <c r="A16" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>43</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -6138,123 +5993,111 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-    </row>
-    <row r="17" spans="1:27" ht="15">
-      <c r="A17" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-    </row>
-    <row r="18" spans="1:27" ht="15">
-      <c r="A18" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-    </row>
-    <row r="19" spans="1:27" ht="15">
-      <c r="A19" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-    </row>
-    <row r="20" spans="1:27" ht="14.25">
-      <c r="A20" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14">
+      <c r="A17" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="1:26" ht="13">
+      <c r="A18" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="1:26" ht="13">
+      <c r="A19" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+    </row>
+    <row r="20" spans="1:26" ht="13">
+      <c r="A20" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -6278,18 +6121,15 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-    </row>
-    <row r="21" spans="1:27" ht="12.75">
+    </row>
+    <row r="21" spans="1:26" ht="13">
       <c r="A21" s="37" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>49</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6313,18 +6153,15 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-    </row>
-    <row r="22" spans="1:27" ht="12.75">
-      <c r="A22" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="22" spans="1:26" ht="13">
+      <c r="A22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -6348,18 +6185,15 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-    </row>
-    <row r="23" spans="1:27" ht="12.75">
+    </row>
+    <row r="23" spans="1:26" ht="13">
       <c r="A23" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>51</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -6383,18 +6217,15 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="1:27" ht="12.75">
+    </row>
+    <row r="24" spans="1:26" ht="13">
       <c r="A24" s="37" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>52</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -6418,18 +6249,15 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:27" ht="12.75">
-      <c r="A25" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13">
+      <c r="A25" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -6453,126 +6281,120 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-    </row>
-    <row r="26" spans="1:27" ht="12.75">
-      <c r="A26" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-    </row>
-    <row r="27" spans="1:27" ht="12.75">
-      <c r="A27" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-    </row>
-    <row r="28" spans="1:27" ht="12.75">
-      <c r="A28" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-    </row>
-    <row r="29" spans="1:27" ht="12.75">
-      <c r="A29" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13">
+      <c r="A26" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+    </row>
+    <row r="27" spans="1:26" ht="13">
+      <c r="A27" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+    </row>
+    <row r="28" spans="1:26" ht="13">
+      <c r="A28" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+    </row>
+    <row r="29" spans="1:26" ht="13">
+      <c r="A29" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -6595,21 +6417,18 @@
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-    </row>
-    <row r="30" spans="1:27" ht="12.75">
-      <c r="A30" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="30" spans="1:26" ht="13">
+      <c r="A30" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -6632,448 +6451,8 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-    </row>
-    <row r="31" spans="1:27" ht="12.75">
-      <c r="A31" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-    </row>
-    <row r="32" spans="1:27" ht="12.75">
-      <c r="A32" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-    </row>
-    <row r="33" spans="1:27" ht="12.75">
-      <c r="A33" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1ED728-0DAC-462B-8BCA-D3A63DBEE251}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3">
-        <v>568.9</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>222.2</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>303.5</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <v>510.7</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
-        <v>347.1</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <v>259.8</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>312.7</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
-        <v>591.79999999999995</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247902CA-B8DB-4C41-AB71-1C7A190FF973}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="45">
-        <v>69.44</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>71.73</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>68.959999999999994</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" thickBot="1">
-      <c r="A5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <v>70.569999999999993</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" thickBot="1">
-      <c r="A6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="46">
-        <v>70.84</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <v>67.95</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>69.91</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
-        <v>67.260000000000005</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Project1_AmazonSites.xlsx
+++ b/Project1_AmazonSites.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niyatidesai/Google Drive/UC Berkeley Ext._Data Analytics/Week_8_Project_1/BC_Project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ind\Desktop\BootCamp\Project1\BC_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C9FCDE89-2E0E-AF4F-9C54-35A13172327A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2EC151-0BCD-4722-85B3-4D65F0F388BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="560" windowWidth="13700" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="19380" windowHeight="7530" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSites" sheetId="1" r:id="rId1"/>
     <sheet name="AmazonCities" sheetId="2" r:id="rId2"/>
     <sheet name="CensusFields" sheetId="3" r:id="rId3"/>
+    <sheet name="AmzonCities_Crime" sheetId="4" r:id="rId4"/>
+    <sheet name="AmzonCities_DiversityRating" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="234">
   <si>
     <t>City</t>
   </si>
@@ -75,9 +77,6 @@
     <t>06</t>
   </si>
   <si>
-    <t>You may have to use 06</t>
-  </si>
-  <si>
     <t>Raleigh</t>
   </si>
   <si>
@@ -132,84 +131,39 @@
     <t>Number of persons, age 16 or older, in the labor force.</t>
   </si>
   <si>
-    <t>employment_employed</t>
-  </si>
-  <si>
     <t>B23025_004E</t>
   </si>
   <si>
     <t>Number of employed, age 16 or older, in the civilian labor force.</t>
   </si>
   <si>
-    <t>employment_civilian_labor_force</t>
-  </si>
-  <si>
     <t>B23025_003E</t>
   </si>
   <si>
     <t>Number of persons, age 16 or older, in the civilian labor force</t>
   </si>
   <si>
-    <t>employment_female_management_occupations</t>
-  </si>
-  <si>
-    <t>C24010_041E</t>
-  </si>
-  <si>
-    <t>Number of employed Female 'Management occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
-    <t>employment_male_management_occupations</t>
-  </si>
-  <si>
-    <t>C24010_005E</t>
-  </si>
-  <si>
-    <t>Number of employed male 'Management occupations' for the civilian population age 16 and over</t>
-  </si>
-  <si>
-    <t>education_associates</t>
-  </si>
-  <si>
     <t>B15003_021E</t>
   </si>
   <si>
     <t>The number of persons age 25 and over who hold an Associate's degree.</t>
   </si>
   <si>
-    <t>education_bachelors</t>
-  </si>
-  <si>
     <t>B15003_022E</t>
   </si>
   <si>
-    <t>education_doctorate</t>
-  </si>
-  <si>
     <t>B15003_025E</t>
   </si>
   <si>
-    <t>education_ged</t>
-  </si>
-  <si>
     <t>B15003_018E</t>
   </si>
   <si>
-    <t>education_high_school</t>
-  </si>
-  <si>
     <t>B15003_017E</t>
   </si>
   <si>
-    <t>education_masters</t>
-  </si>
-  <si>
     <t>B15003_023E</t>
   </si>
   <si>
-    <t>education_professional</t>
-  </si>
-  <si>
     <t>B15003_024E</t>
   </si>
   <si>
@@ -219,93 +173,54 @@
     <t>B01003_001E</t>
   </si>
   <si>
-    <t>Population_american_indian_alone</t>
-  </si>
-  <si>
     <t>B02001_004E</t>
   </si>
   <si>
-    <t>Population_asian_alone</t>
-  </si>
-  <si>
     <t>B02001_005E</t>
   </si>
   <si>
-    <t>Population_black_alone</t>
-  </si>
-  <si>
     <t>B02001_003E</t>
   </si>
   <si>
-    <t>Population_hispanic_origin</t>
-  </si>
-  <si>
     <t>B03001_003E</t>
   </si>
   <si>
-    <t>Population_native_hawaiian_alone</t>
-  </si>
-  <si>
     <t>B02001_006E</t>
   </si>
   <si>
-    <t>Population_other_alone</t>
-  </si>
-  <si>
     <t>B02001_007E</t>
   </si>
   <si>
-    <t>Population_two_or_more_races</t>
-  </si>
-  <si>
     <t>B02001_008E</t>
   </si>
   <si>
-    <t>Population_white_alone</t>
-  </si>
-  <si>
     <t>B02001_002E</t>
   </si>
   <si>
-    <t>Commute_time</t>
-  </si>
-  <si>
     <t>B08136_001E</t>
   </si>
   <si>
     <t>(Normalizable) Total time spent commuting (in minutes).</t>
   </si>
   <si>
-    <t>Commute_time_carpool</t>
-  </si>
-  <si>
     <t>B08136_004E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): Car, truck, or van - carpool.</t>
   </si>
   <si>
-    <t>Commute_time_other</t>
-  </si>
-  <si>
     <t>B08136_012E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): Taxicab, motorcycle, bicycle, or other means.</t>
   </si>
   <si>
-    <t>Commute_time_public_transport</t>
-  </si>
-  <si>
     <t>B08136_007E</t>
   </si>
   <si>
     <t>(Normalizable) Time spent commuting (in minutes): public transport (excluding taxis).</t>
   </si>
   <si>
-    <t>Commute_time_solo_automobile</t>
-  </si>
-  <si>
     <t>B08136_003E</t>
   </si>
   <si>
@@ -640,13 +555,184 @@
   </si>
   <si>
     <t>1600 Wickersham Ln</t>
+  </si>
+  <si>
+    <t>07000</t>
+  </si>
+  <si>
+    <t>05000</t>
+  </si>
+  <si>
+    <t>04000</t>
+  </si>
+  <si>
+    <t>Emp_Mgment_Occp_Male</t>
+  </si>
+  <si>
+    <t>Emp_Total</t>
+  </si>
+  <si>
+    <t>Emp_Mgment_Occp_Female</t>
+  </si>
+  <si>
+    <t>Ed_Bachelors</t>
+  </si>
+  <si>
+    <t>Ed_Doctorate</t>
+  </si>
+  <si>
+    <t>Ed_GED</t>
+  </si>
+  <si>
+    <t>Ed_HighSchool</t>
+  </si>
+  <si>
+    <t>Ed_Masters</t>
+  </si>
+  <si>
+    <t>Ed_Professional</t>
+  </si>
+  <si>
+    <t>Population_Asian</t>
+  </si>
+  <si>
+    <t>Pop_American_Indian</t>
+  </si>
+  <si>
+    <t>Pop_Black</t>
+  </si>
+  <si>
+    <t>Pop_Hispanic_Origin</t>
+  </si>
+  <si>
+    <t>Pop_Native_Hawaiian</t>
+  </si>
+  <si>
+    <t>Pop_Other</t>
+  </si>
+  <si>
+    <t>Pop_two_or_more_races</t>
+  </si>
+  <si>
+    <t>Ed_Associates</t>
+  </si>
+  <si>
+    <t>Pop_White</t>
+  </si>
+  <si>
+    <t>Commute_Time_Carpool</t>
+  </si>
+  <si>
+    <t>Commute_Time</t>
+  </si>
+  <si>
+    <t>Commute_Time_Other</t>
+  </si>
+  <si>
+    <t>Commute_Time_Public_Transport</t>
+  </si>
+  <si>
+    <t>Commute_Time_Solo_Automobile</t>
+  </si>
+  <si>
+    <t>CrimeIndex</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>Median Household Income</t>
+  </si>
+  <si>
+    <t>B19013_001E</t>
+  </si>
+  <si>
+    <t>C24010_044E</t>
+  </si>
+  <si>
+    <t>Number of employed female 'Computer and mathematical occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>Emp_Comp_Math_Female</t>
+  </si>
+  <si>
+    <t>Number of employed male 'Computer and mathematical occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>C24010_008E</t>
+  </si>
+  <si>
+    <t>C24010_040E</t>
+  </si>
+  <si>
+    <t>Number of employed Female 'Management , Business and Financial occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>Number of employed male 'Management, Business and Financial  occupations' for the civilian population age 16 and over</t>
+  </si>
+  <si>
+    <t>C24010_006E</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Educational Attainment</t>
+  </si>
+  <si>
+    <t>Commute Time</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Emp_Comp_Math_Male</t>
+  </si>
+  <si>
+    <t>Civilian_labor_force</t>
+  </si>
+  <si>
+    <t>DiversityScore</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Washington city, District of Columbia</t>
+  </si>
+  <si>
+    <t>New York city, New York</t>
+  </si>
+  <si>
+    <t>Boston city, Massachusetts</t>
+  </si>
+  <si>
+    <t>Chicago city, Illinois</t>
+  </si>
+  <si>
+    <t>Los Angeles city, California</t>
+  </si>
+  <si>
+    <t>Raleigh city, North Carolina</t>
+  </si>
+  <si>
+    <t>Austin city, Texas</t>
+  </si>
+  <si>
+    <t>Atlanta city, Georgia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -656,10 +742,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -686,6 +774,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -701,6 +790,30 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF31708F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF31708F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF373737"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -748,12 +861,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -804,11 +917,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB8C3C8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB8C3C8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB8C3C8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB8C3C8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -873,13 +1001,24 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,31 +1333,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1001"/>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
@@ -1227,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1236,27 +1373,27 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G2" s="4">
         <v>20170</v>
@@ -1271,22 +1408,22 @@
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>22202</v>
@@ -1304,16 +1441,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -1334,16 +1471,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -1364,16 +1501,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -1394,16 +1531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
@@ -1424,16 +1561,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1454,16 +1591,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1484,16 +1621,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1514,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>10</v>
@@ -1529,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="H11" s="4">
         <v>42.39</v>
@@ -1538,7 +1675,7 @@
         <v>-71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
@@ -1546,13 +1683,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>10</v>
@@ -1561,7 +1698,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="H12" s="4">
         <v>42.34</v>
@@ -1576,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>10</v>
@@ -1591,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="H13" s="4">
         <v>42.35</v>
@@ -1606,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>10</v>
@@ -1621,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="H14" s="4">
         <v>42.34</v>
@@ -1636,13 +1773,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>8</v>
@@ -1666,16 +1803,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
@@ -1691,21 +1828,21 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
@@ -1721,21 +1858,21 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
@@ -1751,18 +1888,18 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>12</v>
@@ -1781,18 +1918,18 @@
       </c>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="15">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>12</v>
@@ -1810,25 +1947,19 @@
         <v>-87.64</v>
       </c>
       <c r="J20" s="15"/>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15">
+    </row>
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>12</v>
@@ -1846,25 +1977,19 @@
         <v>-87.65</v>
       </c>
       <c r="J21" s="15"/>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15">
+    </row>
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>12</v>
@@ -1882,25 +2007,19 @@
         <v>-87.63</v>
       </c>
       <c r="J22" s="15"/>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15">
+    </row>
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>12</v>
@@ -1918,25 +2037,19 @@
         <v>-87.62</v>
       </c>
       <c r="J23" s="15"/>
-      <c r="P23">
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15">
+    </row>
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>12</v>
@@ -1954,25 +2067,19 @@
         <v>-87.67</v>
       </c>
       <c r="J24" s="15"/>
-      <c r="P24">
-        <v>5</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15">
+    </row>
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>12</v>
@@ -1990,25 +2097,19 @@
         <v>-87.66</v>
       </c>
       <c r="J25" s="15"/>
-      <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15">
+    </row>
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>12</v>
@@ -2026,31 +2127,25 @@
         <v>-87.6</v>
       </c>
       <c r="J26" s="15"/>
-      <c r="P26">
-        <v>7</v>
-      </c>
-      <c r="Q26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15">
+    </row>
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G27" s="4">
         <v>27701</v>
@@ -2062,31 +2157,25 @@
         <v>-78.87</v>
       </c>
       <c r="J27" s="15"/>
-      <c r="P27">
-        <v>8</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15">
+    </row>
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G28" s="4">
         <v>27519</v>
@@ -2099,24 +2188,24 @@
       </c>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G29" s="4">
         <v>27601</v>
@@ -2129,24 +2218,24 @@
       </c>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="15">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G30" s="4">
         <v>30303</v>
@@ -2159,24 +2248,24 @@
       </c>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="15">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G31" s="4">
         <v>30308</v>
@@ -2189,24 +2278,24 @@
       </c>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="15">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G32" s="4">
         <v>30360</v>
@@ -2221,22 +2310,22 @@
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G33" s="25">
         <v>30328</v>
@@ -2251,22 +2340,22 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G34" s="4">
         <v>78704</v>
@@ -2278,27 +2367,27 @@
         <v>-97.744399999999999</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G35" s="4">
         <v>78721</v>
@@ -2313,22 +2402,22 @@
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G36" s="4">
         <v>78732</v>
@@ -2343,22 +2432,22 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G37" s="4">
         <v>78758</v>
@@ -2373,22 +2462,22 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G38" s="4">
         <v>78758</v>
@@ -2403,22 +2492,22 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G39" s="4">
         <v>78717</v>
@@ -2433,22 +2522,22 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G40" s="4">
         <v>78741</v>
@@ -2461,2888 +2550,2888 @@
       </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" ht="13">
+    <row r="41" spans="1:10" ht="12.75">
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="13">
+    <row r="42" spans="1:10" ht="12.75">
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:10" ht="13">
+    <row r="43" spans="1:10" ht="12.75">
       <c r="E43" s="27"/>
     </row>
-    <row r="44" spans="1:10" ht="13">
+    <row r="44" spans="1:10" ht="12.75">
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="1:10" ht="13">
+    <row r="45" spans="1:10" ht="12.75">
       <c r="E45" s="27"/>
     </row>
-    <row r="46" spans="1:10" ht="13">
+    <row r="46" spans="1:10" ht="12.75">
       <c r="E46" s="27"/>
     </row>
-    <row r="47" spans="1:10" ht="13">
+    <row r="47" spans="1:10" ht="12.75">
       <c r="E47" s="27"/>
     </row>
-    <row r="48" spans="1:10" ht="13">
+    <row r="48" spans="1:10" ht="12.75">
       <c r="E48" s="27"/>
     </row>
-    <row r="49" spans="4:5" ht="13">
+    <row r="49" spans="4:5" ht="12.75">
       <c r="E49" s="27"/>
     </row>
-    <row r="50" spans="4:5" ht="13">
+    <row r="50" spans="4:5" ht="12.75">
       <c r="E50" s="27"/>
     </row>
-    <row r="51" spans="4:5" ht="13">
+    <row r="51" spans="4:5" ht="12.75">
       <c r="E51" s="27"/>
     </row>
-    <row r="52" spans="4:5" ht="13">
+    <row r="52" spans="4:5" ht="12.75">
       <c r="E52" s="27"/>
     </row>
-    <row r="53" spans="4:5" ht="13">
+    <row r="53" spans="4:5" ht="12.75">
       <c r="E53" s="27"/>
     </row>
-    <row r="54" spans="4:5" ht="13">
+    <row r="54" spans="4:5" ht="12.75">
       <c r="D54" s="16"/>
       <c r="E54" s="27"/>
     </row>
-    <row r="55" spans="4:5" ht="13">
+    <row r="55" spans="4:5" ht="12.75">
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="4:5" ht="13">
+    <row r="56" spans="4:5" ht="12.75">
       <c r="E56" s="27"/>
     </row>
-    <row r="57" spans="4:5" ht="13">
+    <row r="57" spans="4:5" ht="12.75">
       <c r="E57" s="27"/>
     </row>
-    <row r="58" spans="4:5" ht="13">
+    <row r="58" spans="4:5" ht="12.75">
       <c r="E58" s="27"/>
     </row>
-    <row r="59" spans="4:5" ht="13">
+    <row r="59" spans="4:5" ht="12.75">
       <c r="E59" s="27"/>
     </row>
-    <row r="60" spans="4:5" ht="13">
+    <row r="60" spans="4:5" ht="12.75">
       <c r="E60" s="27"/>
     </row>
-    <row r="61" spans="4:5" ht="13">
+    <row r="61" spans="4:5" ht="12.75">
       <c r="E61" s="27"/>
     </row>
-    <row r="62" spans="4:5" ht="13">
+    <row r="62" spans="4:5" ht="12.75">
       <c r="E62" s="27"/>
     </row>
-    <row r="63" spans="4:5" ht="13">
+    <row r="63" spans="4:5" ht="12.75">
       <c r="E63" s="27"/>
     </row>
-    <row r="64" spans="4:5" ht="13">
+    <row r="64" spans="4:5" ht="12.75">
       <c r="E64" s="27"/>
     </row>
-    <row r="65" spans="5:5" ht="13">
+    <row r="65" spans="5:5" ht="12.75">
       <c r="E65" s="27"/>
     </row>
-    <row r="66" spans="5:5" ht="13">
+    <row r="66" spans="5:5" ht="12.75">
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="5:5" ht="13">
+    <row r="67" spans="5:5" ht="12.75">
       <c r="E67" s="27"/>
     </row>
-    <row r="68" spans="5:5" ht="13">
+    <row r="68" spans="5:5" ht="12.75">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="5:5" ht="13">
+    <row r="69" spans="5:5" ht="12.75">
       <c r="E69" s="27"/>
     </row>
-    <row r="70" spans="5:5" ht="13">
+    <row r="70" spans="5:5" ht="12.75">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="5:5" ht="13">
+    <row r="71" spans="5:5" ht="12.75">
       <c r="E71" s="27"/>
     </row>
-    <row r="72" spans="5:5" ht="13">
+    <row r="72" spans="5:5" ht="12.75">
       <c r="E72" s="27"/>
     </row>
-    <row r="73" spans="5:5" ht="13">
+    <row r="73" spans="5:5" ht="12.75">
       <c r="E73" s="27"/>
     </row>
-    <row r="74" spans="5:5" ht="13">
+    <row r="74" spans="5:5" ht="12.75">
       <c r="E74" s="27"/>
     </row>
-    <row r="75" spans="5:5" ht="13">
+    <row r="75" spans="5:5" ht="12.75">
       <c r="E75" s="27"/>
     </row>
-    <row r="76" spans="5:5" ht="13">
+    <row r="76" spans="5:5" ht="12.75">
       <c r="E76" s="27"/>
     </row>
-    <row r="77" spans="5:5" ht="13">
+    <row r="77" spans="5:5" ht="12.75">
       <c r="E77" s="27"/>
     </row>
-    <row r="78" spans="5:5" ht="13">
+    <row r="78" spans="5:5" ht="12.75">
       <c r="E78" s="27"/>
     </row>
-    <row r="79" spans="5:5" ht="13">
+    <row r="79" spans="5:5" ht="12.75">
       <c r="E79" s="27"/>
     </row>
-    <row r="80" spans="5:5" ht="13">
+    <row r="80" spans="5:5" ht="12.75">
       <c r="E80" s="27"/>
     </row>
-    <row r="81" spans="5:5" ht="13">
+    <row r="81" spans="5:5" ht="12.75">
       <c r="E81" s="27"/>
     </row>
-    <row r="82" spans="5:5" ht="13">
+    <row r="82" spans="5:5" ht="12.75">
       <c r="E82" s="27"/>
     </row>
-    <row r="83" spans="5:5" ht="13">
+    <row r="83" spans="5:5" ht="12.75">
       <c r="E83" s="27"/>
     </row>
-    <row r="84" spans="5:5" ht="13">
+    <row r="84" spans="5:5" ht="12.75">
       <c r="E84" s="27"/>
     </row>
-    <row r="85" spans="5:5" ht="13">
+    <row r="85" spans="5:5" ht="12.75">
       <c r="E85" s="27"/>
     </row>
-    <row r="86" spans="5:5" ht="13">
+    <row r="86" spans="5:5" ht="12.75">
       <c r="E86" s="27"/>
     </row>
-    <row r="87" spans="5:5" ht="13">
+    <row r="87" spans="5:5" ht="12.75">
       <c r="E87" s="27"/>
     </row>
-    <row r="88" spans="5:5" ht="13">
+    <row r="88" spans="5:5" ht="12.75">
       <c r="E88" s="27"/>
     </row>
-    <row r="89" spans="5:5" ht="13">
+    <row r="89" spans="5:5" ht="12.75">
       <c r="E89" s="27"/>
     </row>
-    <row r="90" spans="5:5" ht="13">
+    <row r="90" spans="5:5" ht="12.75">
       <c r="E90" s="27"/>
     </row>
-    <row r="91" spans="5:5" ht="13">
+    <row r="91" spans="5:5" ht="12.75">
       <c r="E91" s="27"/>
     </row>
-    <row r="92" spans="5:5" ht="13">
+    <row r="92" spans="5:5" ht="12.75">
       <c r="E92" s="27"/>
     </row>
-    <row r="93" spans="5:5" ht="13">
+    <row r="93" spans="5:5" ht="12.75">
       <c r="E93" s="27"/>
     </row>
-    <row r="94" spans="5:5" ht="13">
+    <row r="94" spans="5:5" ht="12.75">
       <c r="E94" s="27"/>
     </row>
-    <row r="95" spans="5:5" ht="13">
+    <row r="95" spans="5:5" ht="12.75">
       <c r="E95" s="27"/>
     </row>
-    <row r="96" spans="5:5" ht="13">
+    <row r="96" spans="5:5" ht="12.75">
       <c r="E96" s="27"/>
     </row>
-    <row r="97" spans="5:5" ht="13">
+    <row r="97" spans="5:5" ht="12.75">
       <c r="E97" s="27"/>
     </row>
-    <row r="98" spans="5:5" ht="13">
+    <row r="98" spans="5:5" ht="12.75">
       <c r="E98" s="27"/>
     </row>
-    <row r="99" spans="5:5" ht="13">
+    <row r="99" spans="5:5" ht="12.75">
       <c r="E99" s="27"/>
     </row>
-    <row r="100" spans="5:5" ht="13">
+    <row r="100" spans="5:5" ht="12.75">
       <c r="E100" s="27"/>
     </row>
-    <row r="101" spans="5:5" ht="13">
+    <row r="101" spans="5:5" ht="12.75">
       <c r="E101" s="27"/>
     </row>
-    <row r="102" spans="5:5" ht="13">
+    <row r="102" spans="5:5" ht="12.75">
       <c r="E102" s="27"/>
     </row>
-    <row r="103" spans="5:5" ht="13">
+    <row r="103" spans="5:5" ht="12.75">
       <c r="E103" s="27"/>
     </row>
-    <row r="104" spans="5:5" ht="13">
+    <row r="104" spans="5:5" ht="12.75">
       <c r="E104" s="27"/>
     </row>
-    <row r="105" spans="5:5" ht="13">
+    <row r="105" spans="5:5" ht="12.75">
       <c r="E105" s="27"/>
     </row>
-    <row r="106" spans="5:5" ht="13">
+    <row r="106" spans="5:5" ht="12.75">
       <c r="E106" s="27"/>
     </row>
-    <row r="107" spans="5:5" ht="13">
+    <row r="107" spans="5:5" ht="12.75">
       <c r="E107" s="27"/>
     </row>
-    <row r="108" spans="5:5" ht="13">
+    <row r="108" spans="5:5" ht="12.75">
       <c r="E108" s="27"/>
     </row>
-    <row r="109" spans="5:5" ht="13">
+    <row r="109" spans="5:5" ht="12.75">
       <c r="E109" s="27"/>
     </row>
-    <row r="110" spans="5:5" ht="13">
+    <row r="110" spans="5:5" ht="12.75">
       <c r="E110" s="27"/>
     </row>
-    <row r="111" spans="5:5" ht="13">
+    <row r="111" spans="5:5" ht="12.75">
       <c r="E111" s="27"/>
     </row>
-    <row r="112" spans="5:5" ht="13">
+    <row r="112" spans="5:5" ht="12.75">
       <c r="E112" s="27"/>
     </row>
-    <row r="113" spans="5:5" ht="13">
+    <row r="113" spans="5:5" ht="12.75">
       <c r="E113" s="27"/>
     </row>
-    <row r="114" spans="5:5" ht="13">
+    <row r="114" spans="5:5" ht="12.75">
       <c r="E114" s="27"/>
     </row>
-    <row r="115" spans="5:5" ht="13">
+    <row r="115" spans="5:5" ht="12.75">
       <c r="E115" s="27"/>
     </row>
-    <row r="116" spans="5:5" ht="13">
+    <row r="116" spans="5:5" ht="12.75">
       <c r="E116" s="27"/>
     </row>
-    <row r="117" spans="5:5" ht="13">
+    <row r="117" spans="5:5" ht="12.75">
       <c r="E117" s="27"/>
     </row>
-    <row r="118" spans="5:5" ht="13">
+    <row r="118" spans="5:5" ht="12.75">
       <c r="E118" s="27"/>
     </row>
-    <row r="119" spans="5:5" ht="13">
+    <row r="119" spans="5:5" ht="12.75">
       <c r="E119" s="27"/>
     </row>
-    <row r="120" spans="5:5" ht="13">
+    <row r="120" spans="5:5" ht="12.75">
       <c r="E120" s="27"/>
     </row>
-    <row r="121" spans="5:5" ht="13">
+    <row r="121" spans="5:5" ht="12.75">
       <c r="E121" s="27"/>
     </row>
-    <row r="122" spans="5:5" ht="13">
+    <row r="122" spans="5:5" ht="12.75">
       <c r="E122" s="27"/>
     </row>
-    <row r="123" spans="5:5" ht="13">
+    <row r="123" spans="5:5" ht="12.75">
       <c r="E123" s="27"/>
     </row>
-    <row r="124" spans="5:5" ht="13">
+    <row r="124" spans="5:5" ht="12.75">
       <c r="E124" s="27"/>
     </row>
-    <row r="125" spans="5:5" ht="13">
+    <row r="125" spans="5:5" ht="12.75">
       <c r="E125" s="27"/>
     </row>
-    <row r="126" spans="5:5" ht="13">
+    <row r="126" spans="5:5" ht="12.75">
       <c r="E126" s="27"/>
     </row>
-    <row r="127" spans="5:5" ht="13">
+    <row r="127" spans="5:5" ht="12.75">
       <c r="E127" s="27"/>
     </row>
-    <row r="128" spans="5:5" ht="13">
+    <row r="128" spans="5:5" ht="12.75">
       <c r="E128" s="27"/>
     </row>
-    <row r="129" spans="5:5" ht="13">
+    <row r="129" spans="5:5" ht="12.75">
       <c r="E129" s="27"/>
     </row>
-    <row r="130" spans="5:5" ht="13">
+    <row r="130" spans="5:5" ht="12.75">
       <c r="E130" s="27"/>
     </row>
-    <row r="131" spans="5:5" ht="13">
+    <row r="131" spans="5:5" ht="12.75">
       <c r="E131" s="27"/>
     </row>
-    <row r="132" spans="5:5" ht="13">
+    <row r="132" spans="5:5" ht="12.75">
       <c r="E132" s="27"/>
     </row>
-    <row r="133" spans="5:5" ht="13">
+    <row r="133" spans="5:5" ht="12.75">
       <c r="E133" s="27"/>
     </row>
-    <row r="134" spans="5:5" ht="13">
+    <row r="134" spans="5:5" ht="12.75">
       <c r="E134" s="27"/>
     </row>
-    <row r="135" spans="5:5" ht="13">
+    <row r="135" spans="5:5" ht="12.75">
       <c r="E135" s="27"/>
     </row>
-    <row r="136" spans="5:5" ht="13">
+    <row r="136" spans="5:5" ht="12.75">
       <c r="E136" s="27"/>
     </row>
-    <row r="137" spans="5:5" ht="13">
+    <row r="137" spans="5:5" ht="12.75">
       <c r="E137" s="27"/>
     </row>
-    <row r="138" spans="5:5" ht="13">
+    <row r="138" spans="5:5" ht="12.75">
       <c r="E138" s="27"/>
     </row>
-    <row r="139" spans="5:5" ht="13">
+    <row r="139" spans="5:5" ht="12.75">
       <c r="E139" s="27"/>
     </row>
-    <row r="140" spans="5:5" ht="13">
+    <row r="140" spans="5:5" ht="12.75">
       <c r="E140" s="27"/>
     </row>
-    <row r="141" spans="5:5" ht="13">
+    <row r="141" spans="5:5" ht="12.75">
       <c r="E141" s="27"/>
     </row>
-    <row r="142" spans="5:5" ht="13">
+    <row r="142" spans="5:5" ht="12.75">
       <c r="E142" s="27"/>
     </row>
-    <row r="143" spans="5:5" ht="13">
+    <row r="143" spans="5:5" ht="12.75">
       <c r="E143" s="27"/>
     </row>
-    <row r="144" spans="5:5" ht="13">
+    <row r="144" spans="5:5" ht="12.75">
       <c r="E144" s="27"/>
     </row>
-    <row r="145" spans="5:5" ht="13">
+    <row r="145" spans="5:5" ht="12.75">
       <c r="E145" s="27"/>
     </row>
-    <row r="146" spans="5:5" ht="13">
+    <row r="146" spans="5:5" ht="12.75">
       <c r="E146" s="27"/>
     </row>
-    <row r="147" spans="5:5" ht="13">
+    <row r="147" spans="5:5" ht="12.75">
       <c r="E147" s="27"/>
     </row>
-    <row r="148" spans="5:5" ht="13">
+    <row r="148" spans="5:5" ht="12.75">
       <c r="E148" s="27"/>
     </row>
-    <row r="149" spans="5:5" ht="13">
+    <row r="149" spans="5:5" ht="12.75">
       <c r="E149" s="27"/>
     </row>
-    <row r="150" spans="5:5" ht="13">
+    <row r="150" spans="5:5" ht="12.75">
       <c r="E150" s="27"/>
     </row>
-    <row r="151" spans="5:5" ht="13">
+    <row r="151" spans="5:5" ht="12.75">
       <c r="E151" s="27"/>
     </row>
-    <row r="152" spans="5:5" ht="13">
+    <row r="152" spans="5:5" ht="12.75">
       <c r="E152" s="27"/>
     </row>
-    <row r="153" spans="5:5" ht="13">
+    <row r="153" spans="5:5" ht="12.75">
       <c r="E153" s="27"/>
     </row>
-    <row r="154" spans="5:5" ht="13">
+    <row r="154" spans="5:5" ht="12.75">
       <c r="E154" s="27"/>
     </row>
-    <row r="155" spans="5:5" ht="13">
+    <row r="155" spans="5:5" ht="12.75">
       <c r="E155" s="27"/>
     </row>
-    <row r="156" spans="5:5" ht="13">
+    <row r="156" spans="5:5" ht="12.75">
       <c r="E156" s="27"/>
     </row>
-    <row r="157" spans="5:5" ht="13">
+    <row r="157" spans="5:5" ht="12.75">
       <c r="E157" s="27"/>
     </row>
-    <row r="158" spans="5:5" ht="13">
+    <row r="158" spans="5:5" ht="12.75">
       <c r="E158" s="27"/>
     </row>
-    <row r="159" spans="5:5" ht="13">
+    <row r="159" spans="5:5" ht="12.75">
       <c r="E159" s="27"/>
     </row>
-    <row r="160" spans="5:5" ht="13">
+    <row r="160" spans="5:5" ht="12.75">
       <c r="E160" s="27"/>
     </row>
-    <row r="161" spans="5:5" ht="13">
+    <row r="161" spans="5:5" ht="12.75">
       <c r="E161" s="27"/>
     </row>
-    <row r="162" spans="5:5" ht="13">
+    <row r="162" spans="5:5" ht="12.75">
       <c r="E162" s="27"/>
     </row>
-    <row r="163" spans="5:5" ht="13">
+    <row r="163" spans="5:5" ht="12.75">
       <c r="E163" s="27"/>
     </row>
-    <row r="164" spans="5:5" ht="13">
+    <row r="164" spans="5:5" ht="12.75">
       <c r="E164" s="27"/>
     </row>
-    <row r="165" spans="5:5" ht="13">
+    <row r="165" spans="5:5" ht="12.75">
       <c r="E165" s="27"/>
     </row>
-    <row r="166" spans="5:5" ht="13">
+    <row r="166" spans="5:5" ht="12.75">
       <c r="E166" s="27"/>
     </row>
-    <row r="167" spans="5:5" ht="13">
+    <row r="167" spans="5:5" ht="12.75">
       <c r="E167" s="27"/>
     </row>
-    <row r="168" spans="5:5" ht="13">
+    <row r="168" spans="5:5" ht="12.75">
       <c r="E168" s="27"/>
     </row>
-    <row r="169" spans="5:5" ht="13">
+    <row r="169" spans="5:5" ht="12.75">
       <c r="E169" s="27"/>
     </row>
-    <row r="170" spans="5:5" ht="13">
+    <row r="170" spans="5:5" ht="12.75">
       <c r="E170" s="27"/>
     </row>
-    <row r="171" spans="5:5" ht="13">
+    <row r="171" spans="5:5" ht="12.75">
       <c r="E171" s="27"/>
     </row>
-    <row r="172" spans="5:5" ht="13">
+    <row r="172" spans="5:5" ht="12.75">
       <c r="E172" s="27"/>
     </row>
-    <row r="173" spans="5:5" ht="13">
+    <row r="173" spans="5:5" ht="12.75">
       <c r="E173" s="27"/>
     </row>
-    <row r="174" spans="5:5" ht="13">
+    <row r="174" spans="5:5" ht="12.75">
       <c r="E174" s="27"/>
     </row>
-    <row r="175" spans="5:5" ht="13">
+    <row r="175" spans="5:5" ht="12.75">
       <c r="E175" s="27"/>
     </row>
-    <row r="176" spans="5:5" ht="13">
+    <row r="176" spans="5:5" ht="12.75">
       <c r="E176" s="27"/>
     </row>
-    <row r="177" spans="5:5" ht="13">
+    <row r="177" spans="5:5" ht="12.75">
       <c r="E177" s="27"/>
     </row>
-    <row r="178" spans="5:5" ht="13">
+    <row r="178" spans="5:5" ht="12.75">
       <c r="E178" s="27"/>
     </row>
-    <row r="179" spans="5:5" ht="13">
+    <row r="179" spans="5:5" ht="12.75">
       <c r="E179" s="27"/>
     </row>
-    <row r="180" spans="5:5" ht="13">
+    <row r="180" spans="5:5" ht="12.75">
       <c r="E180" s="27"/>
     </row>
-    <row r="181" spans="5:5" ht="13">
+    <row r="181" spans="5:5" ht="12.75">
       <c r="E181" s="27"/>
     </row>
-    <row r="182" spans="5:5" ht="13">
+    <row r="182" spans="5:5" ht="12.75">
       <c r="E182" s="27"/>
     </row>
-    <row r="183" spans="5:5" ht="13">
+    <row r="183" spans="5:5" ht="12.75">
       <c r="E183" s="27"/>
     </row>
-    <row r="184" spans="5:5" ht="13">
+    <row r="184" spans="5:5" ht="12.75">
       <c r="E184" s="27"/>
     </row>
-    <row r="185" spans="5:5" ht="13">
+    <row r="185" spans="5:5" ht="12.75">
       <c r="E185" s="27"/>
     </row>
-    <row r="186" spans="5:5" ht="13">
+    <row r="186" spans="5:5" ht="12.75">
       <c r="E186" s="27"/>
     </row>
-    <row r="187" spans="5:5" ht="13">
+    <row r="187" spans="5:5" ht="12.75">
       <c r="E187" s="27"/>
     </row>
-    <row r="188" spans="5:5" ht="13">
+    <row r="188" spans="5:5" ht="12.75">
       <c r="E188" s="27"/>
     </row>
-    <row r="189" spans="5:5" ht="13">
+    <row r="189" spans="5:5" ht="12.75">
       <c r="E189" s="27"/>
     </row>
-    <row r="190" spans="5:5" ht="13">
+    <row r="190" spans="5:5" ht="12.75">
       <c r="E190" s="27"/>
     </row>
-    <row r="191" spans="5:5" ht="13">
+    <row r="191" spans="5:5" ht="12.75">
       <c r="E191" s="27"/>
     </row>
-    <row r="192" spans="5:5" ht="13">
+    <row r="192" spans="5:5" ht="12.75">
       <c r="E192" s="27"/>
     </row>
-    <row r="193" spans="5:5" ht="13">
+    <row r="193" spans="5:5" ht="12.75">
       <c r="E193" s="27"/>
     </row>
-    <row r="194" spans="5:5" ht="13">
+    <row r="194" spans="5:5" ht="12.75">
       <c r="E194" s="27"/>
     </row>
-    <row r="195" spans="5:5" ht="13">
+    <row r="195" spans="5:5" ht="12.75">
       <c r="E195" s="27"/>
     </row>
-    <row r="196" spans="5:5" ht="13">
+    <row r="196" spans="5:5" ht="12.75">
       <c r="E196" s="27"/>
     </row>
-    <row r="197" spans="5:5" ht="13">
+    <row r="197" spans="5:5" ht="12.75">
       <c r="E197" s="27"/>
     </row>
-    <row r="198" spans="5:5" ht="13">
+    <row r="198" spans="5:5" ht="12.75">
       <c r="E198" s="27"/>
     </row>
-    <row r="199" spans="5:5" ht="13">
+    <row r="199" spans="5:5" ht="12.75">
       <c r="E199" s="27"/>
     </row>
-    <row r="200" spans="5:5" ht="13">
+    <row r="200" spans="5:5" ht="12.75">
       <c r="E200" s="27"/>
     </row>
-    <row r="201" spans="5:5" ht="13">
+    <row r="201" spans="5:5" ht="12.75">
       <c r="E201" s="27"/>
     </row>
-    <row r="202" spans="5:5" ht="13">
+    <row r="202" spans="5:5" ht="12.75">
       <c r="E202" s="27"/>
     </row>
-    <row r="203" spans="5:5" ht="13">
+    <row r="203" spans="5:5" ht="12.75">
       <c r="E203" s="27"/>
     </row>
-    <row r="204" spans="5:5" ht="13">
+    <row r="204" spans="5:5" ht="12.75">
       <c r="E204" s="27"/>
     </row>
-    <row r="205" spans="5:5" ht="13">
+    <row r="205" spans="5:5" ht="12.75">
       <c r="E205" s="27"/>
     </row>
-    <row r="206" spans="5:5" ht="13">
+    <row r="206" spans="5:5" ht="12.75">
       <c r="E206" s="27"/>
     </row>
-    <row r="207" spans="5:5" ht="13">
+    <row r="207" spans="5:5" ht="12.75">
       <c r="E207" s="27"/>
     </row>
-    <row r="208" spans="5:5" ht="13">
+    <row r="208" spans="5:5" ht="12.75">
       <c r="E208" s="27"/>
     </row>
-    <row r="209" spans="5:5" ht="13">
+    <row r="209" spans="5:5" ht="12.75">
       <c r="E209" s="27"/>
     </row>
-    <row r="210" spans="5:5" ht="13">
+    <row r="210" spans="5:5" ht="12.75">
       <c r="E210" s="27"/>
     </row>
-    <row r="211" spans="5:5" ht="13">
+    <row r="211" spans="5:5" ht="12.75">
       <c r="E211" s="27"/>
     </row>
-    <row r="212" spans="5:5" ht="13">
+    <row r="212" spans="5:5" ht="12.75">
       <c r="E212" s="27"/>
     </row>
-    <row r="213" spans="5:5" ht="13">
+    <row r="213" spans="5:5" ht="12.75">
       <c r="E213" s="27"/>
     </row>
-    <row r="214" spans="5:5" ht="13">
+    <row r="214" spans="5:5" ht="12.75">
       <c r="E214" s="27"/>
     </row>
-    <row r="215" spans="5:5" ht="13">
+    <row r="215" spans="5:5" ht="12.75">
       <c r="E215" s="27"/>
     </row>
-    <row r="216" spans="5:5" ht="13">
+    <row r="216" spans="5:5" ht="12.75">
       <c r="E216" s="27"/>
     </row>
-    <row r="217" spans="5:5" ht="13">
+    <row r="217" spans="5:5" ht="12.75">
       <c r="E217" s="27"/>
     </row>
-    <row r="218" spans="5:5" ht="13">
+    <row r="218" spans="5:5" ht="12.75">
       <c r="E218" s="27"/>
     </row>
-    <row r="219" spans="5:5" ht="13">
+    <row r="219" spans="5:5" ht="12.75">
       <c r="E219" s="27"/>
     </row>
-    <row r="220" spans="5:5" ht="13">
+    <row r="220" spans="5:5" ht="12.75">
       <c r="E220" s="27"/>
     </row>
-    <row r="221" spans="5:5" ht="13">
+    <row r="221" spans="5:5" ht="12.75">
       <c r="E221" s="27"/>
     </row>
-    <row r="222" spans="5:5" ht="13">
+    <row r="222" spans="5:5" ht="12.75">
       <c r="E222" s="27"/>
     </row>
-    <row r="223" spans="5:5" ht="13">
+    <row r="223" spans="5:5" ht="12.75">
       <c r="E223" s="27"/>
     </row>
-    <row r="224" spans="5:5" ht="13">
+    <row r="224" spans="5:5" ht="12.75">
       <c r="E224" s="27"/>
     </row>
-    <row r="225" spans="5:5" ht="13">
+    <row r="225" spans="5:5" ht="12.75">
       <c r="E225" s="27"/>
     </row>
-    <row r="226" spans="5:5" ht="13">
+    <row r="226" spans="5:5" ht="12.75">
       <c r="E226" s="27"/>
     </row>
-    <row r="227" spans="5:5" ht="13">
+    <row r="227" spans="5:5" ht="12.75">
       <c r="E227" s="27"/>
     </row>
-    <row r="228" spans="5:5" ht="13">
+    <row r="228" spans="5:5" ht="12.75">
       <c r="E228" s="27"/>
     </row>
-    <row r="229" spans="5:5" ht="13">
+    <row r="229" spans="5:5" ht="12.75">
       <c r="E229" s="27"/>
     </row>
-    <row r="230" spans="5:5" ht="13">
+    <row r="230" spans="5:5" ht="12.75">
       <c r="E230" s="27"/>
     </row>
-    <row r="231" spans="5:5" ht="13">
+    <row r="231" spans="5:5" ht="12.75">
       <c r="E231" s="27"/>
     </row>
-    <row r="232" spans="5:5" ht="13">
+    <row r="232" spans="5:5" ht="12.75">
       <c r="E232" s="27"/>
     </row>
-    <row r="233" spans="5:5" ht="13">
+    <row r="233" spans="5:5" ht="12.75">
       <c r="E233" s="27"/>
     </row>
-    <row r="234" spans="5:5" ht="13">
+    <row r="234" spans="5:5" ht="12.75">
       <c r="E234" s="27"/>
     </row>
-    <row r="235" spans="5:5" ht="13">
+    <row r="235" spans="5:5" ht="12.75">
       <c r="E235" s="27"/>
     </row>
-    <row r="236" spans="5:5" ht="13">
+    <row r="236" spans="5:5" ht="12.75">
       <c r="E236" s="27"/>
     </row>
-    <row r="237" spans="5:5" ht="13">
+    <row r="237" spans="5:5" ht="12.75">
       <c r="E237" s="27"/>
     </row>
-    <row r="238" spans="5:5" ht="13">
+    <row r="238" spans="5:5" ht="12.75">
       <c r="E238" s="27"/>
     </row>
-    <row r="239" spans="5:5" ht="13">
+    <row r="239" spans="5:5" ht="12.75">
       <c r="E239" s="27"/>
     </row>
-    <row r="240" spans="5:5" ht="13">
+    <row r="240" spans="5:5" ht="12.75">
       <c r="E240" s="27"/>
     </row>
-    <row r="241" spans="5:5" ht="13">
+    <row r="241" spans="5:5" ht="12.75">
       <c r="E241" s="27"/>
     </row>
-    <row r="242" spans="5:5" ht="13">
+    <row r="242" spans="5:5" ht="12.75">
       <c r="E242" s="27"/>
     </row>
-    <row r="243" spans="5:5" ht="13">
+    <row r="243" spans="5:5" ht="12.75">
       <c r="E243" s="27"/>
     </row>
-    <row r="244" spans="5:5" ht="13">
+    <row r="244" spans="5:5" ht="12.75">
       <c r="E244" s="27"/>
     </row>
-    <row r="245" spans="5:5" ht="13">
+    <row r="245" spans="5:5" ht="12.75">
       <c r="E245" s="27"/>
     </row>
-    <row r="246" spans="5:5" ht="13">
+    <row r="246" spans="5:5" ht="12.75">
       <c r="E246" s="27"/>
     </row>
-    <row r="247" spans="5:5" ht="13">
+    <row r="247" spans="5:5" ht="12.75">
       <c r="E247" s="27"/>
     </row>
-    <row r="248" spans="5:5" ht="13">
+    <row r="248" spans="5:5" ht="12.75">
       <c r="E248" s="27"/>
     </row>
-    <row r="249" spans="5:5" ht="13">
+    <row r="249" spans="5:5" ht="12.75">
       <c r="E249" s="27"/>
     </row>
-    <row r="250" spans="5:5" ht="13">
+    <row r="250" spans="5:5" ht="12.75">
       <c r="E250" s="27"/>
     </row>
-    <row r="251" spans="5:5" ht="13">
+    <row r="251" spans="5:5" ht="12.75">
       <c r="E251" s="27"/>
     </row>
-    <row r="252" spans="5:5" ht="13">
+    <row r="252" spans="5:5" ht="12.75">
       <c r="E252" s="27"/>
     </row>
-    <row r="253" spans="5:5" ht="13">
+    <row r="253" spans="5:5" ht="12.75">
       <c r="E253" s="27"/>
     </row>
-    <row r="254" spans="5:5" ht="13">
+    <row r="254" spans="5:5" ht="12.75">
       <c r="E254" s="27"/>
     </row>
-    <row r="255" spans="5:5" ht="13">
+    <row r="255" spans="5:5" ht="12.75">
       <c r="E255" s="27"/>
     </row>
-    <row r="256" spans="5:5" ht="13">
+    <row r="256" spans="5:5" ht="12.75">
       <c r="E256" s="27"/>
     </row>
-    <row r="257" spans="5:5" ht="13">
+    <row r="257" spans="5:5" ht="12.75">
       <c r="E257" s="27"/>
     </row>
-    <row r="258" spans="5:5" ht="13">
+    <row r="258" spans="5:5" ht="12.75">
       <c r="E258" s="27"/>
     </row>
-    <row r="259" spans="5:5" ht="13">
+    <row r="259" spans="5:5" ht="12.75">
       <c r="E259" s="27"/>
     </row>
-    <row r="260" spans="5:5" ht="13">
+    <row r="260" spans="5:5" ht="12.75">
       <c r="E260" s="27"/>
     </row>
-    <row r="261" spans="5:5" ht="13">
+    <row r="261" spans="5:5" ht="12.75">
       <c r="E261" s="27"/>
     </row>
-    <row r="262" spans="5:5" ht="13">
+    <row r="262" spans="5:5" ht="12.75">
       <c r="E262" s="27"/>
     </row>
-    <row r="263" spans="5:5" ht="13">
+    <row r="263" spans="5:5" ht="12.75">
       <c r="E263" s="27"/>
     </row>
-    <row r="264" spans="5:5" ht="13">
+    <row r="264" spans="5:5" ht="12.75">
       <c r="E264" s="27"/>
     </row>
-    <row r="265" spans="5:5" ht="13">
+    <row r="265" spans="5:5" ht="12.75">
       <c r="E265" s="27"/>
     </row>
-    <row r="266" spans="5:5" ht="13">
+    <row r="266" spans="5:5" ht="12.75">
       <c r="E266" s="27"/>
     </row>
-    <row r="267" spans="5:5" ht="13">
+    <row r="267" spans="5:5" ht="12.75">
       <c r="E267" s="27"/>
     </row>
-    <row r="268" spans="5:5" ht="13">
+    <row r="268" spans="5:5" ht="12.75">
       <c r="E268" s="27"/>
     </row>
-    <row r="269" spans="5:5" ht="13">
+    <row r="269" spans="5:5" ht="12.75">
       <c r="E269" s="27"/>
     </row>
-    <row r="270" spans="5:5" ht="13">
+    <row r="270" spans="5:5" ht="12.75">
       <c r="E270" s="27"/>
     </row>
-    <row r="271" spans="5:5" ht="13">
+    <row r="271" spans="5:5" ht="12.75">
       <c r="E271" s="27"/>
     </row>
-    <row r="272" spans="5:5" ht="13">
+    <row r="272" spans="5:5" ht="12.75">
       <c r="E272" s="27"/>
     </row>
-    <row r="273" spans="5:5" ht="13">
+    <row r="273" spans="5:5" ht="12.75">
       <c r="E273" s="27"/>
     </row>
-    <row r="274" spans="5:5" ht="13">
+    <row r="274" spans="5:5" ht="12.75">
       <c r="E274" s="27"/>
     </row>
-    <row r="275" spans="5:5" ht="13">
+    <row r="275" spans="5:5" ht="12.75">
       <c r="E275" s="27"/>
     </row>
-    <row r="276" spans="5:5" ht="13">
+    <row r="276" spans="5:5" ht="12.75">
       <c r="E276" s="27"/>
     </row>
-    <row r="277" spans="5:5" ht="13">
+    <row r="277" spans="5:5" ht="12.75">
       <c r="E277" s="27"/>
     </row>
-    <row r="278" spans="5:5" ht="13">
+    <row r="278" spans="5:5" ht="12.75">
       <c r="E278" s="27"/>
     </row>
-    <row r="279" spans="5:5" ht="13">
+    <row r="279" spans="5:5" ht="12.75">
       <c r="E279" s="27"/>
     </row>
-    <row r="280" spans="5:5" ht="13">
+    <row r="280" spans="5:5" ht="12.75">
       <c r="E280" s="27"/>
     </row>
-    <row r="281" spans="5:5" ht="13">
+    <row r="281" spans="5:5" ht="12.75">
       <c r="E281" s="27"/>
     </row>
-    <row r="282" spans="5:5" ht="13">
+    <row r="282" spans="5:5" ht="12.75">
       <c r="E282" s="27"/>
     </row>
-    <row r="283" spans="5:5" ht="13">
+    <row r="283" spans="5:5" ht="12.75">
       <c r="E283" s="27"/>
     </row>
-    <row r="284" spans="5:5" ht="13">
+    <row r="284" spans="5:5" ht="12.75">
       <c r="E284" s="27"/>
     </row>
-    <row r="285" spans="5:5" ht="13">
+    <row r="285" spans="5:5" ht="12.75">
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="5:5" ht="13">
+    <row r="286" spans="5:5" ht="12.75">
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="5:5" ht="13">
+    <row r="287" spans="5:5" ht="12.75">
       <c r="E287" s="27"/>
     </row>
-    <row r="288" spans="5:5" ht="13">
+    <row r="288" spans="5:5" ht="12.75">
       <c r="E288" s="27"/>
     </row>
-    <row r="289" spans="5:5" ht="13">
+    <row r="289" spans="5:5" ht="12.75">
       <c r="E289" s="27"/>
     </row>
-    <row r="290" spans="5:5" ht="13">
+    <row r="290" spans="5:5" ht="12.75">
       <c r="E290" s="27"/>
     </row>
-    <row r="291" spans="5:5" ht="13">
+    <row r="291" spans="5:5" ht="12.75">
       <c r="E291" s="27"/>
     </row>
-    <row r="292" spans="5:5" ht="13">
+    <row r="292" spans="5:5" ht="12.75">
       <c r="E292" s="27"/>
     </row>
-    <row r="293" spans="5:5" ht="13">
+    <row r="293" spans="5:5" ht="12.75">
       <c r="E293" s="27"/>
     </row>
-    <row r="294" spans="5:5" ht="13">
+    <row r="294" spans="5:5" ht="12.75">
       <c r="E294" s="27"/>
     </row>
-    <row r="295" spans="5:5" ht="13">
+    <row r="295" spans="5:5" ht="12.75">
       <c r="E295" s="27"/>
     </row>
-    <row r="296" spans="5:5" ht="13">
+    <row r="296" spans="5:5" ht="12.75">
       <c r="E296" s="27"/>
     </row>
-    <row r="297" spans="5:5" ht="13">
+    <row r="297" spans="5:5" ht="12.75">
       <c r="E297" s="27"/>
     </row>
-    <row r="298" spans="5:5" ht="13">
+    <row r="298" spans="5:5" ht="12.75">
       <c r="E298" s="27"/>
     </row>
-    <row r="299" spans="5:5" ht="13">
+    <row r="299" spans="5:5" ht="12.75">
       <c r="E299" s="27"/>
     </row>
-    <row r="300" spans="5:5" ht="13">
+    <row r="300" spans="5:5" ht="12.75">
       <c r="E300" s="27"/>
     </row>
-    <row r="301" spans="5:5" ht="13">
+    <row r="301" spans="5:5" ht="12.75">
       <c r="E301" s="27"/>
     </row>
-    <row r="302" spans="5:5" ht="13">
+    <row r="302" spans="5:5" ht="12.75">
       <c r="E302" s="27"/>
     </row>
-    <row r="303" spans="5:5" ht="13">
+    <row r="303" spans="5:5" ht="12.75">
       <c r="E303" s="27"/>
     </row>
-    <row r="304" spans="5:5" ht="13">
+    <row r="304" spans="5:5" ht="12.75">
       <c r="E304" s="27"/>
     </row>
-    <row r="305" spans="5:5" ht="13">
+    <row r="305" spans="5:5" ht="12.75">
       <c r="E305" s="27"/>
     </row>
-    <row r="306" spans="5:5" ht="13">
+    <row r="306" spans="5:5" ht="12.75">
       <c r="E306" s="27"/>
     </row>
-    <row r="307" spans="5:5" ht="13">
+    <row r="307" spans="5:5" ht="12.75">
       <c r="E307" s="27"/>
     </row>
-    <row r="308" spans="5:5" ht="13">
+    <row r="308" spans="5:5" ht="12.75">
       <c r="E308" s="27"/>
     </row>
-    <row r="309" spans="5:5" ht="13">
+    <row r="309" spans="5:5" ht="12.75">
       <c r="E309" s="27"/>
     </row>
-    <row r="310" spans="5:5" ht="13">
+    <row r="310" spans="5:5" ht="12.75">
       <c r="E310" s="27"/>
     </row>
-    <row r="311" spans="5:5" ht="13">
+    <row r="311" spans="5:5" ht="12.75">
       <c r="E311" s="27"/>
     </row>
-    <row r="312" spans="5:5" ht="13">
+    <row r="312" spans="5:5" ht="12.75">
       <c r="E312" s="27"/>
     </row>
-    <row r="313" spans="5:5" ht="13">
+    <row r="313" spans="5:5" ht="12.75">
       <c r="E313" s="27"/>
     </row>
-    <row r="314" spans="5:5" ht="13">
+    <row r="314" spans="5:5" ht="12.75">
       <c r="E314" s="27"/>
     </row>
-    <row r="315" spans="5:5" ht="13">
+    <row r="315" spans="5:5" ht="12.75">
       <c r="E315" s="27"/>
     </row>
-    <row r="316" spans="5:5" ht="13">
+    <row r="316" spans="5:5" ht="12.75">
       <c r="E316" s="27"/>
     </row>
-    <row r="317" spans="5:5" ht="13">
+    <row r="317" spans="5:5" ht="12.75">
       <c r="E317" s="27"/>
     </row>
-    <row r="318" spans="5:5" ht="13">
+    <row r="318" spans="5:5" ht="12.75">
       <c r="E318" s="27"/>
     </row>
-    <row r="319" spans="5:5" ht="13">
+    <row r="319" spans="5:5" ht="12.75">
       <c r="E319" s="27"/>
     </row>
-    <row r="320" spans="5:5" ht="13">
+    <row r="320" spans="5:5" ht="12.75">
       <c r="E320" s="27"/>
     </row>
-    <row r="321" spans="5:5" ht="13">
+    <row r="321" spans="5:5" ht="12.75">
       <c r="E321" s="27"/>
     </row>
-    <row r="322" spans="5:5" ht="13">
+    <row r="322" spans="5:5" ht="12.75">
       <c r="E322" s="27"/>
     </row>
-    <row r="323" spans="5:5" ht="13">
+    <row r="323" spans="5:5" ht="12.75">
       <c r="E323" s="27"/>
     </row>
-    <row r="324" spans="5:5" ht="13">
+    <row r="324" spans="5:5" ht="12.75">
       <c r="E324" s="27"/>
     </row>
-    <row r="325" spans="5:5" ht="13">
+    <row r="325" spans="5:5" ht="12.75">
       <c r="E325" s="27"/>
     </row>
-    <row r="326" spans="5:5" ht="13">
+    <row r="326" spans="5:5" ht="12.75">
       <c r="E326" s="27"/>
     </row>
-    <row r="327" spans="5:5" ht="13">
+    <row r="327" spans="5:5" ht="12.75">
       <c r="E327" s="27"/>
     </row>
-    <row r="328" spans="5:5" ht="13">
+    <row r="328" spans="5:5" ht="12.75">
       <c r="E328" s="27"/>
     </row>
-    <row r="329" spans="5:5" ht="13">
+    <row r="329" spans="5:5" ht="12.75">
       <c r="E329" s="27"/>
     </row>
-    <row r="330" spans="5:5" ht="13">
+    <row r="330" spans="5:5" ht="12.75">
       <c r="E330" s="27"/>
     </row>
-    <row r="331" spans="5:5" ht="13">
+    <row r="331" spans="5:5" ht="12.75">
       <c r="E331" s="27"/>
     </row>
-    <row r="332" spans="5:5" ht="13">
+    <row r="332" spans="5:5" ht="12.75">
       <c r="E332" s="27"/>
     </row>
-    <row r="333" spans="5:5" ht="13">
+    <row r="333" spans="5:5" ht="12.75">
       <c r="E333" s="27"/>
     </row>
-    <row r="334" spans="5:5" ht="13">
+    <row r="334" spans="5:5" ht="12.75">
       <c r="E334" s="27"/>
     </row>
-    <row r="335" spans="5:5" ht="13">
+    <row r="335" spans="5:5" ht="12.75">
       <c r="E335" s="27"/>
     </row>
-    <row r="336" spans="5:5" ht="13">
+    <row r="336" spans="5:5" ht="12.75">
       <c r="E336" s="27"/>
     </row>
-    <row r="337" spans="5:5" ht="13">
+    <row r="337" spans="5:5" ht="12.75">
       <c r="E337" s="27"/>
     </row>
-    <row r="338" spans="5:5" ht="13">
+    <row r="338" spans="5:5" ht="12.75">
       <c r="E338" s="27"/>
     </row>
-    <row r="339" spans="5:5" ht="13">
+    <row r="339" spans="5:5" ht="12.75">
       <c r="E339" s="27"/>
     </row>
-    <row r="340" spans="5:5" ht="13">
+    <row r="340" spans="5:5" ht="12.75">
       <c r="E340" s="27"/>
     </row>
-    <row r="341" spans="5:5" ht="13">
+    <row r="341" spans="5:5" ht="12.75">
       <c r="E341" s="27"/>
     </row>
-    <row r="342" spans="5:5" ht="13">
+    <row r="342" spans="5:5" ht="12.75">
       <c r="E342" s="27"/>
     </row>
-    <row r="343" spans="5:5" ht="13">
+    <row r="343" spans="5:5" ht="12.75">
       <c r="E343" s="27"/>
     </row>
-    <row r="344" spans="5:5" ht="13">
+    <row r="344" spans="5:5" ht="12.75">
       <c r="E344" s="27"/>
     </row>
-    <row r="345" spans="5:5" ht="13">
+    <row r="345" spans="5:5" ht="12.75">
       <c r="E345" s="27"/>
     </row>
-    <row r="346" spans="5:5" ht="13">
+    <row r="346" spans="5:5" ht="12.75">
       <c r="E346" s="27"/>
     </row>
-    <row r="347" spans="5:5" ht="13">
+    <row r="347" spans="5:5" ht="12.75">
       <c r="E347" s="27"/>
     </row>
-    <row r="348" spans="5:5" ht="13">
+    <row r="348" spans="5:5" ht="12.75">
       <c r="E348" s="27"/>
     </row>
-    <row r="349" spans="5:5" ht="13">
+    <row r="349" spans="5:5" ht="12.75">
       <c r="E349" s="27"/>
     </row>
-    <row r="350" spans="5:5" ht="13">
+    <row r="350" spans="5:5" ht="12.75">
       <c r="E350" s="27"/>
     </row>
-    <row r="351" spans="5:5" ht="13">
+    <row r="351" spans="5:5" ht="12.75">
       <c r="E351" s="27"/>
     </row>
-    <row r="352" spans="5:5" ht="13">
+    <row r="352" spans="5:5" ht="12.75">
       <c r="E352" s="27"/>
     </row>
-    <row r="353" spans="5:5" ht="13">
+    <row r="353" spans="5:5" ht="12.75">
       <c r="E353" s="27"/>
     </row>
-    <row r="354" spans="5:5" ht="13">
+    <row r="354" spans="5:5" ht="12.75">
       <c r="E354" s="27"/>
     </row>
-    <row r="355" spans="5:5" ht="13">
+    <row r="355" spans="5:5" ht="12.75">
       <c r="E355" s="27"/>
     </row>
-    <row r="356" spans="5:5" ht="13">
+    <row r="356" spans="5:5" ht="12.75">
       <c r="E356" s="27"/>
     </row>
-    <row r="357" spans="5:5" ht="13">
+    <row r="357" spans="5:5" ht="12.75">
       <c r="E357" s="27"/>
     </row>
-    <row r="358" spans="5:5" ht="13">
+    <row r="358" spans="5:5" ht="12.75">
       <c r="E358" s="27"/>
     </row>
-    <row r="359" spans="5:5" ht="13">
+    <row r="359" spans="5:5" ht="12.75">
       <c r="E359" s="27"/>
     </row>
-    <row r="360" spans="5:5" ht="13">
+    <row r="360" spans="5:5" ht="12.75">
       <c r="E360" s="27"/>
     </row>
-    <row r="361" spans="5:5" ht="13">
+    <row r="361" spans="5:5" ht="12.75">
       <c r="E361" s="27"/>
     </row>
-    <row r="362" spans="5:5" ht="13">
+    <row r="362" spans="5:5" ht="12.75">
       <c r="E362" s="27"/>
     </row>
-    <row r="363" spans="5:5" ht="13">
+    <row r="363" spans="5:5" ht="12.75">
       <c r="E363" s="27"/>
     </row>
-    <row r="364" spans="5:5" ht="13">
+    <row r="364" spans="5:5" ht="12.75">
       <c r="E364" s="27"/>
     </row>
-    <row r="365" spans="5:5" ht="13">
+    <row r="365" spans="5:5" ht="12.75">
       <c r="E365" s="27"/>
     </row>
-    <row r="366" spans="5:5" ht="13">
+    <row r="366" spans="5:5" ht="12.75">
       <c r="E366" s="27"/>
     </row>
-    <row r="367" spans="5:5" ht="13">
+    <row r="367" spans="5:5" ht="12.75">
       <c r="E367" s="27"/>
     </row>
-    <row r="368" spans="5:5" ht="13">
+    <row r="368" spans="5:5" ht="12.75">
       <c r="E368" s="27"/>
     </row>
-    <row r="369" spans="5:5" ht="13">
+    <row r="369" spans="5:5" ht="12.75">
       <c r="E369" s="27"/>
     </row>
-    <row r="370" spans="5:5" ht="13">
+    <row r="370" spans="5:5" ht="12.75">
       <c r="E370" s="27"/>
     </row>
-    <row r="371" spans="5:5" ht="13">
+    <row r="371" spans="5:5" ht="12.75">
       <c r="E371" s="27"/>
     </row>
-    <row r="372" spans="5:5" ht="13">
+    <row r="372" spans="5:5" ht="12.75">
       <c r="E372" s="27"/>
     </row>
-    <row r="373" spans="5:5" ht="13">
+    <row r="373" spans="5:5" ht="12.75">
       <c r="E373" s="27"/>
     </row>
-    <row r="374" spans="5:5" ht="13">
+    <row r="374" spans="5:5" ht="12.75">
       <c r="E374" s="27"/>
     </row>
-    <row r="375" spans="5:5" ht="13">
+    <row r="375" spans="5:5" ht="12.75">
       <c r="E375" s="27"/>
     </row>
-    <row r="376" spans="5:5" ht="13">
+    <row r="376" spans="5:5" ht="12.75">
       <c r="E376" s="27"/>
     </row>
-    <row r="377" spans="5:5" ht="13">
+    <row r="377" spans="5:5" ht="12.75">
       <c r="E377" s="27"/>
     </row>
-    <row r="378" spans="5:5" ht="13">
+    <row r="378" spans="5:5" ht="12.75">
       <c r="E378" s="27"/>
     </row>
-    <row r="379" spans="5:5" ht="13">
+    <row r="379" spans="5:5" ht="12.75">
       <c r="E379" s="27"/>
     </row>
-    <row r="380" spans="5:5" ht="13">
+    <row r="380" spans="5:5" ht="12.75">
       <c r="E380" s="27"/>
     </row>
-    <row r="381" spans="5:5" ht="13">
+    <row r="381" spans="5:5" ht="12.75">
       <c r="E381" s="27"/>
     </row>
-    <row r="382" spans="5:5" ht="13">
+    <row r="382" spans="5:5" ht="12.75">
       <c r="E382" s="27"/>
     </row>
-    <row r="383" spans="5:5" ht="13">
+    <row r="383" spans="5:5" ht="12.75">
       <c r="E383" s="27"/>
     </row>
-    <row r="384" spans="5:5" ht="13">
+    <row r="384" spans="5:5" ht="12.75">
       <c r="E384" s="27"/>
     </row>
-    <row r="385" spans="5:5" ht="13">
+    <row r="385" spans="5:5" ht="12.75">
       <c r="E385" s="27"/>
     </row>
-    <row r="386" spans="5:5" ht="13">
+    <row r="386" spans="5:5" ht="12.75">
       <c r="E386" s="27"/>
     </row>
-    <row r="387" spans="5:5" ht="13">
+    <row r="387" spans="5:5" ht="12.75">
       <c r="E387" s="27"/>
     </row>
-    <row r="388" spans="5:5" ht="13">
+    <row r="388" spans="5:5" ht="12.75">
       <c r="E388" s="27"/>
     </row>
-    <row r="389" spans="5:5" ht="13">
+    <row r="389" spans="5:5" ht="12.75">
       <c r="E389" s="27"/>
     </row>
-    <row r="390" spans="5:5" ht="13">
+    <row r="390" spans="5:5" ht="12.75">
       <c r="E390" s="27"/>
     </row>
-    <row r="391" spans="5:5" ht="13">
+    <row r="391" spans="5:5" ht="12.75">
       <c r="E391" s="27"/>
     </row>
-    <row r="392" spans="5:5" ht="13">
+    <row r="392" spans="5:5" ht="12.75">
       <c r="E392" s="27"/>
     </row>
-    <row r="393" spans="5:5" ht="13">
+    <row r="393" spans="5:5" ht="12.75">
       <c r="E393" s="27"/>
     </row>
-    <row r="394" spans="5:5" ht="13">
+    <row r="394" spans="5:5" ht="12.75">
       <c r="E394" s="27"/>
     </row>
-    <row r="395" spans="5:5" ht="13">
+    <row r="395" spans="5:5" ht="12.75">
       <c r="E395" s="27"/>
     </row>
-    <row r="396" spans="5:5" ht="13">
+    <row r="396" spans="5:5" ht="12.75">
       <c r="E396" s="27"/>
     </row>
-    <row r="397" spans="5:5" ht="13">
+    <row r="397" spans="5:5" ht="12.75">
       <c r="E397" s="27"/>
     </row>
-    <row r="398" spans="5:5" ht="13">
+    <row r="398" spans="5:5" ht="12.75">
       <c r="E398" s="27"/>
     </row>
-    <row r="399" spans="5:5" ht="13">
+    <row r="399" spans="5:5" ht="12.75">
       <c r="E399" s="27"/>
     </row>
-    <row r="400" spans="5:5" ht="13">
+    <row r="400" spans="5:5" ht="12.75">
       <c r="E400" s="27"/>
     </row>
-    <row r="401" spans="5:5" ht="13">
+    <row r="401" spans="5:5" ht="12.75">
       <c r="E401" s="27"/>
     </row>
-    <row r="402" spans="5:5" ht="13">
+    <row r="402" spans="5:5" ht="12.75">
       <c r="E402" s="27"/>
     </row>
-    <row r="403" spans="5:5" ht="13">
+    <row r="403" spans="5:5" ht="12.75">
       <c r="E403" s="27"/>
     </row>
-    <row r="404" spans="5:5" ht="13">
+    <row r="404" spans="5:5" ht="12.75">
       <c r="E404" s="27"/>
     </row>
-    <row r="405" spans="5:5" ht="13">
+    <row r="405" spans="5:5" ht="12.75">
       <c r="E405" s="27"/>
     </row>
-    <row r="406" spans="5:5" ht="13">
+    <row r="406" spans="5:5" ht="12.75">
       <c r="E406" s="27"/>
     </row>
-    <row r="407" spans="5:5" ht="13">
+    <row r="407" spans="5:5" ht="12.75">
       <c r="E407" s="27"/>
     </row>
-    <row r="408" spans="5:5" ht="13">
+    <row r="408" spans="5:5" ht="12.75">
       <c r="E408" s="27"/>
     </row>
-    <row r="409" spans="5:5" ht="13">
+    <row r="409" spans="5:5" ht="12.75">
       <c r="E409" s="27"/>
     </row>
-    <row r="410" spans="5:5" ht="13">
+    <row r="410" spans="5:5" ht="12.75">
       <c r="E410" s="27"/>
     </row>
-    <row r="411" spans="5:5" ht="13">
+    <row r="411" spans="5:5" ht="12.75">
       <c r="E411" s="27"/>
     </row>
-    <row r="412" spans="5:5" ht="13">
+    <row r="412" spans="5:5" ht="12.75">
       <c r="E412" s="27"/>
     </row>
-    <row r="413" spans="5:5" ht="13">
+    <row r="413" spans="5:5" ht="12.75">
       <c r="E413" s="27"/>
     </row>
-    <row r="414" spans="5:5" ht="13">
+    <row r="414" spans="5:5" ht="12.75">
       <c r="E414" s="27"/>
     </row>
-    <row r="415" spans="5:5" ht="13">
+    <row r="415" spans="5:5" ht="12.75">
       <c r="E415" s="27"/>
     </row>
-    <row r="416" spans="5:5" ht="13">
+    <row r="416" spans="5:5" ht="12.75">
       <c r="E416" s="27"/>
     </row>
-    <row r="417" spans="5:5" ht="13">
+    <row r="417" spans="5:5" ht="12.75">
       <c r="E417" s="27"/>
     </row>
-    <row r="418" spans="5:5" ht="13">
+    <row r="418" spans="5:5" ht="12.75">
       <c r="E418" s="27"/>
     </row>
-    <row r="419" spans="5:5" ht="13">
+    <row r="419" spans="5:5" ht="12.75">
       <c r="E419" s="27"/>
     </row>
-    <row r="420" spans="5:5" ht="13">
+    <row r="420" spans="5:5" ht="12.75">
       <c r="E420" s="27"/>
     </row>
-    <row r="421" spans="5:5" ht="13">
+    <row r="421" spans="5:5" ht="12.75">
       <c r="E421" s="27"/>
     </row>
-    <row r="422" spans="5:5" ht="13">
+    <row r="422" spans="5:5" ht="12.75">
       <c r="E422" s="27"/>
     </row>
-    <row r="423" spans="5:5" ht="13">
+    <row r="423" spans="5:5" ht="12.75">
       <c r="E423" s="27"/>
     </row>
-    <row r="424" spans="5:5" ht="13">
+    <row r="424" spans="5:5" ht="12.75">
       <c r="E424" s="27"/>
     </row>
-    <row r="425" spans="5:5" ht="13">
+    <row r="425" spans="5:5" ht="12.75">
       <c r="E425" s="27"/>
     </row>
-    <row r="426" spans="5:5" ht="13">
+    <row r="426" spans="5:5" ht="12.75">
       <c r="E426" s="27"/>
     </row>
-    <row r="427" spans="5:5" ht="13">
+    <row r="427" spans="5:5" ht="12.75">
       <c r="E427" s="27"/>
     </row>
-    <row r="428" spans="5:5" ht="13">
+    <row r="428" spans="5:5" ht="12.75">
       <c r="E428" s="27"/>
     </row>
-    <row r="429" spans="5:5" ht="13">
+    <row r="429" spans="5:5" ht="12.75">
       <c r="E429" s="27"/>
     </row>
-    <row r="430" spans="5:5" ht="13">
+    <row r="430" spans="5:5" ht="12.75">
       <c r="E430" s="27"/>
     </row>
-    <row r="431" spans="5:5" ht="13">
+    <row r="431" spans="5:5" ht="12.75">
       <c r="E431" s="27"/>
     </row>
-    <row r="432" spans="5:5" ht="13">
+    <row r="432" spans="5:5" ht="12.75">
       <c r="E432" s="27"/>
     </row>
-    <row r="433" spans="5:5" ht="13">
+    <row r="433" spans="5:5" ht="12.75">
       <c r="E433" s="27"/>
     </row>
-    <row r="434" spans="5:5" ht="13">
+    <row r="434" spans="5:5" ht="12.75">
       <c r="E434" s="27"/>
     </row>
-    <row r="435" spans="5:5" ht="13">
+    <row r="435" spans="5:5" ht="12.75">
       <c r="E435" s="27"/>
     </row>
-    <row r="436" spans="5:5" ht="13">
+    <row r="436" spans="5:5" ht="12.75">
       <c r="E436" s="27"/>
     </row>
-    <row r="437" spans="5:5" ht="13">
+    <row r="437" spans="5:5" ht="12.75">
       <c r="E437" s="27"/>
     </row>
-    <row r="438" spans="5:5" ht="13">
+    <row r="438" spans="5:5" ht="12.75">
       <c r="E438" s="27"/>
     </row>
-    <row r="439" spans="5:5" ht="13">
+    <row r="439" spans="5:5" ht="12.75">
       <c r="E439" s="27"/>
     </row>
-    <row r="440" spans="5:5" ht="13">
+    <row r="440" spans="5:5" ht="12.75">
       <c r="E440" s="27"/>
     </row>
-    <row r="441" spans="5:5" ht="13">
+    <row r="441" spans="5:5" ht="12.75">
       <c r="E441" s="27"/>
     </row>
-    <row r="442" spans="5:5" ht="13">
+    <row r="442" spans="5:5" ht="12.75">
       <c r="E442" s="27"/>
     </row>
-    <row r="443" spans="5:5" ht="13">
+    <row r="443" spans="5:5" ht="12.75">
       <c r="E443" s="27"/>
     </row>
-    <row r="444" spans="5:5" ht="13">
+    <row r="444" spans="5:5" ht="12.75">
       <c r="E444" s="27"/>
     </row>
-    <row r="445" spans="5:5" ht="13">
+    <row r="445" spans="5:5" ht="12.75">
       <c r="E445" s="27"/>
     </row>
-    <row r="446" spans="5:5" ht="13">
+    <row r="446" spans="5:5" ht="12.75">
       <c r="E446" s="27"/>
     </row>
-    <row r="447" spans="5:5" ht="13">
+    <row r="447" spans="5:5" ht="12.75">
       <c r="E447" s="27"/>
     </row>
-    <row r="448" spans="5:5" ht="13">
+    <row r="448" spans="5:5" ht="12.75">
       <c r="E448" s="27"/>
     </row>
-    <row r="449" spans="5:5" ht="13">
+    <row r="449" spans="5:5" ht="12.75">
       <c r="E449" s="27"/>
     </row>
-    <row r="450" spans="5:5" ht="13">
+    <row r="450" spans="5:5" ht="12.75">
       <c r="E450" s="27"/>
     </row>
-    <row r="451" spans="5:5" ht="13">
+    <row r="451" spans="5:5" ht="12.75">
       <c r="E451" s="27"/>
     </row>
-    <row r="452" spans="5:5" ht="13">
+    <row r="452" spans="5:5" ht="12.75">
       <c r="E452" s="27"/>
     </row>
-    <row r="453" spans="5:5" ht="13">
+    <row r="453" spans="5:5" ht="12.75">
       <c r="E453" s="27"/>
     </row>
-    <row r="454" spans="5:5" ht="13">
+    <row r="454" spans="5:5" ht="12.75">
       <c r="E454" s="27"/>
     </row>
-    <row r="455" spans="5:5" ht="13">
+    <row r="455" spans="5:5" ht="12.75">
       <c r="E455" s="27"/>
     </row>
-    <row r="456" spans="5:5" ht="13">
+    <row r="456" spans="5:5" ht="12.75">
       <c r="E456" s="27"/>
     </row>
-    <row r="457" spans="5:5" ht="13">
+    <row r="457" spans="5:5" ht="12.75">
       <c r="E457" s="27"/>
     </row>
-    <row r="458" spans="5:5" ht="13">
+    <row r="458" spans="5:5" ht="12.75">
       <c r="E458" s="27"/>
     </row>
-    <row r="459" spans="5:5" ht="13">
+    <row r="459" spans="5:5" ht="12.75">
       <c r="E459" s="27"/>
     </row>
-    <row r="460" spans="5:5" ht="13">
+    <row r="460" spans="5:5" ht="12.75">
       <c r="E460" s="27"/>
     </row>
-    <row r="461" spans="5:5" ht="13">
+    <row r="461" spans="5:5" ht="12.75">
       <c r="E461" s="27"/>
     </row>
-    <row r="462" spans="5:5" ht="13">
+    <row r="462" spans="5:5" ht="12.75">
       <c r="E462" s="27"/>
     </row>
-    <row r="463" spans="5:5" ht="13">
+    <row r="463" spans="5:5" ht="12.75">
       <c r="E463" s="27"/>
     </row>
-    <row r="464" spans="5:5" ht="13">
+    <row r="464" spans="5:5" ht="12.75">
       <c r="E464" s="27"/>
     </row>
-    <row r="465" spans="5:5" ht="13">
+    <row r="465" spans="5:5" ht="12.75">
       <c r="E465" s="27"/>
     </row>
-    <row r="466" spans="5:5" ht="13">
+    <row r="466" spans="5:5" ht="12.75">
       <c r="E466" s="27"/>
     </row>
-    <row r="467" spans="5:5" ht="13">
+    <row r="467" spans="5:5" ht="12.75">
       <c r="E467" s="27"/>
     </row>
-    <row r="468" spans="5:5" ht="13">
+    <row r="468" spans="5:5" ht="12.75">
       <c r="E468" s="27"/>
     </row>
-    <row r="469" spans="5:5" ht="13">
+    <row r="469" spans="5:5" ht="12.75">
       <c r="E469" s="27"/>
     </row>
-    <row r="470" spans="5:5" ht="13">
+    <row r="470" spans="5:5" ht="12.75">
       <c r="E470" s="27"/>
     </row>
-    <row r="471" spans="5:5" ht="13">
+    <row r="471" spans="5:5" ht="12.75">
       <c r="E471" s="27"/>
     </row>
-    <row r="472" spans="5:5" ht="13">
+    <row r="472" spans="5:5" ht="12.75">
       <c r="E472" s="27"/>
     </row>
-    <row r="473" spans="5:5" ht="13">
+    <row r="473" spans="5:5" ht="12.75">
       <c r="E473" s="27"/>
     </row>
-    <row r="474" spans="5:5" ht="13">
+    <row r="474" spans="5:5" ht="12.75">
       <c r="E474" s="27"/>
     </row>
-    <row r="475" spans="5:5" ht="13">
+    <row r="475" spans="5:5" ht="12.75">
       <c r="E475" s="27"/>
     </row>
-    <row r="476" spans="5:5" ht="13">
+    <row r="476" spans="5:5" ht="12.75">
       <c r="E476" s="27"/>
     </row>
-    <row r="477" spans="5:5" ht="13">
+    <row r="477" spans="5:5" ht="12.75">
       <c r="E477" s="27"/>
     </row>
-    <row r="478" spans="5:5" ht="13">
+    <row r="478" spans="5:5" ht="12.75">
       <c r="E478" s="27"/>
     </row>
-    <row r="479" spans="5:5" ht="13">
+    <row r="479" spans="5:5" ht="12.75">
       <c r="E479" s="27"/>
     </row>
-    <row r="480" spans="5:5" ht="13">
+    <row r="480" spans="5:5" ht="12.75">
       <c r="E480" s="27"/>
     </row>
-    <row r="481" spans="5:5" ht="13">
+    <row r="481" spans="5:5" ht="12.75">
       <c r="E481" s="27"/>
     </row>
-    <row r="482" spans="5:5" ht="13">
+    <row r="482" spans="5:5" ht="12.75">
       <c r="E482" s="27"/>
     </row>
-    <row r="483" spans="5:5" ht="13">
+    <row r="483" spans="5:5" ht="12.75">
       <c r="E483" s="27"/>
     </row>
-    <row r="484" spans="5:5" ht="13">
+    <row r="484" spans="5:5" ht="12.75">
       <c r="E484" s="27"/>
     </row>
-    <row r="485" spans="5:5" ht="13">
+    <row r="485" spans="5:5" ht="12.75">
       <c r="E485" s="27"/>
     </row>
-    <row r="486" spans="5:5" ht="13">
+    <row r="486" spans="5:5" ht="12.75">
       <c r="E486" s="27"/>
     </row>
-    <row r="487" spans="5:5" ht="13">
+    <row r="487" spans="5:5" ht="12.75">
       <c r="E487" s="27"/>
     </row>
-    <row r="488" spans="5:5" ht="13">
+    <row r="488" spans="5:5" ht="12.75">
       <c r="E488" s="27"/>
     </row>
-    <row r="489" spans="5:5" ht="13">
+    <row r="489" spans="5:5" ht="12.75">
       <c r="E489" s="27"/>
     </row>
-    <row r="490" spans="5:5" ht="13">
+    <row r="490" spans="5:5" ht="12.75">
       <c r="E490" s="27"/>
     </row>
-    <row r="491" spans="5:5" ht="13">
+    <row r="491" spans="5:5" ht="12.75">
       <c r="E491" s="27"/>
     </row>
-    <row r="492" spans="5:5" ht="13">
+    <row r="492" spans="5:5" ht="12.75">
       <c r="E492" s="27"/>
     </row>
-    <row r="493" spans="5:5" ht="13">
+    <row r="493" spans="5:5" ht="12.75">
       <c r="E493" s="27"/>
     </row>
-    <row r="494" spans="5:5" ht="13">
+    <row r="494" spans="5:5" ht="12.75">
       <c r="E494" s="27"/>
     </row>
-    <row r="495" spans="5:5" ht="13">
+    <row r="495" spans="5:5" ht="12.75">
       <c r="E495" s="27"/>
     </row>
-    <row r="496" spans="5:5" ht="13">
+    <row r="496" spans="5:5" ht="12.75">
       <c r="E496" s="27"/>
     </row>
-    <row r="497" spans="5:5" ht="13">
+    <row r="497" spans="5:5" ht="12.75">
       <c r="E497" s="27"/>
     </row>
-    <row r="498" spans="5:5" ht="13">
+    <row r="498" spans="5:5" ht="12.75">
       <c r="E498" s="27"/>
     </row>
-    <row r="499" spans="5:5" ht="13">
+    <row r="499" spans="5:5" ht="12.75">
       <c r="E499" s="27"/>
     </row>
-    <row r="500" spans="5:5" ht="13">
+    <row r="500" spans="5:5" ht="12.75">
       <c r="E500" s="27"/>
     </row>
-    <row r="501" spans="5:5" ht="13">
+    <row r="501" spans="5:5" ht="12.75">
       <c r="E501" s="27"/>
     </row>
-    <row r="502" spans="5:5" ht="13">
+    <row r="502" spans="5:5" ht="12.75">
       <c r="E502" s="27"/>
     </row>
-    <row r="503" spans="5:5" ht="13">
+    <row r="503" spans="5:5" ht="12.75">
       <c r="E503" s="27"/>
     </row>
-    <row r="504" spans="5:5" ht="13">
+    <row r="504" spans="5:5" ht="12.75">
       <c r="E504" s="27"/>
     </row>
-    <row r="505" spans="5:5" ht="13">
+    <row r="505" spans="5:5" ht="12.75">
       <c r="E505" s="27"/>
     </row>
-    <row r="506" spans="5:5" ht="13">
+    <row r="506" spans="5:5" ht="12.75">
       <c r="E506" s="27"/>
     </row>
-    <row r="507" spans="5:5" ht="13">
+    <row r="507" spans="5:5" ht="12.75">
       <c r="E507" s="27"/>
     </row>
-    <row r="508" spans="5:5" ht="13">
+    <row r="508" spans="5:5" ht="12.75">
       <c r="E508" s="27"/>
     </row>
-    <row r="509" spans="5:5" ht="13">
+    <row r="509" spans="5:5" ht="12.75">
       <c r="E509" s="27"/>
     </row>
-    <row r="510" spans="5:5" ht="13">
+    <row r="510" spans="5:5" ht="12.75">
       <c r="E510" s="27"/>
     </row>
-    <row r="511" spans="5:5" ht="13">
+    <row r="511" spans="5:5" ht="12.75">
       <c r="E511" s="27"/>
     </row>
-    <row r="512" spans="5:5" ht="13">
+    <row r="512" spans="5:5" ht="12.75">
       <c r="E512" s="27"/>
     </row>
-    <row r="513" spans="5:5" ht="13">
+    <row r="513" spans="5:5" ht="12.75">
       <c r="E513" s="27"/>
     </row>
-    <row r="514" spans="5:5" ht="13">
+    <row r="514" spans="5:5" ht="12.75">
       <c r="E514" s="27"/>
     </row>
-    <row r="515" spans="5:5" ht="13">
+    <row r="515" spans="5:5" ht="12.75">
       <c r="E515" s="27"/>
     </row>
-    <row r="516" spans="5:5" ht="13">
+    <row r="516" spans="5:5" ht="12.75">
       <c r="E516" s="27"/>
     </row>
-    <row r="517" spans="5:5" ht="13">
+    <row r="517" spans="5:5" ht="12.75">
       <c r="E517" s="27"/>
     </row>
-    <row r="518" spans="5:5" ht="13">
+    <row r="518" spans="5:5" ht="12.75">
       <c r="E518" s="27"/>
     </row>
-    <row r="519" spans="5:5" ht="13">
+    <row r="519" spans="5:5" ht="12.75">
       <c r="E519" s="27"/>
     </row>
-    <row r="520" spans="5:5" ht="13">
+    <row r="520" spans="5:5" ht="12.75">
       <c r="E520" s="27"/>
     </row>
-    <row r="521" spans="5:5" ht="13">
+    <row r="521" spans="5:5" ht="12.75">
       <c r="E521" s="27"/>
     </row>
-    <row r="522" spans="5:5" ht="13">
+    <row r="522" spans="5:5" ht="12.75">
       <c r="E522" s="27"/>
     </row>
-    <row r="523" spans="5:5" ht="13">
+    <row r="523" spans="5:5" ht="12.75">
       <c r="E523" s="27"/>
     </row>
-    <row r="524" spans="5:5" ht="13">
+    <row r="524" spans="5:5" ht="12.75">
       <c r="E524" s="27"/>
     </row>
-    <row r="525" spans="5:5" ht="13">
+    <row r="525" spans="5:5" ht="12.75">
       <c r="E525" s="27"/>
     </row>
-    <row r="526" spans="5:5" ht="13">
+    <row r="526" spans="5:5" ht="12.75">
       <c r="E526" s="27"/>
     </row>
-    <row r="527" spans="5:5" ht="13">
+    <row r="527" spans="5:5" ht="12.75">
       <c r="E527" s="27"/>
     </row>
-    <row r="528" spans="5:5" ht="13">
+    <row r="528" spans="5:5" ht="12.75">
       <c r="E528" s="27"/>
     </row>
-    <row r="529" spans="5:5" ht="13">
+    <row r="529" spans="5:5" ht="12.75">
       <c r="E529" s="27"/>
     </row>
-    <row r="530" spans="5:5" ht="13">
+    <row r="530" spans="5:5" ht="12.75">
       <c r="E530" s="27"/>
     </row>
-    <row r="531" spans="5:5" ht="13">
+    <row r="531" spans="5:5" ht="12.75">
       <c r="E531" s="27"/>
     </row>
-    <row r="532" spans="5:5" ht="13">
+    <row r="532" spans="5:5" ht="12.75">
       <c r="E532" s="27"/>
     </row>
-    <row r="533" spans="5:5" ht="13">
+    <row r="533" spans="5:5" ht="12.75">
       <c r="E533" s="27"/>
     </row>
-    <row r="534" spans="5:5" ht="13">
+    <row r="534" spans="5:5" ht="12.75">
       <c r="E534" s="27"/>
     </row>
-    <row r="535" spans="5:5" ht="13">
+    <row r="535" spans="5:5" ht="12.75">
       <c r="E535" s="27"/>
     </row>
-    <row r="536" spans="5:5" ht="13">
+    <row r="536" spans="5:5" ht="12.75">
       <c r="E536" s="27"/>
     </row>
-    <row r="537" spans="5:5" ht="13">
+    <row r="537" spans="5:5" ht="12.75">
       <c r="E537" s="27"/>
     </row>
-    <row r="538" spans="5:5" ht="13">
+    <row r="538" spans="5:5" ht="12.75">
       <c r="E538" s="27"/>
     </row>
-    <row r="539" spans="5:5" ht="13">
+    <row r="539" spans="5:5" ht="12.75">
       <c r="E539" s="27"/>
     </row>
-    <row r="540" spans="5:5" ht="13">
+    <row r="540" spans="5:5" ht="12.75">
       <c r="E540" s="27"/>
     </row>
-    <row r="541" spans="5:5" ht="13">
+    <row r="541" spans="5:5" ht="12.75">
       <c r="E541" s="27"/>
     </row>
-    <row r="542" spans="5:5" ht="13">
+    <row r="542" spans="5:5" ht="12.75">
       <c r="E542" s="27"/>
     </row>
-    <row r="543" spans="5:5" ht="13">
+    <row r="543" spans="5:5" ht="12.75">
       <c r="E543" s="27"/>
     </row>
-    <row r="544" spans="5:5" ht="13">
+    <row r="544" spans="5:5" ht="12.75">
       <c r="E544" s="27"/>
     </row>
-    <row r="545" spans="5:5" ht="13">
+    <row r="545" spans="5:5" ht="12.75">
       <c r="E545" s="27"/>
     </row>
-    <row r="546" spans="5:5" ht="13">
+    <row r="546" spans="5:5" ht="12.75">
       <c r="E546" s="27"/>
     </row>
-    <row r="547" spans="5:5" ht="13">
+    <row r="547" spans="5:5" ht="12.75">
       <c r="E547" s="27"/>
     </row>
-    <row r="548" spans="5:5" ht="13">
+    <row r="548" spans="5:5" ht="12.75">
       <c r="E548" s="27"/>
     </row>
-    <row r="549" spans="5:5" ht="13">
+    <row r="549" spans="5:5" ht="12.75">
       <c r="E549" s="27"/>
     </row>
-    <row r="550" spans="5:5" ht="13">
+    <row r="550" spans="5:5" ht="12.75">
       <c r="E550" s="27"/>
     </row>
-    <row r="551" spans="5:5" ht="13">
+    <row r="551" spans="5:5" ht="12.75">
       <c r="E551" s="27"/>
     </row>
-    <row r="552" spans="5:5" ht="13">
+    <row r="552" spans="5:5" ht="12.75">
       <c r="E552" s="27"/>
     </row>
-    <row r="553" spans="5:5" ht="13">
+    <row r="553" spans="5:5" ht="12.75">
       <c r="E553" s="27"/>
     </row>
-    <row r="554" spans="5:5" ht="13">
+    <row r="554" spans="5:5" ht="12.75">
       <c r="E554" s="27"/>
     </row>
-    <row r="555" spans="5:5" ht="13">
+    <row r="555" spans="5:5" ht="12.75">
       <c r="E555" s="27"/>
     </row>
-    <row r="556" spans="5:5" ht="13">
+    <row r="556" spans="5:5" ht="12.75">
       <c r="E556" s="27"/>
     </row>
-    <row r="557" spans="5:5" ht="13">
+    <row r="557" spans="5:5" ht="12.75">
       <c r="E557" s="27"/>
     </row>
-    <row r="558" spans="5:5" ht="13">
+    <row r="558" spans="5:5" ht="12.75">
       <c r="E558" s="27"/>
     </row>
-    <row r="559" spans="5:5" ht="13">
+    <row r="559" spans="5:5" ht="12.75">
       <c r="E559" s="27"/>
     </row>
-    <row r="560" spans="5:5" ht="13">
+    <row r="560" spans="5:5" ht="12.75">
       <c r="E560" s="27"/>
     </row>
-    <row r="561" spans="5:5" ht="13">
+    <row r="561" spans="5:5" ht="12.75">
       <c r="E561" s="27"/>
     </row>
-    <row r="562" spans="5:5" ht="13">
+    <row r="562" spans="5:5" ht="12.75">
       <c r="E562" s="27"/>
     </row>
-    <row r="563" spans="5:5" ht="13">
+    <row r="563" spans="5:5" ht="12.75">
       <c r="E563" s="27"/>
     </row>
-    <row r="564" spans="5:5" ht="13">
+    <row r="564" spans="5:5" ht="12.75">
       <c r="E564" s="27"/>
     </row>
-    <row r="565" spans="5:5" ht="13">
+    <row r="565" spans="5:5" ht="12.75">
       <c r="E565" s="27"/>
     </row>
-    <row r="566" spans="5:5" ht="13">
+    <row r="566" spans="5:5" ht="12.75">
       <c r="E566" s="27"/>
     </row>
-    <row r="567" spans="5:5" ht="13">
+    <row r="567" spans="5:5" ht="12.75">
       <c r="E567" s="27"/>
     </row>
-    <row r="568" spans="5:5" ht="13">
+    <row r="568" spans="5:5" ht="12.75">
       <c r="E568" s="27"/>
     </row>
-    <row r="569" spans="5:5" ht="13">
+    <row r="569" spans="5:5" ht="12.75">
       <c r="E569" s="27"/>
     </row>
-    <row r="570" spans="5:5" ht="13">
+    <row r="570" spans="5:5" ht="12.75">
       <c r="E570" s="27"/>
     </row>
-    <row r="571" spans="5:5" ht="13">
+    <row r="571" spans="5:5" ht="12.75">
       <c r="E571" s="27"/>
     </row>
-    <row r="572" spans="5:5" ht="13">
+    <row r="572" spans="5:5" ht="12.75">
       <c r="E572" s="27"/>
     </row>
-    <row r="573" spans="5:5" ht="13">
+    <row r="573" spans="5:5" ht="12.75">
       <c r="E573" s="27"/>
     </row>
-    <row r="574" spans="5:5" ht="13">
+    <row r="574" spans="5:5" ht="12.75">
       <c r="E574" s="27"/>
     </row>
-    <row r="575" spans="5:5" ht="13">
+    <row r="575" spans="5:5" ht="12.75">
       <c r="E575" s="27"/>
     </row>
-    <row r="576" spans="5:5" ht="13">
+    <row r="576" spans="5:5" ht="12.75">
       <c r="E576" s="27"/>
     </row>
-    <row r="577" spans="5:5" ht="13">
+    <row r="577" spans="5:5" ht="12.75">
       <c r="E577" s="27"/>
     </row>
-    <row r="578" spans="5:5" ht="13">
+    <row r="578" spans="5:5" ht="12.75">
       <c r="E578" s="27"/>
     </row>
-    <row r="579" spans="5:5" ht="13">
+    <row r="579" spans="5:5" ht="12.75">
       <c r="E579" s="27"/>
     </row>
-    <row r="580" spans="5:5" ht="13">
+    <row r="580" spans="5:5" ht="12.75">
       <c r="E580" s="27"/>
     </row>
-    <row r="581" spans="5:5" ht="13">
+    <row r="581" spans="5:5" ht="12.75">
       <c r="E581" s="27"/>
     </row>
-    <row r="582" spans="5:5" ht="13">
+    <row r="582" spans="5:5" ht="12.75">
       <c r="E582" s="27"/>
     </row>
-    <row r="583" spans="5:5" ht="13">
+    <row r="583" spans="5:5" ht="12.75">
       <c r="E583" s="27"/>
     </row>
-    <row r="584" spans="5:5" ht="13">
+    <row r="584" spans="5:5" ht="12.75">
       <c r="E584" s="27"/>
     </row>
-    <row r="585" spans="5:5" ht="13">
+    <row r="585" spans="5:5" ht="12.75">
       <c r="E585" s="27"/>
     </row>
-    <row r="586" spans="5:5" ht="13">
+    <row r="586" spans="5:5" ht="12.75">
       <c r="E586" s="27"/>
     </row>
-    <row r="587" spans="5:5" ht="13">
+    <row r="587" spans="5:5" ht="12.75">
       <c r="E587" s="27"/>
     </row>
-    <row r="588" spans="5:5" ht="13">
+    <row r="588" spans="5:5" ht="12.75">
       <c r="E588" s="27"/>
     </row>
-    <row r="589" spans="5:5" ht="13">
+    <row r="589" spans="5:5" ht="12.75">
       <c r="E589" s="27"/>
     </row>
-    <row r="590" spans="5:5" ht="13">
+    <row r="590" spans="5:5" ht="12.75">
       <c r="E590" s="27"/>
     </row>
-    <row r="591" spans="5:5" ht="13">
+    <row r="591" spans="5:5" ht="12.75">
       <c r="E591" s="27"/>
     </row>
-    <row r="592" spans="5:5" ht="13">
+    <row r="592" spans="5:5" ht="12.75">
       <c r="E592" s="27"/>
     </row>
-    <row r="593" spans="5:5" ht="13">
+    <row r="593" spans="5:5" ht="12.75">
       <c r="E593" s="27"/>
     </row>
-    <row r="594" spans="5:5" ht="13">
+    <row r="594" spans="5:5" ht="12.75">
       <c r="E594" s="27"/>
     </row>
-    <row r="595" spans="5:5" ht="13">
+    <row r="595" spans="5:5" ht="12.75">
       <c r="E595" s="27"/>
     </row>
-    <row r="596" spans="5:5" ht="13">
+    <row r="596" spans="5:5" ht="12.75">
       <c r="E596" s="27"/>
     </row>
-    <row r="597" spans="5:5" ht="13">
+    <row r="597" spans="5:5" ht="12.75">
       <c r="E597" s="27"/>
     </row>
-    <row r="598" spans="5:5" ht="13">
+    <row r="598" spans="5:5" ht="12.75">
       <c r="E598" s="27"/>
     </row>
-    <row r="599" spans="5:5" ht="13">
+    <row r="599" spans="5:5" ht="12.75">
       <c r="E599" s="27"/>
     </row>
-    <row r="600" spans="5:5" ht="13">
+    <row r="600" spans="5:5" ht="12.75">
       <c r="E600" s="27"/>
     </row>
-    <row r="601" spans="5:5" ht="13">
+    <row r="601" spans="5:5" ht="12.75">
       <c r="E601" s="27"/>
     </row>
-    <row r="602" spans="5:5" ht="13">
+    <row r="602" spans="5:5" ht="12.75">
       <c r="E602" s="27"/>
     </row>
-    <row r="603" spans="5:5" ht="13">
+    <row r="603" spans="5:5" ht="12.75">
       <c r="E603" s="27"/>
     </row>
-    <row r="604" spans="5:5" ht="13">
+    <row r="604" spans="5:5" ht="12.75">
       <c r="E604" s="27"/>
     </row>
-    <row r="605" spans="5:5" ht="13">
+    <row r="605" spans="5:5" ht="12.75">
       <c r="E605" s="27"/>
     </row>
-    <row r="606" spans="5:5" ht="13">
+    <row r="606" spans="5:5" ht="12.75">
       <c r="E606" s="27"/>
     </row>
-    <row r="607" spans="5:5" ht="13">
+    <row r="607" spans="5:5" ht="12.75">
       <c r="E607" s="27"/>
     </row>
-    <row r="608" spans="5:5" ht="13">
+    <row r="608" spans="5:5" ht="12.75">
       <c r="E608" s="27"/>
     </row>
-    <row r="609" spans="5:5" ht="13">
+    <row r="609" spans="5:5" ht="12.75">
       <c r="E609" s="27"/>
     </row>
-    <row r="610" spans="5:5" ht="13">
+    <row r="610" spans="5:5" ht="12.75">
       <c r="E610" s="27"/>
     </row>
-    <row r="611" spans="5:5" ht="13">
+    <row r="611" spans="5:5" ht="12.75">
       <c r="E611" s="27"/>
     </row>
-    <row r="612" spans="5:5" ht="13">
+    <row r="612" spans="5:5" ht="12.75">
       <c r="E612" s="27"/>
     </row>
-    <row r="613" spans="5:5" ht="13">
+    <row r="613" spans="5:5" ht="12.75">
       <c r="E613" s="27"/>
     </row>
-    <row r="614" spans="5:5" ht="13">
+    <row r="614" spans="5:5" ht="12.75">
       <c r="E614" s="27"/>
     </row>
-    <row r="615" spans="5:5" ht="13">
+    <row r="615" spans="5:5" ht="12.75">
       <c r="E615" s="27"/>
     </row>
-    <row r="616" spans="5:5" ht="13">
+    <row r="616" spans="5:5" ht="12.75">
       <c r="E616" s="27"/>
     </row>
-    <row r="617" spans="5:5" ht="13">
+    <row r="617" spans="5:5" ht="12.75">
       <c r="E617" s="27"/>
     </row>
-    <row r="618" spans="5:5" ht="13">
+    <row r="618" spans="5:5" ht="12.75">
       <c r="E618" s="27"/>
     </row>
-    <row r="619" spans="5:5" ht="13">
+    <row r="619" spans="5:5" ht="12.75">
       <c r="E619" s="27"/>
     </row>
-    <row r="620" spans="5:5" ht="13">
+    <row r="620" spans="5:5" ht="12.75">
       <c r="E620" s="27"/>
     </row>
-    <row r="621" spans="5:5" ht="13">
+    <row r="621" spans="5:5" ht="12.75">
       <c r="E621" s="27"/>
     </row>
-    <row r="622" spans="5:5" ht="13">
+    <row r="622" spans="5:5" ht="12.75">
       <c r="E622" s="27"/>
     </row>
-    <row r="623" spans="5:5" ht="13">
+    <row r="623" spans="5:5" ht="12.75">
       <c r="E623" s="27"/>
     </row>
-    <row r="624" spans="5:5" ht="13">
+    <row r="624" spans="5:5" ht="12.75">
       <c r="E624" s="27"/>
     </row>
-    <row r="625" spans="5:5" ht="13">
+    <row r="625" spans="5:5" ht="12.75">
       <c r="E625" s="27"/>
     </row>
-    <row r="626" spans="5:5" ht="13">
+    <row r="626" spans="5:5" ht="12.75">
       <c r="E626" s="27"/>
     </row>
-    <row r="627" spans="5:5" ht="13">
+    <row r="627" spans="5:5" ht="12.75">
       <c r="E627" s="27"/>
     </row>
-    <row r="628" spans="5:5" ht="13">
+    <row r="628" spans="5:5" ht="12.75">
       <c r="E628" s="27"/>
     </row>
-    <row r="629" spans="5:5" ht="13">
+    <row r="629" spans="5:5" ht="12.75">
       <c r="E629" s="27"/>
     </row>
-    <row r="630" spans="5:5" ht="13">
+    <row r="630" spans="5:5" ht="12.75">
       <c r="E630" s="27"/>
     </row>
-    <row r="631" spans="5:5" ht="13">
+    <row r="631" spans="5:5" ht="12.75">
       <c r="E631" s="27"/>
     </row>
-    <row r="632" spans="5:5" ht="13">
+    <row r="632" spans="5:5" ht="12.75">
       <c r="E632" s="27"/>
     </row>
-    <row r="633" spans="5:5" ht="13">
+    <row r="633" spans="5:5" ht="12.75">
       <c r="E633" s="27"/>
     </row>
-    <row r="634" spans="5:5" ht="13">
+    <row r="634" spans="5:5" ht="12.75">
       <c r="E634" s="27"/>
     </row>
-    <row r="635" spans="5:5" ht="13">
+    <row r="635" spans="5:5" ht="12.75">
       <c r="E635" s="27"/>
     </row>
-    <row r="636" spans="5:5" ht="13">
+    <row r="636" spans="5:5" ht="12.75">
       <c r="E636" s="27"/>
     </row>
-    <row r="637" spans="5:5" ht="13">
+    <row r="637" spans="5:5" ht="12.75">
       <c r="E637" s="27"/>
     </row>
-    <row r="638" spans="5:5" ht="13">
+    <row r="638" spans="5:5" ht="12.75">
       <c r="E638" s="27"/>
     </row>
-    <row r="639" spans="5:5" ht="13">
+    <row r="639" spans="5:5" ht="12.75">
       <c r="E639" s="27"/>
     </row>
-    <row r="640" spans="5:5" ht="13">
+    <row r="640" spans="5:5" ht="12.75">
       <c r="E640" s="27"/>
     </row>
-    <row r="641" spans="5:5" ht="13">
+    <row r="641" spans="5:5" ht="12.75">
       <c r="E641" s="27"/>
     </row>
-    <row r="642" spans="5:5" ht="13">
+    <row r="642" spans="5:5" ht="12.75">
       <c r="E642" s="27"/>
     </row>
-    <row r="643" spans="5:5" ht="13">
+    <row r="643" spans="5:5" ht="12.75">
       <c r="E643" s="27"/>
     </row>
-    <row r="644" spans="5:5" ht="13">
+    <row r="644" spans="5:5" ht="12.75">
       <c r="E644" s="27"/>
     </row>
-    <row r="645" spans="5:5" ht="13">
+    <row r="645" spans="5:5" ht="12.75">
       <c r="E645" s="27"/>
     </row>
-    <row r="646" spans="5:5" ht="13">
+    <row r="646" spans="5:5" ht="12.75">
       <c r="E646" s="27"/>
     </row>
-    <row r="647" spans="5:5" ht="13">
+    <row r="647" spans="5:5" ht="12.75">
       <c r="E647" s="27"/>
     </row>
-    <row r="648" spans="5:5" ht="13">
+    <row r="648" spans="5:5" ht="12.75">
       <c r="E648" s="27"/>
     </row>
-    <row r="649" spans="5:5" ht="13">
+    <row r="649" spans="5:5" ht="12.75">
       <c r="E649" s="27"/>
     </row>
-    <row r="650" spans="5:5" ht="13">
+    <row r="650" spans="5:5" ht="12.75">
       <c r="E650" s="27"/>
     </row>
-    <row r="651" spans="5:5" ht="13">
+    <row r="651" spans="5:5" ht="12.75">
       <c r="E651" s="27"/>
     </row>
-    <row r="652" spans="5:5" ht="13">
+    <row r="652" spans="5:5" ht="12.75">
       <c r="E652" s="27"/>
     </row>
-    <row r="653" spans="5:5" ht="13">
+    <row r="653" spans="5:5" ht="12.75">
       <c r="E653" s="27"/>
     </row>
-    <row r="654" spans="5:5" ht="13">
+    <row r="654" spans="5:5" ht="12.75">
       <c r="E654" s="27"/>
     </row>
-    <row r="655" spans="5:5" ht="13">
+    <row r="655" spans="5:5" ht="12.75">
       <c r="E655" s="27"/>
     </row>
-    <row r="656" spans="5:5" ht="13">
+    <row r="656" spans="5:5" ht="12.75">
       <c r="E656" s="27"/>
     </row>
-    <row r="657" spans="5:5" ht="13">
+    <row r="657" spans="5:5" ht="12.75">
       <c r="E657" s="27"/>
     </row>
-    <row r="658" spans="5:5" ht="13">
+    <row r="658" spans="5:5" ht="12.75">
       <c r="E658" s="27"/>
     </row>
-    <row r="659" spans="5:5" ht="13">
+    <row r="659" spans="5:5" ht="12.75">
       <c r="E659" s="27"/>
     </row>
-    <row r="660" spans="5:5" ht="13">
+    <row r="660" spans="5:5" ht="12.75">
       <c r="E660" s="27"/>
     </row>
-    <row r="661" spans="5:5" ht="13">
+    <row r="661" spans="5:5" ht="12.75">
       <c r="E661" s="27"/>
     </row>
-    <row r="662" spans="5:5" ht="13">
+    <row r="662" spans="5:5" ht="12.75">
       <c r="E662" s="27"/>
     </row>
-    <row r="663" spans="5:5" ht="13">
+    <row r="663" spans="5:5" ht="12.75">
       <c r="E663" s="27"/>
     </row>
-    <row r="664" spans="5:5" ht="13">
+    <row r="664" spans="5:5" ht="12.75">
       <c r="E664" s="27"/>
     </row>
-    <row r="665" spans="5:5" ht="13">
+    <row r="665" spans="5:5" ht="12.75">
       <c r="E665" s="27"/>
     </row>
-    <row r="666" spans="5:5" ht="13">
+    <row r="666" spans="5:5" ht="12.75">
       <c r="E666" s="27"/>
     </row>
-    <row r="667" spans="5:5" ht="13">
+    <row r="667" spans="5:5" ht="12.75">
       <c r="E667" s="27"/>
     </row>
-    <row r="668" spans="5:5" ht="13">
+    <row r="668" spans="5:5" ht="12.75">
       <c r="E668" s="27"/>
     </row>
-    <row r="669" spans="5:5" ht="13">
+    <row r="669" spans="5:5" ht="12.75">
       <c r="E669" s="27"/>
     </row>
-    <row r="670" spans="5:5" ht="13">
+    <row r="670" spans="5:5" ht="12.75">
       <c r="E670" s="27"/>
     </row>
-    <row r="671" spans="5:5" ht="13">
+    <row r="671" spans="5:5" ht="12.75">
       <c r="E671" s="27"/>
     </row>
-    <row r="672" spans="5:5" ht="13">
+    <row r="672" spans="5:5" ht="12.75">
       <c r="E672" s="27"/>
     </row>
-    <row r="673" spans="5:5" ht="13">
+    <row r="673" spans="5:5" ht="12.75">
       <c r="E673" s="27"/>
     </row>
-    <row r="674" spans="5:5" ht="13">
+    <row r="674" spans="5:5" ht="12.75">
       <c r="E674" s="27"/>
     </row>
-    <row r="675" spans="5:5" ht="13">
+    <row r="675" spans="5:5" ht="12.75">
       <c r="E675" s="27"/>
     </row>
-    <row r="676" spans="5:5" ht="13">
+    <row r="676" spans="5:5" ht="12.75">
       <c r="E676" s="27"/>
     </row>
-    <row r="677" spans="5:5" ht="13">
+    <row r="677" spans="5:5" ht="12.75">
       <c r="E677" s="27"/>
     </row>
-    <row r="678" spans="5:5" ht="13">
+    <row r="678" spans="5:5" ht="12.75">
       <c r="E678" s="27"/>
     </row>
-    <row r="679" spans="5:5" ht="13">
+    <row r="679" spans="5:5" ht="12.75">
       <c r="E679" s="27"/>
     </row>
-    <row r="680" spans="5:5" ht="13">
+    <row r="680" spans="5:5" ht="12.75">
       <c r="E680" s="27"/>
     </row>
-    <row r="681" spans="5:5" ht="13">
+    <row r="681" spans="5:5" ht="12.75">
       <c r="E681" s="27"/>
     </row>
-    <row r="682" spans="5:5" ht="13">
+    <row r="682" spans="5:5" ht="12.75">
       <c r="E682" s="27"/>
     </row>
-    <row r="683" spans="5:5" ht="13">
+    <row r="683" spans="5:5" ht="12.75">
       <c r="E683" s="27"/>
     </row>
-    <row r="684" spans="5:5" ht="13">
+    <row r="684" spans="5:5" ht="12.75">
       <c r="E684" s="27"/>
     </row>
-    <row r="685" spans="5:5" ht="13">
+    <row r="685" spans="5:5" ht="12.75">
       <c r="E685" s="27"/>
     </row>
-    <row r="686" spans="5:5" ht="13">
+    <row r="686" spans="5:5" ht="12.75">
       <c r="E686" s="27"/>
     </row>
-    <row r="687" spans="5:5" ht="13">
+    <row r="687" spans="5:5" ht="12.75">
       <c r="E687" s="27"/>
     </row>
-    <row r="688" spans="5:5" ht="13">
+    <row r="688" spans="5:5" ht="12.75">
       <c r="E688" s="27"/>
     </row>
-    <row r="689" spans="5:5" ht="13">
+    <row r="689" spans="5:5" ht="12.75">
       <c r="E689" s="27"/>
     </row>
-    <row r="690" spans="5:5" ht="13">
+    <row r="690" spans="5:5" ht="12.75">
       <c r="E690" s="27"/>
     </row>
-    <row r="691" spans="5:5" ht="13">
+    <row r="691" spans="5:5" ht="12.75">
       <c r="E691" s="27"/>
     </row>
-    <row r="692" spans="5:5" ht="13">
+    <row r="692" spans="5:5" ht="12.75">
       <c r="E692" s="27"/>
     </row>
-    <row r="693" spans="5:5" ht="13">
+    <row r="693" spans="5:5" ht="12.75">
       <c r="E693" s="27"/>
     </row>
-    <row r="694" spans="5:5" ht="13">
+    <row r="694" spans="5:5" ht="12.75">
       <c r="E694" s="27"/>
     </row>
-    <row r="695" spans="5:5" ht="13">
+    <row r="695" spans="5:5" ht="12.75">
       <c r="E695" s="27"/>
     </row>
-    <row r="696" spans="5:5" ht="13">
+    <row r="696" spans="5:5" ht="12.75">
       <c r="E696" s="27"/>
     </row>
-    <row r="697" spans="5:5" ht="13">
+    <row r="697" spans="5:5" ht="12.75">
       <c r="E697" s="27"/>
     </row>
-    <row r="698" spans="5:5" ht="13">
+    <row r="698" spans="5:5" ht="12.75">
       <c r="E698" s="27"/>
     </row>
-    <row r="699" spans="5:5" ht="13">
+    <row r="699" spans="5:5" ht="12.75">
       <c r="E699" s="27"/>
     </row>
-    <row r="700" spans="5:5" ht="13">
+    <row r="700" spans="5:5" ht="12.75">
       <c r="E700" s="27"/>
     </row>
-    <row r="701" spans="5:5" ht="13">
+    <row r="701" spans="5:5" ht="12.75">
       <c r="E701" s="27"/>
     </row>
-    <row r="702" spans="5:5" ht="13">
+    <row r="702" spans="5:5" ht="12.75">
       <c r="E702" s="27"/>
     </row>
-    <row r="703" spans="5:5" ht="13">
+    <row r="703" spans="5:5" ht="12.75">
       <c r="E703" s="27"/>
     </row>
-    <row r="704" spans="5:5" ht="13">
+    <row r="704" spans="5:5" ht="12.75">
       <c r="E704" s="27"/>
     </row>
-    <row r="705" spans="5:5" ht="13">
+    <row r="705" spans="5:5" ht="12.75">
       <c r="E705" s="27"/>
     </row>
-    <row r="706" spans="5:5" ht="13">
+    <row r="706" spans="5:5" ht="12.75">
       <c r="E706" s="27"/>
     </row>
-    <row r="707" spans="5:5" ht="13">
+    <row r="707" spans="5:5" ht="12.75">
       <c r="E707" s="27"/>
     </row>
-    <row r="708" spans="5:5" ht="13">
+    <row r="708" spans="5:5" ht="12.75">
       <c r="E708" s="27"/>
     </row>
-    <row r="709" spans="5:5" ht="13">
+    <row r="709" spans="5:5" ht="12.75">
       <c r="E709" s="27"/>
     </row>
-    <row r="710" spans="5:5" ht="13">
+    <row r="710" spans="5:5" ht="12.75">
       <c r="E710" s="27"/>
     </row>
-    <row r="711" spans="5:5" ht="13">
+    <row r="711" spans="5:5" ht="12.75">
       <c r="E711" s="27"/>
     </row>
-    <row r="712" spans="5:5" ht="13">
+    <row r="712" spans="5:5" ht="12.75">
       <c r="E712" s="27"/>
     </row>
-    <row r="713" spans="5:5" ht="13">
+    <row r="713" spans="5:5" ht="12.75">
       <c r="E713" s="27"/>
     </row>
-    <row r="714" spans="5:5" ht="13">
+    <row r="714" spans="5:5" ht="12.75">
       <c r="E714" s="27"/>
     </row>
-    <row r="715" spans="5:5" ht="13">
+    <row r="715" spans="5:5" ht="12.75">
       <c r="E715" s="27"/>
     </row>
-    <row r="716" spans="5:5" ht="13">
+    <row r="716" spans="5:5" ht="12.75">
       <c r="E716" s="27"/>
     </row>
-    <row r="717" spans="5:5" ht="13">
+    <row r="717" spans="5:5" ht="12.75">
       <c r="E717" s="27"/>
     </row>
-    <row r="718" spans="5:5" ht="13">
+    <row r="718" spans="5:5" ht="12.75">
       <c r="E718" s="27"/>
     </row>
-    <row r="719" spans="5:5" ht="13">
+    <row r="719" spans="5:5" ht="12.75">
       <c r="E719" s="27"/>
     </row>
-    <row r="720" spans="5:5" ht="13">
+    <row r="720" spans="5:5" ht="12.75">
       <c r="E720" s="27"/>
     </row>
-    <row r="721" spans="5:5" ht="13">
+    <row r="721" spans="5:5" ht="12.75">
       <c r="E721" s="27"/>
     </row>
-    <row r="722" spans="5:5" ht="13">
+    <row r="722" spans="5:5" ht="12.75">
       <c r="E722" s="27"/>
     </row>
-    <row r="723" spans="5:5" ht="13">
+    <row r="723" spans="5:5" ht="12.75">
       <c r="E723" s="27"/>
     </row>
-    <row r="724" spans="5:5" ht="13">
+    <row r="724" spans="5:5" ht="12.75">
       <c r="E724" s="27"/>
     </row>
-    <row r="725" spans="5:5" ht="13">
+    <row r="725" spans="5:5" ht="12.75">
       <c r="E725" s="27"/>
     </row>
-    <row r="726" spans="5:5" ht="13">
+    <row r="726" spans="5:5" ht="12.75">
       <c r="E726" s="27"/>
     </row>
-    <row r="727" spans="5:5" ht="13">
+    <row r="727" spans="5:5" ht="12.75">
       <c r="E727" s="27"/>
     </row>
-    <row r="728" spans="5:5" ht="13">
+    <row r="728" spans="5:5" ht="12.75">
       <c r="E728" s="27"/>
     </row>
-    <row r="729" spans="5:5" ht="13">
+    <row r="729" spans="5:5" ht="12.75">
       <c r="E729" s="27"/>
     </row>
-    <row r="730" spans="5:5" ht="13">
+    <row r="730" spans="5:5" ht="12.75">
       <c r="E730" s="27"/>
     </row>
-    <row r="731" spans="5:5" ht="13">
+    <row r="731" spans="5:5" ht="12.75">
       <c r="E731" s="27"/>
     </row>
-    <row r="732" spans="5:5" ht="13">
+    <row r="732" spans="5:5" ht="12.75">
       <c r="E732" s="27"/>
     </row>
-    <row r="733" spans="5:5" ht="13">
+    <row r="733" spans="5:5" ht="12.75">
       <c r="E733" s="27"/>
     </row>
-    <row r="734" spans="5:5" ht="13">
+    <row r="734" spans="5:5" ht="12.75">
       <c r="E734" s="27"/>
     </row>
-    <row r="735" spans="5:5" ht="13">
+    <row r="735" spans="5:5" ht="12.75">
       <c r="E735" s="27"/>
     </row>
-    <row r="736" spans="5:5" ht="13">
+    <row r="736" spans="5:5" ht="12.75">
       <c r="E736" s="27"/>
     </row>
-    <row r="737" spans="5:5" ht="13">
+    <row r="737" spans="5:5" ht="12.75">
       <c r="E737" s="27"/>
     </row>
-    <row r="738" spans="5:5" ht="13">
+    <row r="738" spans="5:5" ht="12.75">
       <c r="E738" s="27"/>
     </row>
-    <row r="739" spans="5:5" ht="13">
+    <row r="739" spans="5:5" ht="12.75">
       <c r="E739" s="27"/>
     </row>
-    <row r="740" spans="5:5" ht="13">
+    <row r="740" spans="5:5" ht="12.75">
       <c r="E740" s="27"/>
     </row>
-    <row r="741" spans="5:5" ht="13">
+    <row r="741" spans="5:5" ht="12.75">
       <c r="E741" s="27"/>
     </row>
-    <row r="742" spans="5:5" ht="13">
+    <row r="742" spans="5:5" ht="12.75">
       <c r="E742" s="27"/>
     </row>
-    <row r="743" spans="5:5" ht="13">
+    <row r="743" spans="5:5" ht="12.75">
       <c r="E743" s="27"/>
     </row>
-    <row r="744" spans="5:5" ht="13">
+    <row r="744" spans="5:5" ht="12.75">
       <c r="E744" s="27"/>
     </row>
-    <row r="745" spans="5:5" ht="13">
+    <row r="745" spans="5:5" ht="12.75">
       <c r="E745" s="27"/>
     </row>
-    <row r="746" spans="5:5" ht="13">
+    <row r="746" spans="5:5" ht="12.75">
       <c r="E746" s="27"/>
     </row>
-    <row r="747" spans="5:5" ht="13">
+    <row r="747" spans="5:5" ht="12.75">
       <c r="E747" s="27"/>
     </row>
-    <row r="748" spans="5:5" ht="13">
+    <row r="748" spans="5:5" ht="12.75">
       <c r="E748" s="27"/>
     </row>
-    <row r="749" spans="5:5" ht="13">
+    <row r="749" spans="5:5" ht="12.75">
       <c r="E749" s="27"/>
     </row>
-    <row r="750" spans="5:5" ht="13">
+    <row r="750" spans="5:5" ht="12.75">
       <c r="E750" s="27"/>
     </row>
-    <row r="751" spans="5:5" ht="13">
+    <row r="751" spans="5:5" ht="12.75">
       <c r="E751" s="27"/>
     </row>
-    <row r="752" spans="5:5" ht="13">
+    <row r="752" spans="5:5" ht="12.75">
       <c r="E752" s="27"/>
     </row>
-    <row r="753" spans="5:5" ht="13">
+    <row r="753" spans="5:5" ht="12.75">
       <c r="E753" s="27"/>
     </row>
-    <row r="754" spans="5:5" ht="13">
+    <row r="754" spans="5:5" ht="12.75">
       <c r="E754" s="27"/>
     </row>
-    <row r="755" spans="5:5" ht="13">
+    <row r="755" spans="5:5" ht="12.75">
       <c r="E755" s="27"/>
     </row>
-    <row r="756" spans="5:5" ht="13">
+    <row r="756" spans="5:5" ht="12.75">
       <c r="E756" s="27"/>
     </row>
-    <row r="757" spans="5:5" ht="13">
+    <row r="757" spans="5:5" ht="12.75">
       <c r="E757" s="27"/>
     </row>
-    <row r="758" spans="5:5" ht="13">
+    <row r="758" spans="5:5" ht="12.75">
       <c r="E758" s="27"/>
     </row>
-    <row r="759" spans="5:5" ht="13">
+    <row r="759" spans="5:5" ht="12.75">
       <c r="E759" s="27"/>
     </row>
-    <row r="760" spans="5:5" ht="13">
+    <row r="760" spans="5:5" ht="12.75">
       <c r="E760" s="27"/>
     </row>
-    <row r="761" spans="5:5" ht="13">
+    <row r="761" spans="5:5" ht="12.75">
       <c r="E761" s="27"/>
     </row>
-    <row r="762" spans="5:5" ht="13">
+    <row r="762" spans="5:5" ht="12.75">
       <c r="E762" s="27"/>
     </row>
-    <row r="763" spans="5:5" ht="13">
+    <row r="763" spans="5:5" ht="12.75">
       <c r="E763" s="27"/>
     </row>
-    <row r="764" spans="5:5" ht="13">
+    <row r="764" spans="5:5" ht="12.75">
       <c r="E764" s="27"/>
     </row>
-    <row r="765" spans="5:5" ht="13">
+    <row r="765" spans="5:5" ht="12.75">
       <c r="E765" s="27"/>
     </row>
-    <row r="766" spans="5:5" ht="13">
+    <row r="766" spans="5:5" ht="12.75">
       <c r="E766" s="27"/>
     </row>
-    <row r="767" spans="5:5" ht="13">
+    <row r="767" spans="5:5" ht="12.75">
       <c r="E767" s="27"/>
     </row>
-    <row r="768" spans="5:5" ht="13">
+    <row r="768" spans="5:5" ht="12.75">
       <c r="E768" s="27"/>
     </row>
-    <row r="769" spans="5:5" ht="13">
+    <row r="769" spans="5:5" ht="12.75">
       <c r="E769" s="27"/>
     </row>
-    <row r="770" spans="5:5" ht="13">
+    <row r="770" spans="5:5" ht="12.75">
       <c r="E770" s="27"/>
     </row>
-    <row r="771" spans="5:5" ht="13">
+    <row r="771" spans="5:5" ht="12.75">
       <c r="E771" s="27"/>
     </row>
-    <row r="772" spans="5:5" ht="13">
+    <row r="772" spans="5:5" ht="12.75">
       <c r="E772" s="27"/>
     </row>
-    <row r="773" spans="5:5" ht="13">
+    <row r="773" spans="5:5" ht="12.75">
       <c r="E773" s="27"/>
     </row>
-    <row r="774" spans="5:5" ht="13">
+    <row r="774" spans="5:5" ht="12.75">
       <c r="E774" s="27"/>
     </row>
-    <row r="775" spans="5:5" ht="13">
+    <row r="775" spans="5:5" ht="12.75">
       <c r="E775" s="27"/>
     </row>
-    <row r="776" spans="5:5" ht="13">
+    <row r="776" spans="5:5" ht="12.75">
       <c r="E776" s="27"/>
     </row>
-    <row r="777" spans="5:5" ht="13">
+    <row r="777" spans="5:5" ht="12.75">
       <c r="E777" s="27"/>
     </row>
-    <row r="778" spans="5:5" ht="13">
+    <row r="778" spans="5:5" ht="12.75">
       <c r="E778" s="27"/>
     </row>
-    <row r="779" spans="5:5" ht="13">
+    <row r="779" spans="5:5" ht="12.75">
       <c r="E779" s="27"/>
     </row>
-    <row r="780" spans="5:5" ht="13">
+    <row r="780" spans="5:5" ht="12.75">
       <c r="E780" s="27"/>
     </row>
-    <row r="781" spans="5:5" ht="13">
+    <row r="781" spans="5:5" ht="12.75">
       <c r="E781" s="27"/>
     </row>
-    <row r="782" spans="5:5" ht="13">
+    <row r="782" spans="5:5" ht="12.75">
       <c r="E782" s="27"/>
     </row>
-    <row r="783" spans="5:5" ht="13">
+    <row r="783" spans="5:5" ht="12.75">
       <c r="E783" s="27"/>
     </row>
-    <row r="784" spans="5:5" ht="13">
+    <row r="784" spans="5:5" ht="12.75">
       <c r="E784" s="27"/>
     </row>
-    <row r="785" spans="5:5" ht="13">
+    <row r="785" spans="5:5" ht="12.75">
       <c r="E785" s="27"/>
     </row>
-    <row r="786" spans="5:5" ht="13">
+    <row r="786" spans="5:5" ht="12.75">
       <c r="E786" s="27"/>
     </row>
-    <row r="787" spans="5:5" ht="13">
+    <row r="787" spans="5:5" ht="12.75">
       <c r="E787" s="27"/>
     </row>
-    <row r="788" spans="5:5" ht="13">
+    <row r="788" spans="5:5" ht="12.75">
       <c r="E788" s="27"/>
     </row>
-    <row r="789" spans="5:5" ht="13">
+    <row r="789" spans="5:5" ht="12.75">
       <c r="E789" s="27"/>
     </row>
-    <row r="790" spans="5:5" ht="13">
+    <row r="790" spans="5:5" ht="12.75">
       <c r="E790" s="27"/>
     </row>
-    <row r="791" spans="5:5" ht="13">
+    <row r="791" spans="5:5" ht="12.75">
       <c r="E791" s="27"/>
     </row>
-    <row r="792" spans="5:5" ht="13">
+    <row r="792" spans="5:5" ht="12.75">
       <c r="E792" s="27"/>
     </row>
-    <row r="793" spans="5:5" ht="13">
+    <row r="793" spans="5:5" ht="12.75">
       <c r="E793" s="27"/>
     </row>
-    <row r="794" spans="5:5" ht="13">
+    <row r="794" spans="5:5" ht="12.75">
       <c r="E794" s="27"/>
     </row>
-    <row r="795" spans="5:5" ht="13">
+    <row r="795" spans="5:5" ht="12.75">
       <c r="E795" s="27"/>
     </row>
-    <row r="796" spans="5:5" ht="13">
+    <row r="796" spans="5:5" ht="12.75">
       <c r="E796" s="27"/>
     </row>
-    <row r="797" spans="5:5" ht="13">
+    <row r="797" spans="5:5" ht="12.75">
       <c r="E797" s="27"/>
     </row>
-    <row r="798" spans="5:5" ht="13">
+    <row r="798" spans="5:5" ht="12.75">
       <c r="E798" s="27"/>
     </row>
-    <row r="799" spans="5:5" ht="13">
+    <row r="799" spans="5:5" ht="12.75">
       <c r="E799" s="27"/>
     </row>
-    <row r="800" spans="5:5" ht="13">
+    <row r="800" spans="5:5" ht="12.75">
       <c r="E800" s="27"/>
     </row>
-    <row r="801" spans="5:5" ht="13">
+    <row r="801" spans="5:5" ht="12.75">
       <c r="E801" s="27"/>
     </row>
-    <row r="802" spans="5:5" ht="13">
+    <row r="802" spans="5:5" ht="12.75">
       <c r="E802" s="27"/>
     </row>
-    <row r="803" spans="5:5" ht="13">
+    <row r="803" spans="5:5" ht="12.75">
       <c r="E803" s="27"/>
     </row>
-    <row r="804" spans="5:5" ht="13">
+    <row r="804" spans="5:5" ht="12.75">
       <c r="E804" s="27"/>
     </row>
-    <row r="805" spans="5:5" ht="13">
+    <row r="805" spans="5:5" ht="12.75">
       <c r="E805" s="27"/>
     </row>
-    <row r="806" spans="5:5" ht="13">
+    <row r="806" spans="5:5" ht="12.75">
       <c r="E806" s="27"/>
     </row>
-    <row r="807" spans="5:5" ht="13">
+    <row r="807" spans="5:5" ht="12.75">
       <c r="E807" s="27"/>
     </row>
-    <row r="808" spans="5:5" ht="13">
+    <row r="808" spans="5:5" ht="12.75">
       <c r="E808" s="27"/>
     </row>
-    <row r="809" spans="5:5" ht="13">
+    <row r="809" spans="5:5" ht="12.75">
       <c r="E809" s="27"/>
     </row>
-    <row r="810" spans="5:5" ht="13">
+    <row r="810" spans="5:5" ht="12.75">
       <c r="E810" s="27"/>
     </row>
-    <row r="811" spans="5:5" ht="13">
+    <row r="811" spans="5:5" ht="12.75">
       <c r="E811" s="27"/>
     </row>
-    <row r="812" spans="5:5" ht="13">
+    <row r="812" spans="5:5" ht="12.75">
       <c r="E812" s="27"/>
     </row>
-    <row r="813" spans="5:5" ht="13">
+    <row r="813" spans="5:5" ht="12.75">
       <c r="E813" s="27"/>
     </row>
-    <row r="814" spans="5:5" ht="13">
+    <row r="814" spans="5:5" ht="12.75">
       <c r="E814" s="27"/>
     </row>
-    <row r="815" spans="5:5" ht="13">
+    <row r="815" spans="5:5" ht="12.75">
       <c r="E815" s="27"/>
     </row>
-    <row r="816" spans="5:5" ht="13">
+    <row r="816" spans="5:5" ht="12.75">
       <c r="E816" s="27"/>
     </row>
-    <row r="817" spans="5:5" ht="13">
+    <row r="817" spans="5:5" ht="12.75">
       <c r="E817" s="27"/>
     </row>
-    <row r="818" spans="5:5" ht="13">
+    <row r="818" spans="5:5" ht="12.75">
       <c r="E818" s="27"/>
     </row>
-    <row r="819" spans="5:5" ht="13">
+    <row r="819" spans="5:5" ht="12.75">
       <c r="E819" s="27"/>
     </row>
-    <row r="820" spans="5:5" ht="13">
+    <row r="820" spans="5:5" ht="12.75">
       <c r="E820" s="27"/>
     </row>
-    <row r="821" spans="5:5" ht="13">
+    <row r="821" spans="5:5" ht="12.75">
       <c r="E821" s="27"/>
     </row>
-    <row r="822" spans="5:5" ht="13">
+    <row r="822" spans="5:5" ht="12.75">
       <c r="E822" s="27"/>
     </row>
-    <row r="823" spans="5:5" ht="13">
+    <row r="823" spans="5:5" ht="12.75">
       <c r="E823" s="27"/>
     </row>
-    <row r="824" spans="5:5" ht="13">
+    <row r="824" spans="5:5" ht="12.75">
       <c r="E824" s="27"/>
     </row>
-    <row r="825" spans="5:5" ht="13">
+    <row r="825" spans="5:5" ht="12.75">
       <c r="E825" s="27"/>
     </row>
-    <row r="826" spans="5:5" ht="13">
+    <row r="826" spans="5:5" ht="12.75">
       <c r="E826" s="27"/>
     </row>
-    <row r="827" spans="5:5" ht="13">
+    <row r="827" spans="5:5" ht="12.75">
       <c r="E827" s="27"/>
     </row>
-    <row r="828" spans="5:5" ht="13">
+    <row r="828" spans="5:5" ht="12.75">
       <c r="E828" s="27"/>
     </row>
-    <row r="829" spans="5:5" ht="13">
+    <row r="829" spans="5:5" ht="12.75">
       <c r="E829" s="27"/>
     </row>
-    <row r="830" spans="5:5" ht="13">
+    <row r="830" spans="5:5" ht="12.75">
       <c r="E830" s="27"/>
     </row>
-    <row r="831" spans="5:5" ht="13">
+    <row r="831" spans="5:5" ht="12.75">
       <c r="E831" s="27"/>
     </row>
-    <row r="832" spans="5:5" ht="13">
+    <row r="832" spans="5:5" ht="12.75">
       <c r="E832" s="27"/>
     </row>
-    <row r="833" spans="5:5" ht="13">
+    <row r="833" spans="5:5" ht="12.75">
       <c r="E833" s="27"/>
     </row>
-    <row r="834" spans="5:5" ht="13">
+    <row r="834" spans="5:5" ht="12.75">
       <c r="E834" s="27"/>
     </row>
-    <row r="835" spans="5:5" ht="13">
+    <row r="835" spans="5:5" ht="12.75">
       <c r="E835" s="27"/>
     </row>
-    <row r="836" spans="5:5" ht="13">
+    <row r="836" spans="5:5" ht="12.75">
       <c r="E836" s="27"/>
     </row>
-    <row r="837" spans="5:5" ht="13">
+    <row r="837" spans="5:5" ht="12.75">
       <c r="E837" s="27"/>
     </row>
-    <row r="838" spans="5:5" ht="13">
+    <row r="838" spans="5:5" ht="12.75">
       <c r="E838" s="27"/>
     </row>
-    <row r="839" spans="5:5" ht="13">
+    <row r="839" spans="5:5" ht="12.75">
       <c r="E839" s="27"/>
     </row>
-    <row r="840" spans="5:5" ht="13">
+    <row r="840" spans="5:5" ht="12.75">
       <c r="E840" s="27"/>
     </row>
-    <row r="841" spans="5:5" ht="13">
+    <row r="841" spans="5:5" ht="12.75">
       <c r="E841" s="27"/>
     </row>
-    <row r="842" spans="5:5" ht="13">
+    <row r="842" spans="5:5" ht="12.75">
       <c r="E842" s="27"/>
     </row>
-    <row r="843" spans="5:5" ht="13">
+    <row r="843" spans="5:5" ht="12.75">
       <c r="E843" s="27"/>
     </row>
-    <row r="844" spans="5:5" ht="13">
+    <row r="844" spans="5:5" ht="12.75">
       <c r="E844" s="27"/>
     </row>
-    <row r="845" spans="5:5" ht="13">
+    <row r="845" spans="5:5" ht="12.75">
       <c r="E845" s="27"/>
     </row>
-    <row r="846" spans="5:5" ht="13">
+    <row r="846" spans="5:5" ht="12.75">
       <c r="E846" s="27"/>
     </row>
-    <row r="847" spans="5:5" ht="13">
+    <row r="847" spans="5:5" ht="12.75">
       <c r="E847" s="27"/>
     </row>
-    <row r="848" spans="5:5" ht="13">
+    <row r="848" spans="5:5" ht="12.75">
       <c r="E848" s="27"/>
     </row>
-    <row r="849" spans="5:5" ht="13">
+    <row r="849" spans="5:5" ht="12.75">
       <c r="E849" s="27"/>
     </row>
-    <row r="850" spans="5:5" ht="13">
+    <row r="850" spans="5:5" ht="12.75">
       <c r="E850" s="27"/>
     </row>
-    <row r="851" spans="5:5" ht="13">
+    <row r="851" spans="5:5" ht="12.75">
       <c r="E851" s="27"/>
     </row>
-    <row r="852" spans="5:5" ht="13">
+    <row r="852" spans="5:5" ht="12.75">
       <c r="E852" s="27"/>
     </row>
-    <row r="853" spans="5:5" ht="13">
+    <row r="853" spans="5:5" ht="12.75">
       <c r="E853" s="27"/>
     </row>
-    <row r="854" spans="5:5" ht="13">
+    <row r="854" spans="5:5" ht="12.75">
       <c r="E854" s="27"/>
     </row>
-    <row r="855" spans="5:5" ht="13">
+    <row r="855" spans="5:5" ht="12.75">
       <c r="E855" s="27"/>
     </row>
-    <row r="856" spans="5:5" ht="13">
+    <row r="856" spans="5:5" ht="12.75">
       <c r="E856" s="27"/>
     </row>
-    <row r="857" spans="5:5" ht="13">
+    <row r="857" spans="5:5" ht="12.75">
       <c r="E857" s="27"/>
     </row>
-    <row r="858" spans="5:5" ht="13">
+    <row r="858" spans="5:5" ht="12.75">
       <c r="E858" s="27"/>
     </row>
-    <row r="859" spans="5:5" ht="13">
+    <row r="859" spans="5:5" ht="12.75">
       <c r="E859" s="27"/>
     </row>
-    <row r="860" spans="5:5" ht="13">
+    <row r="860" spans="5:5" ht="12.75">
       <c r="E860" s="27"/>
     </row>
-    <row r="861" spans="5:5" ht="13">
+    <row r="861" spans="5:5" ht="12.75">
       <c r="E861" s="27"/>
     </row>
-    <row r="862" spans="5:5" ht="13">
+    <row r="862" spans="5:5" ht="12.75">
       <c r="E862" s="27"/>
     </row>
-    <row r="863" spans="5:5" ht="13">
+    <row r="863" spans="5:5" ht="12.75">
       <c r="E863" s="27"/>
     </row>
-    <row r="864" spans="5:5" ht="13">
+    <row r="864" spans="5:5" ht="12.75">
       <c r="E864" s="27"/>
     </row>
-    <row r="865" spans="5:5" ht="13">
+    <row r="865" spans="5:5" ht="12.75">
       <c r="E865" s="27"/>
     </row>
-    <row r="866" spans="5:5" ht="13">
+    <row r="866" spans="5:5" ht="12.75">
       <c r="E866" s="27"/>
     </row>
-    <row r="867" spans="5:5" ht="13">
+    <row r="867" spans="5:5" ht="12.75">
       <c r="E867" s="27"/>
     </row>
-    <row r="868" spans="5:5" ht="13">
+    <row r="868" spans="5:5" ht="12.75">
       <c r="E868" s="27"/>
     </row>
-    <row r="869" spans="5:5" ht="13">
+    <row r="869" spans="5:5" ht="12.75">
       <c r="E869" s="27"/>
     </row>
-    <row r="870" spans="5:5" ht="13">
+    <row r="870" spans="5:5" ht="12.75">
       <c r="E870" s="27"/>
     </row>
-    <row r="871" spans="5:5" ht="13">
+    <row r="871" spans="5:5" ht="12.75">
       <c r="E871" s="27"/>
     </row>
-    <row r="872" spans="5:5" ht="13">
+    <row r="872" spans="5:5" ht="12.75">
       <c r="E872" s="27"/>
     </row>
-    <row r="873" spans="5:5" ht="13">
+    <row r="873" spans="5:5" ht="12.75">
       <c r="E873" s="27"/>
     </row>
-    <row r="874" spans="5:5" ht="13">
+    <row r="874" spans="5:5" ht="12.75">
       <c r="E874" s="27"/>
     </row>
-    <row r="875" spans="5:5" ht="13">
+    <row r="875" spans="5:5" ht="12.75">
       <c r="E875" s="27"/>
     </row>
-    <row r="876" spans="5:5" ht="13">
+    <row r="876" spans="5:5" ht="12.75">
       <c r="E876" s="27"/>
     </row>
-    <row r="877" spans="5:5" ht="13">
+    <row r="877" spans="5:5" ht="12.75">
       <c r="E877" s="27"/>
     </row>
-    <row r="878" spans="5:5" ht="13">
+    <row r="878" spans="5:5" ht="12.75">
       <c r="E878" s="27"/>
     </row>
-    <row r="879" spans="5:5" ht="13">
+    <row r="879" spans="5:5" ht="12.75">
       <c r="E879" s="27"/>
     </row>
-    <row r="880" spans="5:5" ht="13">
+    <row r="880" spans="5:5" ht="12.75">
       <c r="E880" s="27"/>
     </row>
-    <row r="881" spans="5:5" ht="13">
+    <row r="881" spans="5:5" ht="12.75">
       <c r="E881" s="27"/>
     </row>
-    <row r="882" spans="5:5" ht="13">
+    <row r="882" spans="5:5" ht="12.75">
       <c r="E882" s="27"/>
     </row>
-    <row r="883" spans="5:5" ht="13">
+    <row r="883" spans="5:5" ht="12.75">
       <c r="E883" s="27"/>
     </row>
-    <row r="884" spans="5:5" ht="13">
+    <row r="884" spans="5:5" ht="12.75">
       <c r="E884" s="27"/>
     </row>
-    <row r="885" spans="5:5" ht="13">
+    <row r="885" spans="5:5" ht="12.75">
       <c r="E885" s="27"/>
     </row>
-    <row r="886" spans="5:5" ht="13">
+    <row r="886" spans="5:5" ht="12.75">
       <c r="E886" s="27"/>
     </row>
-    <row r="887" spans="5:5" ht="13">
+    <row r="887" spans="5:5" ht="12.75">
       <c r="E887" s="27"/>
     </row>
-    <row r="888" spans="5:5" ht="13">
+    <row r="888" spans="5:5" ht="12.75">
       <c r="E888" s="27"/>
     </row>
-    <row r="889" spans="5:5" ht="13">
+    <row r="889" spans="5:5" ht="12.75">
       <c r="E889" s="27"/>
     </row>
-    <row r="890" spans="5:5" ht="13">
+    <row r="890" spans="5:5" ht="12.75">
       <c r="E890" s="27"/>
     </row>
-    <row r="891" spans="5:5" ht="13">
+    <row r="891" spans="5:5" ht="12.75">
       <c r="E891" s="27"/>
     </row>
-    <row r="892" spans="5:5" ht="13">
+    <row r="892" spans="5:5" ht="12.75">
       <c r="E892" s="27"/>
     </row>
-    <row r="893" spans="5:5" ht="13">
+    <row r="893" spans="5:5" ht="12.75">
       <c r="E893" s="27"/>
     </row>
-    <row r="894" spans="5:5" ht="13">
+    <row r="894" spans="5:5" ht="12.75">
       <c r="E894" s="27"/>
     </row>
-    <row r="895" spans="5:5" ht="13">
+    <row r="895" spans="5:5" ht="12.75">
       <c r="E895" s="27"/>
     </row>
-    <row r="896" spans="5:5" ht="13">
+    <row r="896" spans="5:5" ht="12.75">
       <c r="E896" s="27"/>
     </row>
-    <row r="897" spans="5:5" ht="13">
+    <row r="897" spans="5:5" ht="12.75">
       <c r="E897" s="27"/>
     </row>
-    <row r="898" spans="5:5" ht="13">
+    <row r="898" spans="5:5" ht="12.75">
       <c r="E898" s="27"/>
     </row>
-    <row r="899" spans="5:5" ht="13">
+    <row r="899" spans="5:5" ht="12.75">
       <c r="E899" s="27"/>
     </row>
-    <row r="900" spans="5:5" ht="13">
+    <row r="900" spans="5:5" ht="12.75">
       <c r="E900" s="27"/>
     </row>
-    <row r="901" spans="5:5" ht="13">
+    <row r="901" spans="5:5" ht="12.75">
       <c r="E901" s="27"/>
     </row>
-    <row r="902" spans="5:5" ht="13">
+    <row r="902" spans="5:5" ht="12.75">
       <c r="E902" s="27"/>
     </row>
-    <row r="903" spans="5:5" ht="13">
+    <row r="903" spans="5:5" ht="12.75">
       <c r="E903" s="27"/>
     </row>
-    <row r="904" spans="5:5" ht="13">
+    <row r="904" spans="5:5" ht="12.75">
       <c r="E904" s="27"/>
     </row>
-    <row r="905" spans="5:5" ht="13">
+    <row r="905" spans="5:5" ht="12.75">
       <c r="E905" s="27"/>
     </row>
-    <row r="906" spans="5:5" ht="13">
+    <row r="906" spans="5:5" ht="12.75">
       <c r="E906" s="27"/>
     </row>
-    <row r="907" spans="5:5" ht="13">
+    <row r="907" spans="5:5" ht="12.75">
       <c r="E907" s="27"/>
     </row>
-    <row r="908" spans="5:5" ht="13">
+    <row r="908" spans="5:5" ht="12.75">
       <c r="E908" s="27"/>
     </row>
-    <row r="909" spans="5:5" ht="13">
+    <row r="909" spans="5:5" ht="12.75">
       <c r="E909" s="27"/>
     </row>
-    <row r="910" spans="5:5" ht="13">
+    <row r="910" spans="5:5" ht="12.75">
       <c r="E910" s="27"/>
     </row>
-    <row r="911" spans="5:5" ht="13">
+    <row r="911" spans="5:5" ht="12.75">
       <c r="E911" s="27"/>
     </row>
-    <row r="912" spans="5:5" ht="13">
+    <row r="912" spans="5:5" ht="12.75">
       <c r="E912" s="27"/>
     </row>
-    <row r="913" spans="5:5" ht="13">
+    <row r="913" spans="5:5" ht="12.75">
       <c r="E913" s="27"/>
     </row>
-    <row r="914" spans="5:5" ht="13">
+    <row r="914" spans="5:5" ht="12.75">
       <c r="E914" s="27"/>
     </row>
-    <row r="915" spans="5:5" ht="13">
+    <row r="915" spans="5:5" ht="12.75">
       <c r="E915" s="27"/>
     </row>
-    <row r="916" spans="5:5" ht="13">
+    <row r="916" spans="5:5" ht="12.75">
       <c r="E916" s="27"/>
     </row>
-    <row r="917" spans="5:5" ht="13">
+    <row r="917" spans="5:5" ht="12.75">
       <c r="E917" s="27"/>
     </row>
-    <row r="918" spans="5:5" ht="13">
+    <row r="918" spans="5:5" ht="12.75">
       <c r="E918" s="27"/>
     </row>
-    <row r="919" spans="5:5" ht="13">
+    <row r="919" spans="5:5" ht="12.75">
       <c r="E919" s="27"/>
     </row>
-    <row r="920" spans="5:5" ht="13">
+    <row r="920" spans="5:5" ht="12.75">
       <c r="E920" s="27"/>
     </row>
-    <row r="921" spans="5:5" ht="13">
+    <row r="921" spans="5:5" ht="12.75">
       <c r="E921" s="27"/>
     </row>
-    <row r="922" spans="5:5" ht="13">
+    <row r="922" spans="5:5" ht="12.75">
       <c r="E922" s="27"/>
     </row>
-    <row r="923" spans="5:5" ht="13">
+    <row r="923" spans="5:5" ht="12.75">
       <c r="E923" s="27"/>
     </row>
-    <row r="924" spans="5:5" ht="13">
+    <row r="924" spans="5:5" ht="12.75">
       <c r="E924" s="27"/>
     </row>
-    <row r="925" spans="5:5" ht="13">
+    <row r="925" spans="5:5" ht="12.75">
       <c r="E925" s="27"/>
     </row>
-    <row r="926" spans="5:5" ht="13">
+    <row r="926" spans="5:5" ht="12.75">
       <c r="E926" s="27"/>
     </row>
-    <row r="927" spans="5:5" ht="13">
+    <row r="927" spans="5:5" ht="12.75">
       <c r="E927" s="27"/>
     </row>
-    <row r="928" spans="5:5" ht="13">
+    <row r="928" spans="5:5" ht="12.75">
       <c r="E928" s="27"/>
     </row>
-    <row r="929" spans="5:5" ht="13">
+    <row r="929" spans="5:5" ht="12.75">
       <c r="E929" s="27"/>
     </row>
-    <row r="930" spans="5:5" ht="13">
+    <row r="930" spans="5:5" ht="12.75">
       <c r="E930" s="27"/>
     </row>
-    <row r="931" spans="5:5" ht="13">
+    <row r="931" spans="5:5" ht="12.75">
       <c r="E931" s="27"/>
     </row>
-    <row r="932" spans="5:5" ht="13">
+    <row r="932" spans="5:5" ht="12.75">
       <c r="E932" s="27"/>
     </row>
-    <row r="933" spans="5:5" ht="13">
+    <row r="933" spans="5:5" ht="12.75">
       <c r="E933" s="27"/>
     </row>
-    <row r="934" spans="5:5" ht="13">
+    <row r="934" spans="5:5" ht="12.75">
       <c r="E934" s="27"/>
     </row>
-    <row r="935" spans="5:5" ht="13">
+    <row r="935" spans="5:5" ht="12.75">
       <c r="E935" s="27"/>
     </row>
-    <row r="936" spans="5:5" ht="13">
+    <row r="936" spans="5:5" ht="12.75">
       <c r="E936" s="27"/>
     </row>
-    <row r="937" spans="5:5" ht="13">
+    <row r="937" spans="5:5" ht="12.75">
       <c r="E937" s="27"/>
     </row>
-    <row r="938" spans="5:5" ht="13">
+    <row r="938" spans="5:5" ht="12.75">
       <c r="E938" s="27"/>
     </row>
-    <row r="939" spans="5:5" ht="13">
+    <row r="939" spans="5:5" ht="12.75">
       <c r="E939" s="27"/>
     </row>
-    <row r="940" spans="5:5" ht="13">
+    <row r="940" spans="5:5" ht="12.75">
       <c r="E940" s="27"/>
     </row>
-    <row r="941" spans="5:5" ht="13">
+    <row r="941" spans="5:5" ht="12.75">
       <c r="E941" s="27"/>
     </row>
-    <row r="942" spans="5:5" ht="13">
+    <row r="942" spans="5:5" ht="12.75">
       <c r="E942" s="27"/>
     </row>
-    <row r="943" spans="5:5" ht="13">
+    <row r="943" spans="5:5" ht="12.75">
       <c r="E943" s="27"/>
     </row>
-    <row r="944" spans="5:5" ht="13">
+    <row r="944" spans="5:5" ht="12.75">
       <c r="E944" s="27"/>
     </row>
-    <row r="945" spans="5:5" ht="13">
+    <row r="945" spans="5:5" ht="12.75">
       <c r="E945" s="27"/>
     </row>
-    <row r="946" spans="5:5" ht="13">
+    <row r="946" spans="5:5" ht="12.75">
       <c r="E946" s="27"/>
     </row>
-    <row r="947" spans="5:5" ht="13">
+    <row r="947" spans="5:5" ht="12.75">
       <c r="E947" s="27"/>
     </row>
-    <row r="948" spans="5:5" ht="13">
+    <row r="948" spans="5:5" ht="12.75">
       <c r="E948" s="27"/>
     </row>
-    <row r="949" spans="5:5" ht="13">
+    <row r="949" spans="5:5" ht="12.75">
       <c r="E949" s="27"/>
     </row>
-    <row r="950" spans="5:5" ht="13">
+    <row r="950" spans="5:5" ht="12.75">
       <c r="E950" s="27"/>
     </row>
-    <row r="951" spans="5:5" ht="13">
+    <row r="951" spans="5:5" ht="12.75">
       <c r="E951" s="27"/>
     </row>
-    <row r="952" spans="5:5" ht="13">
+    <row r="952" spans="5:5" ht="12.75">
       <c r="E952" s="27"/>
     </row>
-    <row r="953" spans="5:5" ht="13">
+    <row r="953" spans="5:5" ht="12.75">
       <c r="E953" s="27"/>
     </row>
-    <row r="954" spans="5:5" ht="13">
+    <row r="954" spans="5:5" ht="12.75">
       <c r="E954" s="27"/>
     </row>
-    <row r="955" spans="5:5" ht="13">
+    <row r="955" spans="5:5" ht="12.75">
       <c r="E955" s="27"/>
     </row>
-    <row r="956" spans="5:5" ht="13">
+    <row r="956" spans="5:5" ht="12.75">
       <c r="E956" s="27"/>
     </row>
-    <row r="957" spans="5:5" ht="13">
+    <row r="957" spans="5:5" ht="12.75">
       <c r="E957" s="27"/>
     </row>
-    <row r="958" spans="5:5" ht="13">
+    <row r="958" spans="5:5" ht="12.75">
       <c r="E958" s="27"/>
     </row>
-    <row r="959" spans="5:5" ht="13">
+    <row r="959" spans="5:5" ht="12.75">
       <c r="E959" s="27"/>
     </row>
-    <row r="960" spans="5:5" ht="13">
+    <row r="960" spans="5:5" ht="12.75">
       <c r="E960" s="27"/>
     </row>
-    <row r="961" spans="5:5" ht="13">
+    <row r="961" spans="5:5" ht="12.75">
       <c r="E961" s="27"/>
     </row>
-    <row r="962" spans="5:5" ht="13">
+    <row r="962" spans="5:5" ht="12.75">
       <c r="E962" s="27"/>
     </row>
-    <row r="963" spans="5:5" ht="13">
+    <row r="963" spans="5:5" ht="12.75">
       <c r="E963" s="27"/>
     </row>
-    <row r="964" spans="5:5" ht="13">
+    <row r="964" spans="5:5" ht="12.75">
       <c r="E964" s="27"/>
     </row>
-    <row r="965" spans="5:5" ht="13">
+    <row r="965" spans="5:5" ht="12.75">
       <c r="E965" s="27"/>
     </row>
-    <row r="966" spans="5:5" ht="13">
+    <row r="966" spans="5:5" ht="12.75">
       <c r="E966" s="27"/>
     </row>
-    <row r="967" spans="5:5" ht="13">
+    <row r="967" spans="5:5" ht="12.75">
       <c r="E967" s="27"/>
     </row>
-    <row r="968" spans="5:5" ht="13">
+    <row r="968" spans="5:5" ht="12.75">
       <c r="E968" s="27"/>
     </row>
-    <row r="969" spans="5:5" ht="13">
+    <row r="969" spans="5:5" ht="12.75">
       <c r="E969" s="27"/>
     </row>
-    <row r="970" spans="5:5" ht="13">
+    <row r="970" spans="5:5" ht="12.75">
       <c r="E970" s="27"/>
     </row>
-    <row r="971" spans="5:5" ht="13">
+    <row r="971" spans="5:5" ht="12.75">
       <c r="E971" s="27"/>
     </row>
-    <row r="972" spans="5:5" ht="13">
+    <row r="972" spans="5:5" ht="12.75">
       <c r="E972" s="27"/>
     </row>
-    <row r="973" spans="5:5" ht="13">
+    <row r="973" spans="5:5" ht="12.75">
       <c r="E973" s="27"/>
     </row>
-    <row r="974" spans="5:5" ht="13">
+    <row r="974" spans="5:5" ht="12.75">
       <c r="E974" s="27"/>
     </row>
-    <row r="975" spans="5:5" ht="13">
+    <row r="975" spans="5:5" ht="12.75">
       <c r="E975" s="27"/>
     </row>
-    <row r="976" spans="5:5" ht="13">
+    <row r="976" spans="5:5" ht="12.75">
       <c r="E976" s="27"/>
     </row>
-    <row r="977" spans="5:5" ht="13">
+    <row r="977" spans="5:5" ht="12.75">
       <c r="E977" s="27"/>
     </row>
-    <row r="978" spans="5:5" ht="13">
+    <row r="978" spans="5:5" ht="12.75">
       <c r="E978" s="27"/>
     </row>
-    <row r="979" spans="5:5" ht="13">
+    <row r="979" spans="5:5" ht="12.75">
       <c r="E979" s="27"/>
     </row>
-    <row r="980" spans="5:5" ht="13">
+    <row r="980" spans="5:5" ht="12.75">
       <c r="E980" s="27"/>
     </row>
-    <row r="981" spans="5:5" ht="13">
+    <row r="981" spans="5:5" ht="12.75">
       <c r="E981" s="27"/>
     </row>
-    <row r="982" spans="5:5" ht="13">
+    <row r="982" spans="5:5" ht="12.75">
       <c r="E982" s="27"/>
     </row>
-    <row r="983" spans="5:5" ht="13">
+    <row r="983" spans="5:5" ht="12.75">
       <c r="E983" s="27"/>
     </row>
-    <row r="984" spans="5:5" ht="13">
+    <row r="984" spans="5:5" ht="12.75">
       <c r="E984" s="27"/>
     </row>
-    <row r="985" spans="5:5" ht="13">
+    <row r="985" spans="5:5" ht="12.75">
       <c r="E985" s="27"/>
     </row>
-    <row r="986" spans="5:5" ht="13">
+    <row r="986" spans="5:5" ht="12.75">
       <c r="E986" s="27"/>
     </row>
-    <row r="987" spans="5:5" ht="13">
+    <row r="987" spans="5:5" ht="12.75">
       <c r="E987" s="27"/>
     </row>
-    <row r="988" spans="5:5" ht="13">
+    <row r="988" spans="5:5" ht="12.75">
       <c r="E988" s="27"/>
     </row>
-    <row r="989" spans="5:5" ht="13">
+    <row r="989" spans="5:5" ht="12.75">
       <c r="E989" s="27"/>
     </row>
-    <row r="990" spans="5:5" ht="13">
+    <row r="990" spans="5:5" ht="12.75">
       <c r="E990" s="27"/>
     </row>
-    <row r="991" spans="5:5" ht="13">
+    <row r="991" spans="5:5" ht="12.75">
       <c r="E991" s="27"/>
     </row>
-    <row r="992" spans="5:5" ht="13">
+    <row r="992" spans="5:5" ht="12.75">
       <c r="E992" s="27"/>
     </row>
-    <row r="993" spans="5:5" ht="13">
+    <row r="993" spans="5:5" ht="12.75">
       <c r="E993" s="27"/>
     </row>
-    <row r="994" spans="5:5" ht="13">
+    <row r="994" spans="5:5" ht="12.75">
       <c r="E994" s="27"/>
     </row>
-    <row r="995" spans="5:5" ht="13">
+    <row r="995" spans="5:5" ht="12.75">
       <c r="E995" s="27"/>
     </row>
-    <row r="996" spans="5:5" ht="13">
+    <row r="996" spans="5:5" ht="12.75">
       <c r="E996" s="27"/>
     </row>
-    <row r="997" spans="5:5" ht="13">
+    <row r="997" spans="5:5" ht="12.75">
       <c r="E997" s="27"/>
     </row>
-    <row r="998" spans="5:5" ht="13">
+    <row r="998" spans="5:5" ht="12.75">
       <c r="E998" s="27"/>
     </row>
-    <row r="999" spans="5:5" ht="13">
+    <row r="999" spans="5:5" ht="12.75">
       <c r="E999" s="27"/>
     </row>
-    <row r="1000" spans="5:5" ht="13">
+    <row r="1000" spans="5:5" ht="12.75">
       <c r="E1000" s="27"/>
     </row>
-    <row r="1001" spans="5:5" ht="13">
+    <row r="1001" spans="5:5" ht="12.75">
       <c r="E1001" s="27"/>
     </row>
   </sheetData>
@@ -5355,10 +5444,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G1" sqref="G1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
@@ -5379,9 +5468,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="47" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5393,15 +5485,18 @@
       <c r="D2" s="3">
         <v>-77.016400000000004</v>
       </c>
-      <c r="E2" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="5">
         <v>11</v>
       </c>
+      <c r="G2" s="47" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5413,15 +5508,18 @@
       <c r="D3" s="4">
         <v>-73.981399999999994</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>51000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>36</v>
       </c>
+      <c r="G3" s="47" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5433,15 +5531,18 @@
       <c r="D4" s="4">
         <v>-71.059799999999996</v>
       </c>
-      <c r="E4" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="5">
         <v>25</v>
       </c>
+      <c r="G4" s="47" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5453,15 +5554,18 @@
       <c r="D5" s="4">
         <v>-87.650099999999995</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>14000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>17</v>
       </c>
+      <c r="G5" s="47" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5473,22 +5577,22 @@
       <c r="D6" s="4">
         <v>-118.244</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>44000</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="42" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>35.772100000000002</v>
@@ -5496,19 +5600,22 @@
       <c r="D7" s="4">
         <v>-78.638599999999997</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>55000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>37</v>
       </c>
+      <c r="G7" s="47" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>30.267150000000001</v>
@@ -5516,19 +5623,22 @@
       <c r="D8" s="4">
         <v>-97.743099999999998</v>
       </c>
-      <c r="E8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="5">
         <v>48</v>
       </c>
+      <c r="G8" s="47" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>33.749000000000002</v>
@@ -5536,113 +5646,112 @@
       <c r="D9" s="4">
         <v>-84.388000000000005</v>
       </c>
-      <c r="E9" s="2">
-        <v>4000</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="5">
         <v>13</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:F9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13">
+    <row r="1" spans="1:27" ht="12.75">
       <c r="A1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:27" ht="12.75">
+      <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="13">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:27" ht="15">
+      <c r="A3" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="14.25">
+      <c r="A4" s="29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="14">
-      <c r="A3" s="29" t="s">
+      <c r="B4" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="30" t="s">
+    </row>
+    <row r="5" spans="1:27" ht="12.75">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="13">
-      <c r="A4" s="29" t="s">
+      <c r="B5" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
+    </row>
+    <row r="6" spans="1:27" ht="16.5">
+      <c r="A6" s="31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="17">
-      <c r="A5" s="31" t="s">
+      <c r="B6" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="14">
-      <c r="A6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5665,18 +5774,21 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="14">
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5699,18 +5811,21 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="14">
-      <c r="A8" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5">
+      <c r="A8" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5733,18 +5848,21 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="14">
-      <c r="A9" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5">
+      <c r="A9" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>208</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5767,114 +5885,132 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="14">
-      <c r="A10" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-    </row>
-    <row r="11" spans="1:26" ht="14">
-      <c r="A11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-    </row>
-    <row r="12" spans="1:26" ht="14">
-      <c r="A12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-    </row>
-    <row r="13" spans="1:26" ht="14">
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" ht="16.5">
+      <c r="A10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" ht="16.5">
+      <c r="A11" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.5">
+      <c r="A12" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" ht="15">
       <c r="A13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+        <v>196</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -5897,15 +6033,18 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
-    </row>
-    <row r="14" spans="1:26" ht="14">
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" ht="15">
       <c r="A14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>183</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5929,15 +6068,18 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
-    </row>
-    <row r="15" spans="1:26" ht="14">
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" ht="15">
       <c r="A15" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>184</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5961,15 +6103,18 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
-    </row>
-    <row r="16" spans="1:26" ht="14">
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" ht="15">
       <c r="A16" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -5993,111 +6138,123 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-    </row>
-    <row r="17" spans="1:26" ht="14">
-      <c r="A17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="1:26" ht="13">
-      <c r="A18" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="1:26" ht="13">
-      <c r="A19" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="1:26" ht="13">
-      <c r="A20" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="11"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="1:27" ht="15">
+      <c r="A17" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="1:27" ht="15">
+      <c r="A18" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="1:27" ht="15">
+      <c r="A19" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" ht="14.25">
+      <c r="A20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -6121,15 +6278,18 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-    </row>
-    <row r="21" spans="1:26" ht="13">
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" ht="12.75">
       <c r="A21" s="37" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6153,15 +6313,18 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-    </row>
-    <row r="22" spans="1:26" ht="13">
-      <c r="A22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="11"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" ht="12.75">
+      <c r="A22" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -6185,15 +6348,18 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="1:26" ht="13">
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" ht="12.75">
       <c r="A23" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -6217,15 +6383,18 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-    </row>
-    <row r="24" spans="1:26" ht="13">
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" ht="12.75">
       <c r="A24" s="37" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -6249,15 +6418,18 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="1:26" ht="13">
-      <c r="A25" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="11"/>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" ht="12.75">
+      <c r="A25" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -6281,120 +6453,126 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-    </row>
-    <row r="26" spans="1:26" ht="13">
-      <c r="A26" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" ht="13">
-      <c r="A27" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" ht="13">
-      <c r="A28" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29" spans="1:26" ht="13">
-      <c r="A29" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="13"/>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" ht="12.75">
+      <c r="A26" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" ht="12.75">
+      <c r="A27" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" ht="12.75">
+      <c r="A28" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" ht="12.75">
+      <c r="A29" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -6417,18 +6595,21 @@
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" ht="13">
-      <c r="A30" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="13"/>
+      <c r="AA29" s="13"/>
+    </row>
+    <row r="30" spans="1:27" ht="12.75">
+      <c r="A30" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -6451,8 +6632,448 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+    </row>
+    <row r="31" spans="1:27" ht="12.75">
+      <c r="A31" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+    </row>
+    <row r="32" spans="1:27" ht="12.75">
+      <c r="A32" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+    </row>
+    <row r="33" spans="1:27" ht="12.75">
+      <c r="A33" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1ED728-0DAC-462B-8BCA-D3A63DBEE251}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>568.9</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>222.2</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>303.5</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>510.7</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>347.1</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>259.8</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>312.7</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
+        <v>591.79999999999995</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247902CA-B8DB-4C41-AB71-1C7A190FF973}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="45">
+        <v>69.44</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>71.73</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" thickBot="1">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" thickBot="1">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="46">
+        <v>70.84</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>67.95</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>69.91</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>